--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D252C25-4402-CC4B-B707-6E640429D97D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAD765-27D4-674C-8DE7-6F57C7C9754A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1320" windowWidth="26340" windowHeight="15540" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
+    <workbookView xWindow="1720" yWindow="1320" windowWidth="26340" windowHeight="15540" activeTab="1" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="x4" sheetId="1" r:id="rId1"/>
+    <sheet name="x7" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -255,9 +256,6 @@
     <t>L-13GD</t>
   </si>
   <si>
-    <t>#42929</t>
-  </si>
-  <si>
     <t>MM74HCT541MTCX</t>
   </si>
   <si>
@@ -277,6 +275,411 @@
   </si>
   <si>
     <t>L-13ID</t>
+  </si>
+  <si>
+    <t>C1 C2 C3 C4 C5 C7 C8 C9 C10 C13 C15 C16 C17 C18 C19 C20 C21 C22</t>
+  </si>
+  <si>
+    <t>0.01 uF</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Кер.ЧИП конд. 0.01 мкФ</t>
+  </si>
+  <si>
+    <t>10 uF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Кер.ЧИП конд. 10 мкФ</t>
+  </si>
+  <si>
+    <t>D1 D4 D13 D17 D22 D23 D24</t>
+  </si>
+  <si>
+    <t>R2 R3 R6 R7 R8 R10 R11 R14 R15 R16 R17 R19 R22 R23 R24 R25 R26 R28 R31 R32 R34 R38 R39 R48</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>R33 R43</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>R1 R4 R5 R9 R12 R13 R18 R20 R21 R27 R29 R30 R35 R36 R37 R40 R41 R42 R45 R46 R47</t>
+  </si>
+  <si>
+    <t>Резистор 220 Ом</t>
+  </si>
+  <si>
+    <t>100 kOhm</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>Резистор 100 кОм</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>U1 U3 U6</t>
+  </si>
+  <si>
+    <t>U2 U4 U7 U9</t>
+  </si>
+  <si>
+    <t>ATxmega128A1U-AU</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>TQFP-100</t>
+  </si>
+  <si>
+    <t>LD1117S33TR_SOT223</t>
+  </si>
+  <si>
+    <t>Регулятор напряжения</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>USB-B</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>Разъём USB-B</t>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>Защита интерфейса USB</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>CL21B103KCANNNC</t>
+  </si>
+  <si>
+    <t>#863513</t>
+  </si>
+  <si>
+    <t>#07655639</t>
+  </si>
+  <si>
+    <t>25.10.2021</t>
+  </si>
+  <si>
+    <t>CL21A106KOQNNNE</t>
+  </si>
+  <si>
+    <t>#863491</t>
+  </si>
+  <si>
+    <t>#863708</t>
+  </si>
+  <si>
+    <t>CL21F104ZBCNNNC</t>
+  </si>
+  <si>
+    <t>#241389</t>
+  </si>
+  <si>
+    <t>BAS316.115</t>
+  </si>
+  <si>
+    <t>#25499</t>
+  </si>
+  <si>
+    <t>L-383YDT</t>
+  </si>
+  <si>
+    <t>#25298</t>
+  </si>
+  <si>
+    <t>L-383GDT</t>
+  </si>
+  <si>
+    <t>#314765</t>
+  </si>
+  <si>
+    <t>L-383IDT</t>
+  </si>
+  <si>
+    <t>MF-MSMF050-2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>#186713</t>
+  </si>
+  <si>
+    <t>MIDI разъём</t>
+  </si>
+  <si>
+    <t>DIN-5</t>
+  </si>
+  <si>
+    <t>#2739747</t>
+  </si>
+  <si>
+    <t>#3638121</t>
+  </si>
+  <si>
+    <t>DS1099-WN0-FE</t>
+  </si>
+  <si>
+    <t>#432087</t>
+  </si>
+  <si>
+    <t>RC0805FR-07220RL</t>
+  </si>
+  <si>
+    <t>#2782319</t>
+  </si>
+  <si>
+    <t>CR-05FL7--470R</t>
+  </si>
+  <si>
+    <t>#353447</t>
+  </si>
+  <si>
+    <t>RC0805JR-07100RL</t>
+  </si>
+  <si>
+    <t>#2782222</t>
+  </si>
+  <si>
+    <t>CR-05FL7---10K</t>
+  </si>
+  <si>
+    <t>#2782368</t>
+  </si>
+  <si>
+    <t>CR-05JL7--100K</t>
+  </si>
+  <si>
+    <t>#244787</t>
+  </si>
+  <si>
+    <t>#208059</t>
+  </si>
+  <si>
+    <t>LD1117S33TR</t>
+  </si>
+  <si>
+    <t>#42598</t>
+  </si>
+  <si>
+    <t>#1352789</t>
+  </si>
+  <si>
+    <t>KLS7-TS6606-5.0-180</t>
+  </si>
+  <si>
+    <t>J1 J2 J3 J4 J5 J6 J7 J8 J9 J10 J12 J13 J14 J15</t>
+  </si>
+  <si>
+    <t>#7670264</t>
+  </si>
+  <si>
+    <t>23.10.2021</t>
+  </si>
+  <si>
+    <t>#9000183845</t>
+  </si>
+  <si>
+    <t>#7292866</t>
+  </si>
+  <si>
+    <t>04.08.2021</t>
+  </si>
+  <si>
+    <t>#44684</t>
+  </si>
+  <si>
+    <t>PBS-2 (DS1023-1x2)</t>
+  </si>
+  <si>
+    <t>Гнездо на плату 2.54мм 1х2 прямое</t>
+  </si>
+  <si>
+    <t>#32906296742</t>
+  </si>
+  <si>
+    <t>HCPL-2730</t>
+  </si>
+  <si>
+    <t>#5011970852262510</t>
+  </si>
+  <si>
+    <t>#32402564814</t>
+  </si>
+  <si>
+    <t>03.11.2021</t>
+  </si>
+  <si>
+    <t>#5014441743802510</t>
+  </si>
+  <si>
+    <t>DS-5-01</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>W202107291840866</t>
+  </si>
+  <si>
+    <t>29.07.2021</t>
+  </si>
+  <si>
+    <t>Корпус, масса в граммах</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>#07487681</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>#307956</t>
+  </si>
+  <si>
+    <t>#07671493</t>
+  </si>
+  <si>
+    <t>08.11.2021</t>
+  </si>
+  <si>
+    <t>#7174515</t>
+  </si>
+  <si>
+    <t>01.07.2021</t>
+  </si>
+  <si>
+    <t>#2782454</t>
+  </si>
+  <si>
+    <t>CR-05JL7--470R</t>
+  </si>
+  <si>
+    <t>10 nF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Кер.ЧИП конд. 10 нФ, X7R, 100В, 10%</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>#863492</t>
+  </si>
+  <si>
+    <t>CL21A106KOQNNNG</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>J2 J3 J4 J5 J6 J7 J10 J11</t>
+  </si>
+  <si>
+    <t>#1005002434565701</t>
+  </si>
+  <si>
+    <t>#5009893661922510</t>
+  </si>
+  <si>
+    <t>18.04.2021</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>R2 R3 R4 R5 R7 R9 R10 R11 R12 R13 R22 R23</t>
+  </si>
+  <si>
+    <t>220 Ohm</t>
+  </si>
+  <si>
+    <t>#2782412</t>
+  </si>
+  <si>
+    <t>CR-05JL7--220R</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>#4000592649273</t>
+  </si>
+  <si>
+    <t>02.06.2021</t>
+  </si>
+  <si>
+    <t>#5010170738742510</t>
+  </si>
+  <si>
+    <t>#2177592</t>
+  </si>
+  <si>
+    <t>KLS7-TS6606-8.0-180</t>
+  </si>
+  <si>
+    <t>12.06.2021</t>
+  </si>
+  <si>
+    <t>#33022627806</t>
+  </si>
+  <si>
+    <t>#5010848944632510</t>
+  </si>
+  <si>
+    <t>Шильдик</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Крышка корпуса, масса в граммах</t>
   </si>
 </sst>
 </file>
@@ -287,7 +690,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _R_U_B"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,8 +708,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +736,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -391,31 +808,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,7 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -441,16 +848,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -766,107 +1208,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7993AECC-982E-A443-870E-38A46DB5AE88}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="13"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="13" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -875,65 +1318,86 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
       </c>
       <c r="J4">
         <v>0.54</v>
       </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4" si="0">J4*K4+L4</f>
+        <v>10.8</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" ref="N4" si="1">M4/K4*B4</f>
+        <v>1.08</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="8">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22">
-        <v>0.48</v>
-      </c>
-      <c r="K5" s="15">
+      <c r="H5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5">
+        <v>0.47</v>
+      </c>
+      <c r="K5" s="8">
         <v>100</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22">
-        <f t="shared" ref="M5" si="0">J5*K5+L5</f>
-        <v>48</v>
-      </c>
-      <c r="N5" s="23">
-        <f t="shared" ref="N5" si="1">M5/K5*B5</f>
-        <v>3.84</v>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13">
+        <f t="shared" ref="M5" si="2">J5*K5+L5</f>
+        <v>47</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" ref="N5" si="3">M5/K5*B5</f>
+        <v>3.76</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>81</v>
+      <c r="A6" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -944,22 +1408,39 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" t="s">
+        <v>180</v>
       </c>
       <c r="J6">
         <v>0.88</v>
       </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" ref="M6" si="4">J6*K6+L6</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" ref="N6" si="5">M6/K6*B6</f>
+        <v>3.5200000000000005</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>82</v>
+      <c r="A7" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -970,15 +1451,35 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
       </c>
       <c r="J7">
         <v>5.4</v>
       </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" ref="M7:M9" si="6">J7*K7+L7</f>
+        <v>270</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" ref="N7:N9" si="7">M7/K7*B7</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B8">
@@ -990,19 +1491,36 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>76</v>
+      <c r="G8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" t="s">
+        <v>183</v>
       </c>
       <c r="J8">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="M8" s="29">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="N8" s="30">
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>83</v>
+      <c r="A9" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1013,10 +1531,30 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="H9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
       <c r="J9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="29">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="N9" s="30">
+        <f t="shared" si="7"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -1030,11 +1568,37 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10">
+        <f>96.96/5</f>
+        <v>19.391999999999999</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>300.49</v>
+      </c>
+      <c r="M10" s="29">
+        <f t="shared" ref="M10" si="8">J10*K10+L10</f>
+        <v>494.40999999999997</v>
+      </c>
+      <c r="N10" s="30">
+        <f t="shared" ref="N10" si="9">M10/K10*B10</f>
+        <v>49.440999999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B11">
@@ -1046,18 +1610,35 @@
       <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" t="s">
+        <v>185</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="M11" s="29">
+        <f t="shared" ref="M11:M12" si="10">J11*K11+L11</f>
+        <v>100</v>
+      </c>
+      <c r="N11" s="30">
+        <f t="shared" ref="N11:N12" si="11">M11/K11*B11</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="6">
         <v>470</v>
       </c>
       <c r="B12">
@@ -1069,12 +1650,38 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="F12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12">
+        <v>0.12</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
+      </c>
+      <c r="M12" s="25">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="N12" s="25">
+        <f t="shared" si="11"/>
+        <v>1.7999999999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="6">
         <v>100</v>
       </c>
       <c r="B13">
@@ -1086,12 +1693,12 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B14">
@@ -1103,8 +1710,33 @@
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K14" s="26">
+        <v>20</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="N14" s="36">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1117,9 +1749,35 @@
       <c r="D15" t="s">
         <v>50</v>
       </c>
+      <c r="F15" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K15" s="24">
+        <v>10</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" ref="M15" si="12">J15*K15+L15</f>
+        <v>23</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" ref="N15" si="13">M15/K15*B15</f>
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B16">
@@ -1131,18 +1789,38 @@
       <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>78</v>
+      <c r="H16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16">
+        <v>10.1</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" ref="M16:M17" si="14">J16*K16+L16</f>
+        <v>202</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" ref="N16:N17" si="15">M16/K16*B16</f>
+        <v>20.2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B17">
@@ -1154,12 +1832,41 @@
       <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="K17" s="24">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>190</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="14"/>
+        <v>907.6</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="15"/>
+        <v>45.38</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B18">
@@ -1171,12 +1878,38 @@
       <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="G18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18">
+        <v>149.11000000000001</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>317.52999999999997</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" ref="M18" si="16">J18*K18+L18</f>
+        <v>1063.08</v>
+      </c>
+      <c r="N18" s="37">
+        <f t="shared" ref="N18" si="17">M18/K18*B18</f>
+        <v>212.61599999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B19">
@@ -1188,49 +1921,576 @@
       <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="7">
+        <v>12.881309999999999</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="H19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
       <c r="J19">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" ref="M19" si="18">J19*K19+L19</f>
+        <v>110</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" ref="N19" si="19">M19/K19*B19</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21">
+        <v>0.4</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" ref="M21:M22" si="20">J21*K21+L21</f>
+        <v>40</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" ref="N21:N22" si="21">M21/K21*B21</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22">
+        <v>0.47</v>
+      </c>
+      <c r="K22" s="8">
+        <v>100</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13">
+        <f t="shared" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="21"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="F23" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23">
+        <v>0.86</v>
+      </c>
+      <c r="K23" s="24">
+        <v>100</v>
+      </c>
+      <c r="L23" s="35"/>
+      <c r="M23" s="13">
+        <f t="shared" ref="M23:M25" si="22">J23*K23+L23</f>
+        <v>86</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" ref="N23:N25" si="23">M23/K23*B23</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24">
+        <v>3.2</v>
+      </c>
+      <c r="K24" s="24">
+        <v>10</v>
+      </c>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+      <c r="N24" s="35">
+        <f t="shared" si="23"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J22">
+      <c r="H25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25">
         <v>45</v>
+      </c>
+      <c r="K25" s="24">
+        <v>5</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="22"/>
+        <v>225</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="23"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26">
+        <v>7.3760000000000003</v>
+      </c>
+      <c r="K26" s="24">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>775.44</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" ref="M26:M33" si="24">J26*K26+L26</f>
+        <v>1513.04</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" ref="N26:N33" si="25">M26/K26*B26</f>
+        <v>121.0432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28">
+        <v>0.12</v>
+      </c>
+      <c r="K28">
+        <v>120</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="24"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="25"/>
+        <v>1.4399999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29">
+        <v>6.3</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="25"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30">
+        <v>10.8</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" si="24"/>
+        <v>216</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="25"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>75.724000000000004</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>729.22</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="24"/>
+        <v>1486.46</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="25"/>
+        <v>148.64600000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="26"/>
+      <c r="J32">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="K32">
+        <v>750</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="24"/>
+        <v>4400</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" si="25"/>
+        <v>410.66666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="26"/>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28">
+        <f>SUM(N4:N33)</f>
+        <v>1149.5528666666664</v>
       </c>
     </row>
   </sheetData>
@@ -1257,12 +2517,1421 @@
     <hyperlink ref="G19" r:id="rId9" xr:uid="{DB7F1783-C48C-9D40-BBFD-8D4097BE8A98}"/>
     <hyperlink ref="F11" r:id="rId10" xr:uid="{F3C03C8C-0C40-094E-9F71-1C4D58A71430}"/>
     <hyperlink ref="G11" r:id="rId11" xr:uid="{1435EFC7-D123-A349-9347-F1FC07C520F3}"/>
-    <hyperlink ref="F8" r:id="rId12" xr:uid="{60192CCA-A3FE-AA41-94AB-8E35C1284F4D}"/>
-    <hyperlink ref="G8" r:id="rId13" display="42929" xr:uid="{51701293-1DE5-D247-9EBB-C510A6A3F109}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{8859AF1F-13E4-8342-B316-410A6FA0149A}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{AB88F6E6-123F-9D4E-9FA0-814ED4CC1BBB}"/>
-    <hyperlink ref="F22" r:id="rId16" xr:uid="{73ECD750-DE83-3146-94A2-DE706EEE6120}"/>
-    <hyperlink ref="G22" r:id="rId17" xr:uid="{8A1760EB-8876-864C-8DE1-93EE8FD52879}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{8859AF1F-13E4-8342-B316-410A6FA0149A}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{AB88F6E6-123F-9D4E-9FA0-814ED4CC1BBB}"/>
+    <hyperlink ref="F25" r:id="rId14" xr:uid="{73ECD750-DE83-3146-94A2-DE706EEE6120}"/>
+    <hyperlink ref="G25" r:id="rId15" xr:uid="{8A1760EB-8876-864C-8DE1-93EE8FD52879}"/>
+    <hyperlink ref="H4" r:id="rId16" xr:uid="{919B0B41-0EEF-5144-B8D8-548C261081BD}"/>
+    <hyperlink ref="H5" r:id="rId17" xr:uid="{756B715C-9A28-7845-BD5E-052D2A290691}"/>
+    <hyperlink ref="H6" r:id="rId18" xr:uid="{FA50EF8A-3D4D-7D40-B0FE-ECD3C6EC8DEF}"/>
+    <hyperlink ref="F7" r:id="rId19" xr:uid="{F82B1C46-B378-4843-9581-661F4101C8A1}"/>
+    <hyperlink ref="G8" r:id="rId20" xr:uid="{D2F8FA51-B20C-8D41-9C7D-2009E771F231}"/>
+    <hyperlink ref="F8" r:id="rId21" xr:uid="{309B252E-4872-7C4E-8EFE-76E899D16B15}"/>
+    <hyperlink ref="H8" r:id="rId22" xr:uid="{892A0075-31EB-F44F-AD0A-654CEDE22CA0}"/>
+    <hyperlink ref="H7" r:id="rId23" xr:uid="{03A7775B-DC8B-EB40-BE96-698545BE1D39}"/>
+    <hyperlink ref="F9" r:id="rId24" xr:uid="{69DF4357-6B98-3144-9838-DA4B471DCEC2}"/>
+    <hyperlink ref="H9" r:id="rId25" xr:uid="{619F7BF4-47BC-5C41-8F0A-FB270A4D1363}"/>
+    <hyperlink ref="H11" r:id="rId26" xr:uid="{F3EEB5A4-6DAC-164A-986D-088632A575F5}"/>
+    <hyperlink ref="G12" r:id="rId27" xr:uid="{3CF08295-80DC-DF42-8190-D66E64E614C2}"/>
+    <hyperlink ref="F12" r:id="rId28" xr:uid="{DFD91A03-B82B-1D48-B3E9-83EAD6BF2C2C}"/>
+    <hyperlink ref="H12" r:id="rId29" xr:uid="{7A4372D7-3EFB-EC4E-9EE3-3A2A8D8126B4}"/>
+    <hyperlink ref="H16" r:id="rId30" xr:uid="{7362C77B-1107-1940-A06A-7024A3CCD0D0}"/>
+    <hyperlink ref="F19" r:id="rId31" display="12.88131" xr:uid="{20FF9D00-0B3A-E846-9C31-D49FD05FD6B6}"/>
+    <hyperlink ref="H19" r:id="rId32" xr:uid="{B3379768-D2F2-BF4D-A818-86EFE9315E5A}"/>
+    <hyperlink ref="G21" r:id="rId33" xr:uid="{1C5104A6-6A04-4E4C-9172-DC4A512FC675}"/>
+    <hyperlink ref="H21" r:id="rId34" xr:uid="{51D7A6CF-4351-1942-B212-00AA57470581}"/>
+    <hyperlink ref="F21" r:id="rId35" xr:uid="{26939209-0E3D-B54E-8C9D-75621A567990}"/>
+    <hyperlink ref="F22" r:id="rId36" xr:uid="{CA106586-87D6-214A-B1FC-F3C165E18487}"/>
+    <hyperlink ref="G22" r:id="rId37" xr:uid="{E6710FD0-D751-E14C-83CA-F3FD3FE4D2BC}"/>
+    <hyperlink ref="H22" r:id="rId38" xr:uid="{58E74E8C-7CCB-784D-9D3F-ABCDFE44374B}"/>
+    <hyperlink ref="G23" r:id="rId39" xr:uid="{9C7B8CA6-6F7C-E44C-8EB8-CE6D10B19524}"/>
+    <hyperlink ref="H23" r:id="rId40" xr:uid="{2E3F94E3-08E8-4642-86E8-A49AEC6EA2B2}"/>
+    <hyperlink ref="F23" r:id="rId41" xr:uid="{323EEAE0-9E09-B54B-81E7-5234305BCBBB}"/>
+    <hyperlink ref="G24" r:id="rId42" xr:uid="{A2B16C39-D2E8-8344-9089-0426E4B000E5}"/>
+    <hyperlink ref="F24" r:id="rId43" xr:uid="{9D2F8C2A-510B-F843-8858-6672BBE4E308}"/>
+    <hyperlink ref="H24" r:id="rId44" xr:uid="{DA789950-489E-0946-A600-B1AE25B7E0F7}"/>
+    <hyperlink ref="H25" r:id="rId45" xr:uid="{C3363112-9F34-0A40-98C0-10727C294532}"/>
+    <hyperlink ref="G26" r:id="rId46" xr:uid="{A2FCC638-00F8-4947-AB0E-0372A59900B5}"/>
+    <hyperlink ref="H26" r:id="rId47" xr:uid="{B6A26CD5-416E-4746-993C-A5F51FB469F8}"/>
+    <hyperlink ref="G27" r:id="rId48" xr:uid="{6DDCA5D0-75BE-3E4F-B558-39A147FC422F}"/>
+    <hyperlink ref="F27" r:id="rId49" xr:uid="{C3042CE6-7315-AA4B-995F-46EC0EBC8387}"/>
+    <hyperlink ref="G29" r:id="rId50" xr:uid="{E0F917C4-4623-214A-8535-330FA265216D}"/>
+    <hyperlink ref="F29" r:id="rId51" xr:uid="{155493C7-E8C5-9C4D-A72B-897AC9F14B1C}"/>
+    <hyperlink ref="H27" r:id="rId52" xr:uid="{B680FEF0-7D1E-D84B-9F4E-806373C4079C}"/>
+    <hyperlink ref="H29" r:id="rId53" xr:uid="{C7ACB124-85BB-D348-87FC-DF98A5496B39}"/>
+    <hyperlink ref="G28" r:id="rId54" xr:uid="{CFB8644E-D50A-2145-AC8C-49872EC8CBA6}"/>
+    <hyperlink ref="F28" r:id="rId55" xr:uid="{58FF340F-D8B5-3140-9DA4-F98E1825DC1E}"/>
+    <hyperlink ref="H28" r:id="rId56" xr:uid="{D04D4D0F-31EB-4240-B5D1-EA46F62220B9}"/>
+    <hyperlink ref="G30" r:id="rId57" xr:uid="{D7AEEF35-CE08-BB49-84A0-EDE28B1BD449}"/>
+    <hyperlink ref="F30" r:id="rId58" xr:uid="{D412AE4F-8A1A-A34A-8500-C11724A83B41}"/>
+    <hyperlink ref="H30" r:id="rId59" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{6988CE38-5B4C-5A44-B34A-4CEDEC17CC62}"/>
+    <hyperlink ref="F26" r:id="rId60" display="#1005002434565701" xr:uid="{60F5B472-D8C6-0F42-A138-FBC19E447B90}"/>
+    <hyperlink ref="G18" r:id="rId61" xr:uid="{A341060E-AE92-7040-A076-F3A58957D0E9}"/>
+    <hyperlink ref="H18" r:id="rId62" xr:uid="{589AE4B7-02BB-B744-B490-4C2F7DC3EC8C}"/>
+    <hyperlink ref="G17" r:id="rId63" xr:uid="{B1E3B80F-1202-BA4C-BA66-DD6911A4E681}"/>
+    <hyperlink ref="F17" r:id="rId64" xr:uid="{4BA56443-565C-3846-9F35-F5DB491ACDFF}"/>
+    <hyperlink ref="H17" r:id="rId65" xr:uid="{5FCA809F-25E0-5E4A-9F36-0754C078D8C6}"/>
+    <hyperlink ref="H15" r:id="rId66" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{DBA9FB07-D3DD-7C47-8695-AB96AB4B2403}"/>
+    <hyperlink ref="G15" r:id="rId67" xr:uid="{14FCBBB1-552D-B84F-96CE-6FB815643580}"/>
+    <hyperlink ref="F15" r:id="rId68" xr:uid="{F88231F9-9DFE-1046-8371-1BF63B4044A2}"/>
+    <hyperlink ref="F14" r:id="rId69" display="https://www.terraelectronica.ru/product/2782222" xr:uid="{45E7D5F3-F91F-8346-8C81-C4B5E8994D62}"/>
+    <hyperlink ref="G14" r:id="rId70" display="https://www.terraelectronica.ru/product/2782222" xr:uid="{AA84A64A-CC02-3F49-9FAD-BFB6E1430EB7}"/>
+    <hyperlink ref="H14" r:id="rId71" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{07D4CAB9-6DE4-1D4C-BE7A-495B303E8093}"/>
+    <hyperlink ref="G10" r:id="rId72" xr:uid="{5CDDDAD7-B779-1A4A-8B46-DFA995A894C7}"/>
+    <hyperlink ref="H10" r:id="rId73" xr:uid="{C62F9978-532C-8B4C-9A76-4CA32AAF5503}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C343BB3-294E-094C-B28F-3093B9AA3184}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>0.54</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3" si="0">J3*K3+L3</f>
+        <v>0.54</v>
+      </c>
+      <c r="N3" s="14">
+        <f t="shared" ref="N3" si="1">M3/K3*B3</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4">
+        <v>0.38</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M6" si="2">J4*K4+L4</f>
+        <v>3.8</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" ref="N4:N6" si="3">M4/K4*B4</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5">
+        <v>0.82</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" ref="M5" si="4">J5*K5+L5</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" ref="N5" si="5">M5/K5*B5</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>200</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="24">
+        <v>70</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" ref="M7:M11" si="6">J7*K7+L7</f>
+        <v>84</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" ref="N7:N11" si="7">M7/K7*B7</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8">
+        <v>5.2</v>
+      </c>
+      <c r="K8" s="24">
+        <v>80</v>
+      </c>
+      <c r="M8" s="25">
+        <f t="shared" si="6"/>
+        <v>416</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" si="7"/>
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9">
+        <v>5.3</v>
+      </c>
+      <c r="K9" s="24">
+        <v>80</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" si="6"/>
+        <v>424</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="7"/>
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K10" s="24">
+        <v>10</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="7"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="26"/>
+      <c r="J11">
+        <v>3.2</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1</v>
+      </c>
+      <c r="M11" s="25">
+        <f t="shared" si="6"/>
+        <v>3.2</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12">
+        <v>3.8</v>
+      </c>
+      <c r="K12" s="24">
+        <v>10</v>
+      </c>
+      <c r="M12" s="25">
+        <f t="shared" ref="M12:M19" si="8">J12*K12+L12</f>
+        <v>38</v>
+      </c>
+      <c r="N12" s="25">
+        <f t="shared" ref="N12:N19" si="9">M12/K12*B12</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13">
+        <v>0.18</v>
+      </c>
+      <c r="K13" s="24">
+        <v>200</v>
+      </c>
+      <c r="M13" s="25">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="N13" s="25">
+        <f t="shared" si="9"/>
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>470</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14">
+        <v>0.12</v>
+      </c>
+      <c r="K14" s="24">
+        <v>240</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" si="8"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" si="9"/>
+        <v>2.8799999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K15" s="24">
+        <v>10</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" si="8"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" si="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K16" s="24">
+        <v>20</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="8"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="9"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17">
+        <v>0.11</v>
+      </c>
+      <c r="K17" s="24">
+        <v>10</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="9"/>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K18" s="24">
+        <v>10</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19">
+        <v>33.9</v>
+      </c>
+      <c r="K19" s="24">
+        <v>27</v>
+      </c>
+      <c r="L19">
+        <v>253</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" si="8"/>
+        <v>1168.3</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" si="9"/>
+        <v>129.8111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="K20" s="24">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>190</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" ref="M20" si="10">J20*K20+L20</f>
+        <v>907.6</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" ref="N20" si="11">M20/K20*B20</f>
+        <v>90.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21">
+        <v>1650</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" ref="M21" si="12">J21*K21+L21</f>
+        <v>16500</v>
+      </c>
+      <c r="N21" s="37">
+        <f t="shared" ref="N21" si="13">M21/K21*B21</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7">
+        <v>12.880089999999999</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22">
+        <v>18.7</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" ref="M22:M23" si="14">J22*K22+L22</f>
+        <v>187</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" ref="N22:N23" si="15">M22/K22*B22</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23">
+        <v>10.8</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="15"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24">
+        <v>5.7</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" ref="M24:M26" si="16">J24*K24+L24</f>
+        <v>57</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" ref="N24:N26" si="17">M24/K24*B24</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25">
+        <v>5.3</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="16"/>
+        <v>53</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="17"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26">
+        <v>6.8650000000000002</v>
+      </c>
+      <c r="K26">
+        <v>120</v>
+      </c>
+      <c r="L26">
+        <v>622</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="16"/>
+        <v>1445.8000000000002</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="17"/>
+        <v>168.6766666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" ref="M27:M28" si="18">J27*K27+L27</f>
+        <v>100</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" ref="N27:N28" si="19">M27/K27*B27</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28">
+        <v>105.373</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>1021.53</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="18"/>
+        <v>2075.2600000000002</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="19"/>
+        <v>207.52600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="26"/>
+      <c r="J29">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="K29">
+        <v>750</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" ref="M29" si="20">J29*K29+L29</f>
+        <v>4400</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" ref="N29" si="21">M29/K29*B29</f>
+        <v>422.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="26"/>
+      <c r="J30">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="K30">
+        <v>750</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" ref="M30" si="22">J30*K30+L30</f>
+        <v>4400</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" ref="N30" si="23">M30/K30*B30</f>
+        <v>246.39999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="26"/>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" ref="M31" si="24">J31*K31+L31</f>
+        <v>10</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" ref="N31" si="25">M31/K31*B31</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="28">
+        <f>SUM(N3:N31)</f>
+        <v>3176.1437777777778</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{BB859EFC-55F7-3849-A338-A6834FEA5E57}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{84D56B7D-5B06-8F4A-8CF0-A97640D657B1}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{CE21A3E7-ABEC-F44F-9F79-84DBA77AF613}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{218B6BAA-7741-A04B-8C69-B33C2062F02A}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{A3A374AC-2107-9742-B39C-0DEED3D8F350}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{94D5A3DC-2AD4-684C-A49C-E29E52B3E23D}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{196B7D7A-745C-3042-A24E-395EF6A7F325}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{052773D1-5F0D-5A49-8C0B-74D0481658DC}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{F8EE26CE-DDB2-DB4C-ADE6-A2ED9732DF9C}"/>
+    <hyperlink ref="G8" r:id="rId10" xr:uid="{49DFB438-C9EC-4A46-92B9-4358D781DFEA}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{43242B9E-EE04-1641-8B14-9DC3C275BB44}"/>
+    <hyperlink ref="G9" r:id="rId12" xr:uid="{CCD5A81D-E88D-EF45-998E-0C2B6BFAB564}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{F8F2B49C-C5EB-5241-9D5C-130C91DB9C19}"/>
+    <hyperlink ref="H5" r:id="rId14" xr:uid="{6EEBA877-E519-FF47-9C0F-0D0AC03393A8}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{AA590613-6F9F-5C42-AD4A-15AD7ABE74EA}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{8469600D-E20D-8D48-8A7B-6BF088589C5D}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{D9BCE72E-E3D3-8449-A29B-9F4793F50C85}"/>
+    <hyperlink ref="H9" r:id="rId18" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{AC7E5C4A-05E6-9E44-AE67-E4F4ACEFB049}"/>
+    <hyperlink ref="H10" r:id="rId19" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{43ED0696-4A3B-CE48-BA85-917250CFFFDE}"/>
+    <hyperlink ref="G10" r:id="rId20" xr:uid="{A58E9829-965A-0B4A-808B-D23548EC4ED3}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{843C39C3-3D0C-A047-AF34-15E86CA20872}"/>
+    <hyperlink ref="G11" r:id="rId22" xr:uid="{BA3E6177-F31F-EF4A-9D19-C3FB207783AF}"/>
+    <hyperlink ref="F11" r:id="rId23" xr:uid="{1BB54404-3B1A-CD4D-8AB3-E49EDA9A0AC7}"/>
+    <hyperlink ref="G12" r:id="rId24" xr:uid="{4609AE3D-19FF-5748-A0ED-DFFA91BB6055}"/>
+    <hyperlink ref="F12" r:id="rId25" xr:uid="{2096A73D-4CE8-E74A-BB65-338C934E2A69}"/>
+    <hyperlink ref="H12" r:id="rId26" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{68792742-3611-704B-8F1F-1BC207B55561}"/>
+    <hyperlink ref="G24" r:id="rId27" xr:uid="{286DB45E-D43F-FB43-B2BF-2425FBCA18F9}"/>
+    <hyperlink ref="F24" r:id="rId28" xr:uid="{4F4D8AE5-D858-AF4E-BA90-8140DCA9B7F5}"/>
+    <hyperlink ref="H24" r:id="rId29" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{85C02143-9E94-CA45-A6BA-FAC696C48A8A}"/>
+    <hyperlink ref="G13" r:id="rId30" xr:uid="{3E564333-1F41-3B42-958E-9100A88DC0C7}"/>
+    <hyperlink ref="F13" r:id="rId31" xr:uid="{5FC52C21-9DF6-A641-9A20-4B26CC96467E}"/>
+    <hyperlink ref="H13" r:id="rId32" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{085EB337-BEDF-314C-8812-6C18F9A4ECA9}"/>
+    <hyperlink ref="G14" r:id="rId33" xr:uid="{D8E5265D-92D5-7C4E-B840-5000A3417271}"/>
+    <hyperlink ref="F14" r:id="rId34" xr:uid="{260B8F76-F685-D447-BBAF-02E556484711}"/>
+    <hyperlink ref="H14" r:id="rId35" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{5CC5DCDA-2C43-7E4B-8828-D83EB02EE6C5}"/>
+    <hyperlink ref="G15" r:id="rId36" xr:uid="{77F91DAB-7A50-6442-8849-30094AA14E8A}"/>
+    <hyperlink ref="F15" r:id="rId37" xr:uid="{079D9E37-9553-E446-A412-CBFD6C920D80}"/>
+    <hyperlink ref="H15" r:id="rId38" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{E9BEA83A-7753-C748-8294-40180C3C4203}"/>
+    <hyperlink ref="G16" r:id="rId39" xr:uid="{15200422-D134-0D4C-881A-BFE6B71EE2D7}"/>
+    <hyperlink ref="F16" r:id="rId40" xr:uid="{983292A6-064B-BF4A-B99D-E351F020975F}"/>
+    <hyperlink ref="H16" r:id="rId41" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{63AE5A7C-0A58-3341-B669-8FF899CFDF6A}"/>
+    <hyperlink ref="G17" r:id="rId42" xr:uid="{BB73D28F-1947-6B46-B0CA-F8AFD9C3045D}"/>
+    <hyperlink ref="F17" r:id="rId43" xr:uid="{AB9C9562-5639-1F4F-87C3-BF35D6BAF6B9}"/>
+    <hyperlink ref="H17" r:id="rId44" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{816F5E02-522A-5042-9A9C-46C12545D86F}"/>
+    <hyperlink ref="G25" r:id="rId45" xr:uid="{B36444DD-A6C0-D14C-BE91-16349F83E865}"/>
+    <hyperlink ref="F25" r:id="rId46" xr:uid="{677CCA7C-5BD1-964C-BD4A-6AB6EB745994}"/>
+    <hyperlink ref="H25" r:id="rId47" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{A188EEAB-9F73-7F4C-841E-376D4E95898B}"/>
+    <hyperlink ref="G23" r:id="rId48" xr:uid="{23D92319-1E56-314B-BD63-1D63071B2316}"/>
+    <hyperlink ref="F23" r:id="rId49" xr:uid="{5BCC6843-4313-B14C-AF37-14DED1C8074B}"/>
+    <hyperlink ref="H23" r:id="rId50" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{507759AB-974E-8A44-89BE-DAF6332DDF7E}"/>
+    <hyperlink ref="G22" r:id="rId51" xr:uid="{1AE5ADCD-35CA-1649-B222-2FB2B36A86B1}"/>
+    <hyperlink ref="F22" r:id="rId52" display="12.88009" xr:uid="{D5A32E27-4833-084F-BAB9-72768F14FA28}"/>
+    <hyperlink ref="H22" r:id="rId53" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{C93D892D-7B84-BF4B-AFC8-558357942891}"/>
+    <hyperlink ref="G18" r:id="rId54" xr:uid="{7E406FAF-40A8-E64D-92A0-09809FFCF5E9}"/>
+    <hyperlink ref="F18" r:id="rId55" xr:uid="{46EEC713-5B53-A844-8E45-F1EE9B0A65FD}"/>
+    <hyperlink ref="H18" r:id="rId56" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{0E057236-AE0C-CB49-96FD-145DFF3852E4}"/>
+    <hyperlink ref="G19" r:id="rId57" xr:uid="{4909AF0A-C056-3A4D-AF36-EC4BA81B1DE9}"/>
+    <hyperlink ref="F19" r:id="rId58" xr:uid="{1C145889-FA2F-124D-80FB-B4700BDF4912}"/>
+    <hyperlink ref="H19" r:id="rId59" xr:uid="{AED11A1F-1D82-A241-B5D7-9551791987BE}"/>
+    <hyperlink ref="G21" r:id="rId60" xr:uid="{4D35C340-51A2-4848-93D7-95D6FE3C9775}"/>
+    <hyperlink ref="F21" r:id="rId61" xr:uid="{FBB1AA98-E1E8-7343-895B-BC794ACB8BB9}"/>
+    <hyperlink ref="H21" r:id="rId62" xr:uid="{23C9494A-413B-5A42-BF06-B49B5684AF06}"/>
+    <hyperlink ref="H27" r:id="rId63" xr:uid="{79D106DF-5F99-E748-99DD-AC8FCA4E11D7}"/>
+    <hyperlink ref="G27" r:id="rId64" xr:uid="{4B44E84E-C5AE-E240-A016-118DA8089AA7}"/>
+    <hyperlink ref="F27" r:id="rId65" xr:uid="{42C4ADBD-C016-7440-B6D4-5324C15A646D}"/>
+    <hyperlink ref="G20" r:id="rId66" xr:uid="{93DA5CD1-ABEF-674D-9212-FAE2AE2BF654}"/>
+    <hyperlink ref="F20" r:id="rId67" xr:uid="{30AA4905-E0FF-6549-9069-F462D5C4A1BD}"/>
+    <hyperlink ref="H20" r:id="rId68" xr:uid="{A323439E-F4BA-D045-9CFB-9F6F674F97D5}"/>
+    <hyperlink ref="G26" r:id="rId69" xr:uid="{855F3123-A9C8-F140-B301-258524A8A90A}"/>
+    <hyperlink ref="H26" r:id="rId70" xr:uid="{2F8DF8A3-A5E4-484B-AA6C-B2FFF2BD2142}"/>
+    <hyperlink ref="F26" r:id="rId71" xr:uid="{B3CD6BF5-783D-844F-8A0B-75F3737D466E}"/>
+    <hyperlink ref="H28" r:id="rId72" xr:uid="{30BDDFCA-881E-8543-B321-830CAC91976D}"/>
+    <hyperlink ref="G3" r:id="rId73" xr:uid="{72CB063E-DC65-3C4D-B1ED-4612847366F7}"/>
+    <hyperlink ref="F3" r:id="rId74" xr:uid="{013BCB57-B05C-AF48-BAF4-448E5DC6E0FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAD765-27D4-674C-8DE7-6F57C7C9754A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBBB8E4-5B19-1D47-9681-0360BF570CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1320" windowWidth="26340" windowHeight="15540" activeTab="1" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
+    <workbookView xWindow="1640" yWindow="1120" windowWidth="26340" windowHeight="15540" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="x4" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="229">
   <si>
     <t>id</t>
   </si>
@@ -680,6 +680,39 @@
   </si>
   <si>
     <t>Крышка корпуса, масса в граммах</t>
+  </si>
+  <si>
+    <t>#07707963</t>
+  </si>
+  <si>
+    <t>30.11.2021</t>
+  </si>
+  <si>
+    <t>L-383YD</t>
+  </si>
+  <si>
+    <t>L-383GD</t>
+  </si>
+  <si>
+    <t>L-383ID</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D2 D3 D5 D6 D7 D8 D9 D19</t>
+  </si>
+  <si>
+    <t>D10 D11 D12 D14 D15 D16 D18 D21</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>#07732648</t>
+  </si>
+  <si>
+    <t>15.12.2021</t>
   </si>
 </sst>
 </file>
@@ -853,6 +886,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,24 +926,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1210,15 +1243,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7993AECC-982E-A443-870E-38A46DB5AE88}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="6"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
@@ -1227,41 +1260,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1291,22 +1324,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1509,11 +1542,11 @@
       <c r="K8">
         <v>50</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="21">
         <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="22">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
@@ -1549,11 +1582,11 @@
       <c r="K9">
         <v>10</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="21">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="22">
         <f t="shared" si="7"/>
         <v>5.0999999999999996</v>
       </c>
@@ -1588,11 +1621,11 @@
       <c r="L10">
         <v>300.49</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="21">
         <f t="shared" ref="M10" si="8">J10*K10+L10</f>
         <v>494.40999999999997</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="22">
         <f t="shared" ref="N10" si="9">M10/K10*B10</f>
         <v>49.440999999999995</v>
       </c>
@@ -1628,18 +1661,18 @@
       <c r="K11">
         <v>10</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="21">
         <f t="shared" ref="M11:M12" si="10">J11*K11+L11</f>
         <v>100</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="22">
         <f t="shared" ref="N11:N12" si="11">M11/K11*B11</f>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>470</v>
+      <c r="A12" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -1671,11 +1704,11 @@
       <c r="K12">
         <v>150</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="17">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="17">
         <f t="shared" si="11"/>
         <v>1.7999999999999998</v>
       </c>
@@ -1722,20 +1755,20 @@
       <c r="H14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="18">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="36">
+      <c r="L14" s="18"/>
+      <c r="M14" s="28">
         <v>2.8</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="28">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -1758,20 +1791,20 @@
       <c r="H15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="16">
         <v>10</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="17">
         <f t="shared" ref="M15" si="12">J15*K15+L15</f>
         <v>23</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="17">
         <f t="shared" ref="N15" si="13">M15/K15*B15</f>
         <v>2.2999999999999998</v>
       </c>
@@ -1810,11 +1843,11 @@
       <c r="K16">
         <v>20</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="17">
         <f t="shared" ref="M16:M17" si="14">J16*K16+L16</f>
         <v>202</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="17">
         <f t="shared" ref="N16:N17" si="15">M16/K16*B16</f>
         <v>20.2</v>
       </c>
@@ -1844,23 +1877,23 @@
       <c r="H17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="18" t="s">
         <v>185</v>
       </c>
       <c r="J17">
         <v>17.940000000000001</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="16">
         <v>40</v>
       </c>
       <c r="L17">
         <v>190</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="17">
         <f t="shared" si="14"/>
         <v>907.6</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="17">
         <f t="shared" si="15"/>
         <v>45.38</v>
       </c>
@@ -1899,11 +1932,11 @@
       <c r="L18">
         <v>317.52999999999997</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="17">
         <f t="shared" ref="M18" si="16">J18*K18+L18</f>
         <v>1063.08</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="29">
         <f t="shared" ref="N18" si="17">M18/K18*B18</f>
         <v>212.61599999999999</v>
       </c>
@@ -1939,32 +1972,32 @@
       <c r="K19">
         <v>10</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="17">
         <f t="shared" ref="M19" si="18">J19*K19+L19</f>
         <v>110</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="17">
         <f t="shared" ref="N19" si="19">M19/K19*B19</f>
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -2000,11 +2033,11 @@
       <c r="K21">
         <v>100</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="17">
         <f t="shared" ref="M21:M22" si="20">J21*K21+L21</f>
         <v>40</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="17">
         <f t="shared" ref="N21:N22" si="21">M21/K21*B21</f>
         <v>0.4</v>
       </c>
@@ -2054,7 +2087,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B23">
@@ -2063,11 +2096,14 @@
       <c r="C23" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="F23" s="33" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="26" t="s">
         <v>193</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -2079,10 +2115,10 @@
       <c r="J23">
         <v>0.86</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="16">
         <v>100</v>
       </c>
-      <c r="L23" s="35"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="13">
         <f t="shared" ref="M23:M25" si="22">J23*K23+L23</f>
         <v>86</v>
@@ -2093,7 +2129,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B24">
@@ -2102,16 +2138,16 @@
       <c r="C24" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="23" t="s">
         <v>195</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="26" t="s">
         <v>135</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -2123,15 +2159,15 @@
       <c r="J24">
         <v>3.2</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="16">
         <v>10</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35">
+      <c r="L24" s="27"/>
+      <c r="M24" s="27">
         <f t="shared" si="22"/>
         <v>32</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24" s="27">
         <f t="shared" si="23"/>
         <v>3.2</v>
       </c>
@@ -2161,14 +2197,14 @@
       <c r="J25">
         <v>45</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="16">
         <v>5</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="17">
         <f t="shared" si="22"/>
         <v>225</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="17">
         <f t="shared" si="23"/>
         <v>11.25</v>
       </c>
@@ -2204,17 +2240,17 @@
       <c r="J26">
         <v>7.3760000000000003</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="16">
         <v>100</v>
       </c>
       <c r="L26">
         <v>775.44</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="17">
         <f t="shared" ref="M26:M33" si="24">J26*K26+L26</f>
         <v>1513.04</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="17">
         <f t="shared" ref="N26:N33" si="25">M26/K26*B26</f>
         <v>121.0432</v>
       </c>
@@ -2251,11 +2287,11 @@
       <c r="K27">
         <v>10</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="17">
         <f t="shared" si="24"/>
         <v>60</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="17">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
@@ -2294,11 +2330,11 @@
       <c r="K28">
         <v>120</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="17">
         <f t="shared" si="24"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="17">
         <f t="shared" si="25"/>
         <v>1.4399999999999997</v>
       </c>
@@ -2337,11 +2373,11 @@
       <c r="K29">
         <v>10</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="17">
         <f t="shared" si="24"/>
         <v>63</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="17">
         <f t="shared" si="25"/>
         <v>6.3</v>
       </c>
@@ -2371,7 +2407,7 @@
       <c r="H30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J30">
@@ -2380,11 +2416,11 @@
       <c r="K30">
         <v>20</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="17">
         <f t="shared" si="24"/>
         <v>216</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="17">
         <f t="shared" si="25"/>
         <v>10.8</v>
       </c>
@@ -2405,11 +2441,11 @@
       <c r="L31">
         <v>729.22</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31" s="17">
         <f t="shared" si="24"/>
         <v>1486.46</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N31" s="17">
         <f t="shared" si="25"/>
         <v>148.64600000000002</v>
       </c>
@@ -2428,7 +2464,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="26"/>
+      <c r="I32" s="18"/>
       <c r="J32">
         <f>4400/750</f>
         <v>5.8666666666666663</v>
@@ -2436,11 +2472,11 @@
       <c r="K32">
         <v>750</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="17">
         <f t="shared" si="24"/>
         <v>4400</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="17">
         <f t="shared" si="25"/>
         <v>410.66666666666663</v>
       </c>
@@ -2456,39 +2492,39 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="26"/>
+      <c r="I33" s="18"/>
       <c r="J33">
         <v>10</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M33" s="17">
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="N33" s="25">
+      <c r="N33" s="17">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="28">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20">
         <f>SUM(N4:N33)</f>
         <v>1149.5528666666664</v>
       </c>
@@ -2588,54 +2624,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C343BB3-294E-094C-B28F-3093B9AA3184}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.1640625" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2686,19 +2724,25 @@
       <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" t="s">
+        <v>228</v>
+      </c>
       <c r="J3">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M3" s="13">
         <f t="shared" ref="M3" si="0">J3*K3+L3</f>
-        <v>0.54</v>
+        <v>11.799999999999999</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" ref="N3" si="1">M3/K3*B3</f>
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2862,7 +2906,7 @@
       <c r="J7">
         <v>1.2</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="16">
         <v>70</v>
       </c>
       <c r="M7" s="13">
@@ -2876,13 +2920,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -2903,27 +2947,27 @@
       <c r="J8">
         <v>5.2</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="16">
         <v>80</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="17">
         <f t="shared" si="6"/>
         <v>416</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="17">
         <f t="shared" si="7"/>
         <v>41.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2938,33 +2982,33 @@
       <c r="H9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J9">
         <v>5.3</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="16">
         <v>80</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="17">
         <f t="shared" si="6"/>
         <v>424</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="17">
         <f t="shared" si="7"/>
         <v>42.4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -2979,20 +3023,20 @@
       <c r="H10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="16">
         <v>10</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="17">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="17">
         <f t="shared" si="7"/>
         <v>4.9000000000000004</v>
       </c>
@@ -3016,21 +3060,25 @@
       <c r="G11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="26"/>
+      <c r="H11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>219</v>
+      </c>
       <c r="J11">
-        <v>3.2</v>
-      </c>
-      <c r="K11" s="24">
-        <v>1</v>
-      </c>
-      <c r="M11" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="K11" s="16">
+        <v>10</v>
+      </c>
+      <c r="M11" s="17">
         <f t="shared" si="6"/>
-        <v>3.2</v>
-      </c>
-      <c r="N11" s="25">
+        <v>33</v>
+      </c>
+      <c r="N11" s="17">
         <f t="shared" si="7"/>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3056,20 +3104,20 @@
       <c r="H12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J12">
         <v>3.8</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="16">
         <v>10</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="17">
         <f t="shared" ref="M12:M19" si="8">J12*K12+L12</f>
         <v>38</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="17">
         <f t="shared" ref="N12:N19" si="9">M12/K12*B12</f>
         <v>3.8</v>
       </c>
@@ -3099,20 +3147,20 @@
       <c r="H13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J13">
         <v>0.18</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="16">
         <v>200</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="17">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="17">
         <f t="shared" si="9"/>
         <v>3.78</v>
       </c>
@@ -3142,20 +3190,20 @@
       <c r="H14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J14">
         <v>0.12</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="16">
         <v>240</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="17">
         <f t="shared" si="8"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="17">
         <f t="shared" si="9"/>
         <v>2.8799999999999994</v>
       </c>
@@ -3185,20 +3233,20 @@
       <c r="H15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="16">
         <v>10</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="17">
         <f t="shared" si="8"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="17">
         <f t="shared" si="9"/>
         <v>0.14000000000000001</v>
       </c>
@@ -3228,20 +3276,20 @@
       <c r="H16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="16">
         <v>20</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="17">
         <f t="shared" si="8"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="17">
         <f t="shared" si="9"/>
         <v>0.28000000000000003</v>
       </c>
@@ -3271,20 +3319,20 @@
       <c r="H17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J17">
         <v>0.11</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="16">
         <v>10</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="17">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="17">
         <f t="shared" si="9"/>
         <v>0.11000000000000001</v>
       </c>
@@ -3310,20 +3358,20 @@
       <c r="H18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="16">
         <v>10</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="17">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="17">
         <f t="shared" si="9"/>
         <v>2.2999999999999998</v>
       </c>
@@ -3353,23 +3401,23 @@
       <c r="H19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="18" t="s">
         <v>159</v>
       </c>
       <c r="J19">
         <v>33.9</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="16">
         <v>27</v>
       </c>
       <c r="L19">
         <v>253</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="17">
         <f t="shared" si="8"/>
         <v>1168.3</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="17">
         <f t="shared" si="9"/>
         <v>129.8111111111111</v>
       </c>
@@ -3399,23 +3447,23 @@
       <c r="H20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="18" t="s">
         <v>185</v>
       </c>
       <c r="J20">
         <v>17.940000000000001</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="16">
         <v>40</v>
       </c>
       <c r="L20">
         <v>190</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="17">
         <f t="shared" ref="M20" si="10">J20*K20+L20</f>
         <v>907.6</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="17">
         <f t="shared" ref="N20" si="11">M20/K20*B20</f>
         <v>90.76</v>
       </c>
@@ -3445,7 +3493,7 @@
       <c r="H21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="18" t="s">
         <v>162</v>
       </c>
       <c r="J21">
@@ -3454,11 +3502,11 @@
       <c r="K21">
         <v>10</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="17">
         <f t="shared" ref="M21" si="12">J21*K21+L21</f>
         <v>16500</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="29">
         <f t="shared" ref="N21" si="13">M21/K21*B21</f>
         <v>1650</v>
       </c>
@@ -3486,7 +3534,7 @@
       <c r="H22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J22">
@@ -3495,11 +3543,11 @@
       <c r="K22">
         <v>10</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="17">
         <f t="shared" ref="M22:M23" si="14">J22*K22+L22</f>
         <v>187</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="17">
         <f t="shared" ref="N22:N23" si="15">M22/K22*B22</f>
         <v>18.7</v>
       </c>
@@ -3529,7 +3577,7 @@
       <c r="H23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J23">
@@ -3538,11 +3586,11 @@
       <c r="K23">
         <v>20</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="17">
         <f t="shared" si="14"/>
         <v>216</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="17">
         <f t="shared" si="15"/>
         <v>10.8</v>
       </c>
@@ -3569,7 +3617,7 @@
       <c r="H24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J24">
@@ -3578,11 +3626,11 @@
       <c r="K24">
         <v>10</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="17">
         <f t="shared" ref="M24:M26" si="16">J24*K24+L24</f>
         <v>57</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="17">
         <f t="shared" ref="N24:N26" si="17">M24/K24*B24</f>
         <v>5.7</v>
       </c>
@@ -3612,7 +3660,7 @@
       <c r="H25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J25">
@@ -3621,11 +3669,11 @@
       <c r="K25">
         <v>10</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="17">
         <f t="shared" si="16"/>
         <v>53</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="17">
         <f t="shared" si="17"/>
         <v>5.3</v>
       </c>
@@ -3652,7 +3700,7 @@
       <c r="H26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="18" t="s">
         <v>170</v>
       </c>
       <c r="J26">
@@ -3664,11 +3712,11 @@
       <c r="L26">
         <v>622</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="17">
         <f t="shared" si="16"/>
         <v>1445.8000000000002</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="17">
         <f t="shared" si="17"/>
         <v>168.6766666666667</v>
       </c>
@@ -3689,7 +3737,7 @@
       <c r="H27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="18" t="s">
         <v>162</v>
       </c>
       <c r="J27">
@@ -3698,11 +3746,11 @@
       <c r="K27">
         <v>20</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="17">
         <f t="shared" ref="M27:M28" si="18">J27*K27+L27</f>
         <v>100</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="17">
         <f t="shared" ref="N27:N28" si="19">M27/K27*B27</f>
         <v>85</v>
       </c>
@@ -3719,7 +3767,7 @@
       <c r="H28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="18" t="s">
         <v>176</v>
       </c>
       <c r="J28">
@@ -3731,11 +3779,11 @@
       <c r="L28">
         <v>1021.53</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="17">
         <f t="shared" si="18"/>
         <v>2075.2600000000002</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="17">
         <f t="shared" si="19"/>
         <v>207.52600000000001</v>
       </c>
@@ -3753,7 +3801,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="26"/>
+      <c r="I29" s="18"/>
       <c r="J29">
         <f>4400/750</f>
         <v>5.8666666666666663</v>
@@ -3761,11 +3809,11 @@
       <c r="K29">
         <v>750</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="17">
         <f t="shared" ref="M29" si="20">J29*K29+L29</f>
         <v>4400</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="17">
         <f t="shared" ref="N29" si="21">M29/K29*B29</f>
         <v>422.4</v>
       </c>
@@ -3783,7 +3831,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="26"/>
+      <c r="I30" s="18"/>
       <c r="J30">
         <f>4400/750</f>
         <v>5.8666666666666663</v>
@@ -3791,11 +3839,11 @@
       <c r="K30">
         <v>750</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="17">
         <f t="shared" ref="M30" si="22">J30*K30+L30</f>
         <v>4400</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="17">
         <f t="shared" ref="N30" si="23">M30/K30*B30</f>
         <v>246.39999999999998</v>
       </c>
@@ -3810,41 +3858,41 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="26"/>
+      <c r="I31" s="18"/>
       <c r="J31">
         <v>10</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31" s="17">
         <f t="shared" ref="M31" si="24">J31*K31+L31</f>
         <v>10</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N31" s="17">
         <f t="shared" ref="N31" si="25">M31/K31*B31</f>
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20">
         <f>SUM(N3:N31)</f>
-        <v>3176.1437777777778</v>
+        <v>3176.3437777777776</v>
       </c>
     </row>
   </sheetData>
@@ -3932,6 +3980,8 @@
     <hyperlink ref="H28" r:id="rId72" xr:uid="{30BDDFCA-881E-8543-B321-830CAC91976D}"/>
     <hyperlink ref="G3" r:id="rId73" xr:uid="{72CB063E-DC65-3C4D-B1ED-4612847366F7}"/>
     <hyperlink ref="F3" r:id="rId74" xr:uid="{013BCB57-B05C-AF48-BAF4-448E5DC6E0FF}"/>
+    <hyperlink ref="H11" r:id="rId75" xr:uid="{655965E6-46F6-D746-BC91-1FE006B4ADB4}"/>
+    <hyperlink ref="H3" r:id="rId76" xr:uid="{48EE2201-84CE-8B4F-91B5-D13A630F7858}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBBB8E4-5B19-1D47-9681-0360BF570CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993D024-DE54-CB4A-87A0-9CCB2D1700B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1120" windowWidth="26340" windowHeight="15540" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
+    <workbookView xWindow="1640" yWindow="1120" windowWidth="26340" windowHeight="15540" activeTab="1" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="x4" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="253">
   <si>
     <t>id</t>
   </si>
@@ -713,6 +713,78 @@
   </si>
   <si>
     <t>15.12.2021</t>
+  </si>
+  <si>
+    <t>Стойки</t>
+  </si>
+  <si>
+    <t>Cтойки латунные 18мм</t>
+  </si>
+  <si>
+    <t>PCHSS-18</t>
+  </si>
+  <si>
+    <t>#5016317462462510</t>
+  </si>
+  <si>
+    <t>14.01.2022</t>
+  </si>
+  <si>
+    <t>Винт М3</t>
+  </si>
+  <si>
+    <t>Винт М3x6мм</t>
+  </si>
+  <si>
+    <t>M3x6</t>
+  </si>
+  <si>
+    <t>M3x6 A2 304</t>
+  </si>
+  <si>
+    <t>#5016333550992510</t>
+  </si>
+  <si>
+    <t>Саморез</t>
+  </si>
+  <si>
+    <t>Cаморез 2.6x12mm</t>
+  </si>
+  <si>
+    <t>2.6x12</t>
+  </si>
+  <si>
+    <t>2.6x12mm Pan Head</t>
+  </si>
+  <si>
+    <t>#5012498625982510</t>
+  </si>
+  <si>
+    <t>03.08.2021</t>
+  </si>
+  <si>
+    <t>HCPL2631</t>
+  </si>
+  <si>
+    <t>HCPL-2631</t>
+  </si>
+  <si>
+    <t>#5015224573612510</t>
+  </si>
+  <si>
+    <t>26.11.2021</t>
+  </si>
+  <si>
+    <t>DS1023-1x2S21</t>
+  </si>
+  <si>
+    <t>#2784510</t>
+  </si>
+  <si>
+    <t>#07769607</t>
+  </si>
+  <si>
+    <t>18.11.2022</t>
   </si>
 </sst>
 </file>
@@ -723,7 +795,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _R_U_B"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -742,6 +814,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -855,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -926,6 +1026,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1241,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7993AECC-982E-A443-870E-38A46DB5AE88}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,216 +1960,219 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="40">
+        <v>0</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="40">
         <v>17.940000000000001</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="43">
         <v>40</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="40">
         <v>190</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="44">
         <f t="shared" si="14"/>
         <v>907.6</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="44">
         <f t="shared" si="15"/>
-        <v>45.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>207</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I18" t="s">
-        <v>208</v>
+        <v>247</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="J18">
-        <v>149.11000000000001</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
+        <f>98.66/12</f>
+        <v>8.2216666666666658</v>
+      </c>
+      <c r="K18" s="16">
+        <f>12*5</f>
+        <v>60</v>
       </c>
       <c r="L18">
-        <v>317.52999999999997</v>
+        <v>196.54</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" ref="M18" si="16">J18*K18+L18</f>
-        <v>1063.08</v>
-      </c>
-      <c r="N18" s="29">
+        <v>689.83999999999992</v>
+      </c>
+      <c r="N18" s="17">
         <f t="shared" ref="N18" si="17">M18/K18*B18</f>
-        <v>212.61599999999999</v>
+        <v>22.994666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="7">
-        <v>12.881309999999999</v>
+        <v>62</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>149.11000000000001</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>317.52999999999997</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" ref="M19" si="18">J19*K19+L19</f>
+        <v>1063.08</v>
+      </c>
+      <c r="N19" s="29">
+        <f t="shared" ref="N19" si="19">M19/K19*B19</f>
+        <v>212.61599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="7">
+        <v>12.881309999999999</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" ref="M20" si="20">J20*K20+L20</f>
         <v>110</v>
       </c>
-      <c r="N19" s="17">
-        <f t="shared" ref="N19" si="19">M19/K19*B19</f>
+      <c r="N20" s="17">
+        <f t="shared" ref="N20" si="21">M20/K20*B20</f>
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21">
-        <v>0.4</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="M21" s="17">
-        <f t="shared" ref="M21:M22" si="20">J21*K21+L21</f>
-        <v>40</v>
-      </c>
-      <c r="N21" s="17">
-        <f t="shared" ref="N21:N22" si="21">M21/K21*B21</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>24</v>
+      <c r="F22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>179</v>
@@ -2071,40 +2181,41 @@
         <v>180</v>
       </c>
       <c r="J22">
-        <v>0.47</v>
-      </c>
-      <c r="K22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K22">
         <v>100</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13">
-        <f t="shared" si="20"/>
-        <v>47</v>
-      </c>
-      <c r="N22" s="14">
-        <f t="shared" si="21"/>
-        <v>0.47</v>
+      <c r="M22" s="17">
+        <f t="shared" ref="M22:M23" si="22">J22*K22+L22</f>
+        <v>40</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" ref="N22:N23" si="23">M22/K22*B22</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>87</v>
+      <c r="A23" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="23"/>
+        <v>191</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>193</v>
+      <c r="F23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>179</v>
@@ -2113,42 +2224,40 @@
         <v>180</v>
       </c>
       <c r="J23">
-        <v>0.86</v>
-      </c>
-      <c r="K23" s="16">
+        <v>0.47</v>
+      </c>
+      <c r="K23" s="8">
         <v>100</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="13">
-        <f t="shared" ref="M23:M25" si="22">J23*K23+L23</f>
-        <v>86</v>
+        <f t="shared" si="22"/>
+        <v>47</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" ref="N23:N25" si="23">M23/K23*B23</f>
-        <v>0.86</v>
+        <f t="shared" si="23"/>
+        <v>0.47</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>195</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D24" s="23"/>
       <c r="E24" s="6" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>179</v>
@@ -2157,166 +2266,167 @@
         <v>180</v>
       </c>
       <c r="J24">
+        <v>0.86</v>
+      </c>
+      <c r="K24" s="16">
+        <v>100</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="13">
+        <f t="shared" ref="M24:M26" si="24">J24*K24+L24</f>
+        <v>86</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" ref="N24:N26" si="25">M24/K24*B24</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25">
         <v>3.2</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K25" s="16">
         <v>10</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27">
-        <f t="shared" si="22"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27">
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
-      <c r="N24" s="27">
-        <f t="shared" si="23"/>
+      <c r="N25" s="27">
+        <f t="shared" si="25"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>0.25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>185</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>45</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K26" s="16">
         <v>5</v>
       </c>
-      <c r="M25" s="17">
-        <f t="shared" si="22"/>
+      <c r="M26" s="17">
+        <f t="shared" si="24"/>
         <v>225</v>
       </c>
-      <c r="N25" s="17">
-        <f t="shared" si="23"/>
+      <c r="N26" s="17">
+        <f t="shared" si="25"/>
         <v>11.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I26" t="s">
-        <v>199</v>
-      </c>
-      <c r="J26">
-        <v>7.3760000000000003</v>
-      </c>
-      <c r="K26" s="16">
-        <v>100</v>
-      </c>
-      <c r="L26">
-        <v>775.44</v>
-      </c>
-      <c r="M26" s="17">
-        <f t="shared" ref="M26:M33" si="24">J26*K26+L26</f>
-        <v>1513.04</v>
-      </c>
-      <c r="N26" s="17">
-        <f t="shared" ref="N26:N33" si="25">M26/K26*B26</f>
-        <v>121.0432</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27"/>
+        <v>136</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="F27" s="7" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
+        <v>7.3760000000000003</v>
+      </c>
+      <c r="K27" s="16">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>775.44</v>
       </c>
       <c r="M27" s="17">
-        <f t="shared" si="24"/>
-        <v>60</v>
+        <f t="shared" ref="M27:M37" si="26">J27*K27+L27</f>
+        <v>1513.04</v>
       </c>
       <c r="N27" s="17">
-        <f t="shared" si="25"/>
-        <v>6</v>
+        <f t="shared" ref="N27:N37" si="27">M27/K27*B27</f>
+        <v>121.0432</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" s="7" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>179</v>
@@ -2325,41 +2435,41 @@
         <v>180</v>
       </c>
       <c r="J28">
-        <v>0.12</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="M28" s="17">
-        <f t="shared" si="24"/>
-        <v>14.399999999999999</v>
+        <f t="shared" si="26"/>
+        <v>60</v>
       </c>
       <c r="N28" s="17">
-        <f t="shared" si="25"/>
-        <v>1.4399999999999997</v>
+        <f t="shared" si="27"/>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>112</v>
+      <c r="A29" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>179</v>
@@ -2368,125 +2478,140 @@
         <v>180</v>
       </c>
       <c r="J29">
-        <v>6.3</v>
+        <v>0.12</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="M29" s="17">
-        <f t="shared" si="24"/>
-        <v>63</v>
+        <f t="shared" si="26"/>
+        <v>14.399999999999999</v>
       </c>
       <c r="N29" s="17">
-        <f t="shared" si="25"/>
-        <v>6.3</v>
+        <f t="shared" si="27"/>
+        <v>1.4399999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>119</v>
+        <v>179</v>
+      </c>
+      <c r="I30" t="s">
+        <v>180</v>
       </c>
       <c r="J30">
-        <v>10.8</v>
+        <v>6.3</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
-        <f t="shared" si="24"/>
-        <v>216</v>
+        <f t="shared" si="26"/>
+        <v>63</v>
       </c>
       <c r="N30" s="17">
-        <f t="shared" si="25"/>
-        <v>10.8</v>
+        <f t="shared" si="27"/>
+        <v>6.3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>173</v>
+      <c r="A31" t="s">
+        <v>106</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="J31">
+        <v>10.8</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="26"/>
+        <v>216</v>
+      </c>
+      <c r="N31" s="17">
+        <f t="shared" si="27"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="J32">
         <v>75.724000000000004</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>10</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>729.22</v>
       </c>
-      <c r="M31" s="17">
-        <f t="shared" si="24"/>
+      <c r="M32" s="17">
+        <f t="shared" si="26"/>
         <v>1486.46</v>
       </c>
-      <c r="N31" s="17">
-        <f t="shared" si="25"/>
+      <c r="N32" s="17">
+        <f t="shared" si="27"/>
         <v>148.64600000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>174</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>70</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>177</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="18"/>
-      <c r="J32">
-        <f>4400/750</f>
-        <v>5.8666666666666663</v>
-      </c>
-      <c r="K32">
-        <v>750</v>
-      </c>
-      <c r="M32" s="17">
-        <f t="shared" si="24"/>
-        <v>4400</v>
-      </c>
-      <c r="N32" s="17">
-        <f t="shared" si="25"/>
-        <v>410.66666666666663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
       </c>
       <c r="E33"/>
       <c r="F33" s="7"/>
@@ -2494,46 +2619,188 @@
       <c r="H33" s="7"/>
       <c r="I33" s="18"/>
       <c r="J33">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="K33">
+        <v>750</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="26"/>
+        <v>4400</v>
+      </c>
+      <c r="N33" s="17">
+        <f t="shared" si="27"/>
+        <v>410.66666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="J34">
+        <v>15.9</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" ref="M34:M36" si="28">J34*K34+L34</f>
+        <v>318</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" ref="N34:N36" si="29">M34/K34*B34</f>
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="J35">
+        <v>1.6434</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="28"/>
+        <v>164.34</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="29"/>
+        <v>6.5735999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36">
+        <v>1.4508000000000001</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="28"/>
+        <v>145.08000000000001</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" si="29"/>
+        <v>5.8032000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="18"/>
+      <c r="J37">
         <v>10</v>
       </c>
-      <c r="K33">
+      <c r="K37">
         <v>1</v>
       </c>
-      <c r="M33" s="17">
-        <f t="shared" si="24"/>
+      <c r="M37" s="17">
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="N33" s="17">
-        <f t="shared" si="25"/>
+      <c r="N37" s="17">
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="20">
-        <f>SUM(N4:N33)</f>
-        <v>1149.5528666666664</v>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="20">
+        <f>SUM(N4:N37)</f>
+        <v>1171.3443333333332</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A21:N21"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -2550,13 +2817,13 @@
     <hyperlink ref="G6" r:id="rId6" xr:uid="{DB881ABC-56D6-7E4A-BEBA-1E066F2C2F07}"/>
     <hyperlink ref="G7" r:id="rId7" xr:uid="{09B0C8F9-2800-B54A-A4F4-3D562E3E6FDF}"/>
     <hyperlink ref="G9" r:id="rId8" xr:uid="{096D15C7-8BBF-BB4E-84C8-35DBD788E0E2}"/>
-    <hyperlink ref="G19" r:id="rId9" xr:uid="{DB7F1783-C48C-9D40-BBFD-8D4097BE8A98}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{DB7F1783-C48C-9D40-BBFD-8D4097BE8A98}"/>
     <hyperlink ref="F11" r:id="rId10" xr:uid="{F3C03C8C-0C40-094E-9F71-1C4D58A71430}"/>
     <hyperlink ref="G11" r:id="rId11" xr:uid="{1435EFC7-D123-A349-9347-F1FC07C520F3}"/>
     <hyperlink ref="F16" r:id="rId12" xr:uid="{8859AF1F-13E4-8342-B316-410A6FA0149A}"/>
     <hyperlink ref="G16" r:id="rId13" xr:uid="{AB88F6E6-123F-9D4E-9FA0-814ED4CC1BBB}"/>
-    <hyperlink ref="F25" r:id="rId14" xr:uid="{73ECD750-DE83-3146-94A2-DE706EEE6120}"/>
-    <hyperlink ref="G25" r:id="rId15" xr:uid="{8A1760EB-8876-864C-8DE1-93EE8FD52879}"/>
+    <hyperlink ref="F26" r:id="rId14" xr:uid="{73ECD750-DE83-3146-94A2-DE706EEE6120}"/>
+    <hyperlink ref="G26" r:id="rId15" xr:uid="{8A1760EB-8876-864C-8DE1-93EE8FD52879}"/>
     <hyperlink ref="H4" r:id="rId16" xr:uid="{919B0B41-0EEF-5144-B8D8-548C261081BD}"/>
     <hyperlink ref="H5" r:id="rId17" xr:uid="{756B715C-9A28-7845-BD5E-052D2A290691}"/>
     <hyperlink ref="H6" r:id="rId18" xr:uid="{FA50EF8A-3D4D-7D40-B0FE-ECD3C6EC8DEF}"/>
@@ -2572,38 +2839,38 @@
     <hyperlink ref="F12" r:id="rId28" xr:uid="{DFD91A03-B82B-1D48-B3E9-83EAD6BF2C2C}"/>
     <hyperlink ref="H12" r:id="rId29" xr:uid="{7A4372D7-3EFB-EC4E-9EE3-3A2A8D8126B4}"/>
     <hyperlink ref="H16" r:id="rId30" xr:uid="{7362C77B-1107-1940-A06A-7024A3CCD0D0}"/>
-    <hyperlink ref="F19" r:id="rId31" display="12.88131" xr:uid="{20FF9D00-0B3A-E846-9C31-D49FD05FD6B6}"/>
-    <hyperlink ref="H19" r:id="rId32" xr:uid="{B3379768-D2F2-BF4D-A818-86EFE9315E5A}"/>
-    <hyperlink ref="G21" r:id="rId33" xr:uid="{1C5104A6-6A04-4E4C-9172-DC4A512FC675}"/>
-    <hyperlink ref="H21" r:id="rId34" xr:uid="{51D7A6CF-4351-1942-B212-00AA57470581}"/>
-    <hyperlink ref="F21" r:id="rId35" xr:uid="{26939209-0E3D-B54E-8C9D-75621A567990}"/>
-    <hyperlink ref="F22" r:id="rId36" xr:uid="{CA106586-87D6-214A-B1FC-F3C165E18487}"/>
-    <hyperlink ref="G22" r:id="rId37" xr:uid="{E6710FD0-D751-E14C-83CA-F3FD3FE4D2BC}"/>
-    <hyperlink ref="H22" r:id="rId38" xr:uid="{58E74E8C-7CCB-784D-9D3F-ABCDFE44374B}"/>
-    <hyperlink ref="G23" r:id="rId39" xr:uid="{9C7B8CA6-6F7C-E44C-8EB8-CE6D10B19524}"/>
-    <hyperlink ref="H23" r:id="rId40" xr:uid="{2E3F94E3-08E8-4642-86E8-A49AEC6EA2B2}"/>
-    <hyperlink ref="F23" r:id="rId41" xr:uid="{323EEAE0-9E09-B54B-81E7-5234305BCBBB}"/>
-    <hyperlink ref="G24" r:id="rId42" xr:uid="{A2B16C39-D2E8-8344-9089-0426E4B000E5}"/>
-    <hyperlink ref="F24" r:id="rId43" xr:uid="{9D2F8C2A-510B-F843-8858-6672BBE4E308}"/>
-    <hyperlink ref="H24" r:id="rId44" xr:uid="{DA789950-489E-0946-A600-B1AE25B7E0F7}"/>
-    <hyperlink ref="H25" r:id="rId45" xr:uid="{C3363112-9F34-0A40-98C0-10727C294532}"/>
-    <hyperlink ref="G26" r:id="rId46" xr:uid="{A2FCC638-00F8-4947-AB0E-0372A59900B5}"/>
-    <hyperlink ref="H26" r:id="rId47" xr:uid="{B6A26CD5-416E-4746-993C-A5F51FB469F8}"/>
-    <hyperlink ref="G27" r:id="rId48" xr:uid="{6DDCA5D0-75BE-3E4F-B558-39A147FC422F}"/>
-    <hyperlink ref="F27" r:id="rId49" xr:uid="{C3042CE6-7315-AA4B-995F-46EC0EBC8387}"/>
-    <hyperlink ref="G29" r:id="rId50" xr:uid="{E0F917C4-4623-214A-8535-330FA265216D}"/>
-    <hyperlink ref="F29" r:id="rId51" xr:uid="{155493C7-E8C5-9C4D-A72B-897AC9F14B1C}"/>
-    <hyperlink ref="H27" r:id="rId52" xr:uid="{B680FEF0-7D1E-D84B-9F4E-806373C4079C}"/>
-    <hyperlink ref="H29" r:id="rId53" xr:uid="{C7ACB124-85BB-D348-87FC-DF98A5496B39}"/>
-    <hyperlink ref="G28" r:id="rId54" xr:uid="{CFB8644E-D50A-2145-AC8C-49872EC8CBA6}"/>
-    <hyperlink ref="F28" r:id="rId55" xr:uid="{58FF340F-D8B5-3140-9DA4-F98E1825DC1E}"/>
-    <hyperlink ref="H28" r:id="rId56" xr:uid="{D04D4D0F-31EB-4240-B5D1-EA46F62220B9}"/>
-    <hyperlink ref="G30" r:id="rId57" xr:uid="{D7AEEF35-CE08-BB49-84A0-EDE28B1BD449}"/>
-    <hyperlink ref="F30" r:id="rId58" xr:uid="{D412AE4F-8A1A-A34A-8500-C11724A83B41}"/>
-    <hyperlink ref="H30" r:id="rId59" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{6988CE38-5B4C-5A44-B34A-4CEDEC17CC62}"/>
-    <hyperlink ref="F26" r:id="rId60" display="#1005002434565701" xr:uid="{60F5B472-D8C6-0F42-A138-FBC19E447B90}"/>
-    <hyperlink ref="G18" r:id="rId61" xr:uid="{A341060E-AE92-7040-A076-F3A58957D0E9}"/>
-    <hyperlink ref="H18" r:id="rId62" xr:uid="{589AE4B7-02BB-B744-B490-4C2F7DC3EC8C}"/>
+    <hyperlink ref="F20" r:id="rId31" display="12.88131" xr:uid="{20FF9D00-0B3A-E846-9C31-D49FD05FD6B6}"/>
+    <hyperlink ref="H20" r:id="rId32" xr:uid="{B3379768-D2F2-BF4D-A818-86EFE9315E5A}"/>
+    <hyperlink ref="G22" r:id="rId33" xr:uid="{1C5104A6-6A04-4E4C-9172-DC4A512FC675}"/>
+    <hyperlink ref="H22" r:id="rId34" xr:uid="{51D7A6CF-4351-1942-B212-00AA57470581}"/>
+    <hyperlink ref="F22" r:id="rId35" xr:uid="{26939209-0E3D-B54E-8C9D-75621A567990}"/>
+    <hyperlink ref="F23" r:id="rId36" xr:uid="{CA106586-87D6-214A-B1FC-F3C165E18487}"/>
+    <hyperlink ref="G23" r:id="rId37" xr:uid="{E6710FD0-D751-E14C-83CA-F3FD3FE4D2BC}"/>
+    <hyperlink ref="H23" r:id="rId38" xr:uid="{58E74E8C-7CCB-784D-9D3F-ABCDFE44374B}"/>
+    <hyperlink ref="G24" r:id="rId39" xr:uid="{9C7B8CA6-6F7C-E44C-8EB8-CE6D10B19524}"/>
+    <hyperlink ref="H24" r:id="rId40" xr:uid="{2E3F94E3-08E8-4642-86E8-A49AEC6EA2B2}"/>
+    <hyperlink ref="F24" r:id="rId41" xr:uid="{323EEAE0-9E09-B54B-81E7-5234305BCBBB}"/>
+    <hyperlink ref="G25" r:id="rId42" xr:uid="{A2B16C39-D2E8-8344-9089-0426E4B000E5}"/>
+    <hyperlink ref="F25" r:id="rId43" xr:uid="{9D2F8C2A-510B-F843-8858-6672BBE4E308}"/>
+    <hyperlink ref="H25" r:id="rId44" xr:uid="{DA789950-489E-0946-A600-B1AE25B7E0F7}"/>
+    <hyperlink ref="H26" r:id="rId45" xr:uid="{C3363112-9F34-0A40-98C0-10727C294532}"/>
+    <hyperlink ref="G27" r:id="rId46" xr:uid="{A2FCC638-00F8-4947-AB0E-0372A59900B5}"/>
+    <hyperlink ref="H27" r:id="rId47" xr:uid="{B6A26CD5-416E-4746-993C-A5F51FB469F8}"/>
+    <hyperlink ref="G28" r:id="rId48" xr:uid="{6DDCA5D0-75BE-3E4F-B558-39A147FC422F}"/>
+    <hyperlink ref="F28" r:id="rId49" xr:uid="{C3042CE6-7315-AA4B-995F-46EC0EBC8387}"/>
+    <hyperlink ref="G30" r:id="rId50" xr:uid="{E0F917C4-4623-214A-8535-330FA265216D}"/>
+    <hyperlink ref="F30" r:id="rId51" xr:uid="{155493C7-E8C5-9C4D-A72B-897AC9F14B1C}"/>
+    <hyperlink ref="H28" r:id="rId52" xr:uid="{B680FEF0-7D1E-D84B-9F4E-806373C4079C}"/>
+    <hyperlink ref="H30" r:id="rId53" xr:uid="{C7ACB124-85BB-D348-87FC-DF98A5496B39}"/>
+    <hyperlink ref="G29" r:id="rId54" xr:uid="{CFB8644E-D50A-2145-AC8C-49872EC8CBA6}"/>
+    <hyperlink ref="F29" r:id="rId55" xr:uid="{58FF340F-D8B5-3140-9DA4-F98E1825DC1E}"/>
+    <hyperlink ref="H29" r:id="rId56" xr:uid="{D04D4D0F-31EB-4240-B5D1-EA46F62220B9}"/>
+    <hyperlink ref="G31" r:id="rId57" xr:uid="{D7AEEF35-CE08-BB49-84A0-EDE28B1BD449}"/>
+    <hyperlink ref="F31" r:id="rId58" xr:uid="{D412AE4F-8A1A-A34A-8500-C11724A83B41}"/>
+    <hyperlink ref="H31" r:id="rId59" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{6988CE38-5B4C-5A44-B34A-4CEDEC17CC62}"/>
+    <hyperlink ref="F27" r:id="rId60" display="#1005002434565701" xr:uid="{60F5B472-D8C6-0F42-A138-FBC19E447B90}"/>
+    <hyperlink ref="G19" r:id="rId61" xr:uid="{A341060E-AE92-7040-A076-F3A58957D0E9}"/>
+    <hyperlink ref="H19" r:id="rId62" xr:uid="{589AE4B7-02BB-B744-B490-4C2F7DC3EC8C}"/>
     <hyperlink ref="G17" r:id="rId63" xr:uid="{B1E3B80F-1202-BA4C-BA66-DD6911A4E681}"/>
     <hyperlink ref="F17" r:id="rId64" xr:uid="{4BA56443-565C-3846-9F35-F5DB491ACDFF}"/>
     <hyperlink ref="H17" r:id="rId65" xr:uid="{5FCA809F-25E0-5E4A-9F36-0754C078D8C6}"/>
@@ -2615,6 +2882,14 @@
     <hyperlink ref="H14" r:id="rId71" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{07D4CAB9-6DE4-1D4C-BE7A-495B303E8093}"/>
     <hyperlink ref="G10" r:id="rId72" xr:uid="{5CDDDAD7-B779-1A4A-8B46-DFA995A894C7}"/>
     <hyperlink ref="H10" r:id="rId73" xr:uid="{C62F9978-532C-8B4C-9A76-4CA32AAF5503}"/>
+    <hyperlink ref="F34" r:id="rId74" xr:uid="{39C4633A-F7C4-6842-8464-D4C2F245FED7}"/>
+    <hyperlink ref="H34" r:id="rId75" xr:uid="{7763E51A-D819-F045-9402-F06FCBC75038}"/>
+    <hyperlink ref="F35" r:id="rId76" xr:uid="{8D250964-B9E5-6A4A-8A18-0350B7626A19}"/>
+    <hyperlink ref="H35" r:id="rId77" xr:uid="{5C282405-4A13-674D-B571-CE6CBA03851F}"/>
+    <hyperlink ref="F36" r:id="rId78" xr:uid="{3668F34B-290B-DC4D-A729-8888A59E0775}"/>
+    <hyperlink ref="H36" r:id="rId79" xr:uid="{A89DBE48-6666-F24E-A1CC-3F2566097C83}"/>
+    <hyperlink ref="F18" r:id="rId80" xr:uid="{D03F2A35-390C-EE48-9FFE-9AAC15E9E1D6}"/>
+    <hyperlink ref="H18" r:id="rId81" xr:uid="{DD8C00E6-DC97-CF43-9915-4AFF85DAFBA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2622,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C343BB3-294E-094C-B28F-3093B9AA3184}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3423,156 +3698,159 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="40">
+        <v>0</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="40">
         <v>17.940000000000001</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="43">
         <v>40</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="40">
         <v>190</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="44">
         <f t="shared" ref="M20" si="10">J20*K20+L20</f>
         <v>907.6</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="44">
         <f t="shared" ref="N20" si="11">M20/K20*B20</f>
-        <v>90.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>160</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="J21">
-        <v>1650</v>
-      </c>
-      <c r="K21">
-        <v>10</v>
+        <f>98.66/12</f>
+        <v>8.2216666666666658</v>
+      </c>
+      <c r="K21" s="16">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+      <c r="L21">
+        <v>196.54</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" ref="M21" si="12">J21*K21+L21</f>
-        <v>16500</v>
-      </c>
-      <c r="N21" s="29">
+        <v>689.83999999999992</v>
+      </c>
+      <c r="N21" s="17">
         <f t="shared" ref="N21" si="13">M21/K21*B21</f>
-        <v>1650</v>
+        <v>45.989333333333327</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7">
-        <v>12.880089999999999</v>
+        <v>62</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="J22">
-        <v>18.7</v>
+        <v>1650</v>
       </c>
       <c r="K22">
         <v>10</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" ref="M22:M23" si="14">J22*K22+L22</f>
-        <v>187</v>
-      </c>
-      <c r="N22" s="17">
-        <f t="shared" ref="N22:N23" si="15">M22/K22*B22</f>
-        <v>18.7</v>
+        <f t="shared" ref="M22" si="14">J22*K22+L22</f>
+        <v>16500</v>
+      </c>
+      <c r="N22" s="29">
+        <f t="shared" ref="N22" si="15">M22/K22*B22</f>
+        <v>1650</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>106</v>
+      <c r="A23" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>66</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7">
+        <v>12.880089999999999</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>118</v>
@@ -3581,38 +3859,41 @@
         <v>119</v>
       </c>
       <c r="J23">
-        <v>10.8</v>
+        <v>18.7</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M23" s="17">
-        <f t="shared" si="14"/>
-        <v>216</v>
+        <f t="shared" ref="M23:M24" si="16">J23*K23+L23</f>
+        <v>187</v>
       </c>
       <c r="N23" s="17">
-        <f t="shared" si="15"/>
-        <v>10.8</v>
+        <f t="shared" ref="N23:N24" si="17">M23/K23*B23</f>
+        <v>18.7</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>109</v>
+      <c r="A24" t="s">
+        <v>106</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>118</v>
@@ -3621,41 +3902,38 @@
         <v>119</v>
       </c>
       <c r="J24">
-        <v>5.7</v>
+        <v>10.8</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M24" s="17">
-        <f t="shared" ref="M24:M26" si="16">J24*K24+L24</f>
-        <v>57</v>
+        <f t="shared" si="16"/>
+        <v>216</v>
       </c>
       <c r="N24" s="17">
-        <f t="shared" ref="N24:N26" si="17">M24/K24*B24</f>
-        <v>5.7</v>
+        <f t="shared" si="17"/>
+        <v>10.8</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>112</v>
+      <c r="A25" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>118</v>
@@ -3664,235 +3942,357 @@
         <v>119</v>
       </c>
       <c r="J25">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="K25">
         <v>10</v>
       </c>
       <c r="M25" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="M25:M27" si="18">J25*K25+L25</f>
+        <v>57</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" ref="N25:N27" si="19">M25/K25*B25</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26">
+        <v>5.3</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
-      <c r="N25" s="17">
-        <f t="shared" si="17"/>
+      <c r="N26" s="17">
+        <f t="shared" si="19"/>
         <v>5.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26">
-        <v>6.8650000000000002</v>
-      </c>
-      <c r="K26">
-        <v>120</v>
-      </c>
-      <c r="L26">
-        <v>622</v>
-      </c>
-      <c r="M26" s="17">
-        <f t="shared" si="16"/>
-        <v>1445.8000000000002</v>
-      </c>
-      <c r="N26" s="17">
-        <f t="shared" si="17"/>
-        <v>168.6766666666667</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
       </c>
       <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27">
+        <v>6.8650000000000002</v>
+      </c>
+      <c r="K27">
+        <v>120</v>
+      </c>
+      <c r="L27">
+        <v>622</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="18"/>
+        <v>1445.8000000000002</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" si="19"/>
+        <v>168.6766666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40">
+        <v>0</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G28" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H28" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I28" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="J27">
+      <c r="J28" s="40">
         <v>5</v>
       </c>
-      <c r="K27">
+      <c r="K28" s="40">
         <v>20</v>
       </c>
-      <c r="M27" s="17">
-        <f t="shared" ref="M27:M28" si="18">J27*K27+L27</f>
+      <c r="L28" s="40"/>
+      <c r="M28" s="44">
+        <f t="shared" ref="M28:M30" si="20">J28*K28+L28</f>
         <v>100</v>
       </c>
-      <c r="N27" s="17">
-        <f t="shared" ref="N27:N28" si="19">M27/K27*B27</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J28">
-        <v>105.373</v>
-      </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-      <c r="L28">
-        <v>1021.53</v>
-      </c>
-      <c r="M28" s="17">
-        <f t="shared" si="18"/>
-        <v>2075.2600000000002</v>
-      </c>
-      <c r="N28" s="17">
-        <f t="shared" si="19"/>
-        <v>207.52600000000001</v>
+      <c r="N28" s="44">
+        <f t="shared" ref="N28:N30" si="21">M28/K28*B28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="18"/>
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>252</v>
+      </c>
       <c r="J29">
-        <f>4400/750</f>
-        <v>5.8666666666666663</v>
+        <v>1.3</v>
       </c>
       <c r="K29">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="M29" s="17">
-        <f t="shared" ref="M29" si="20">J29*K29+L29</f>
-        <v>4400</v>
+        <f t="shared" si="20"/>
+        <v>156</v>
       </c>
       <c r="N29" s="17">
-        <f t="shared" ref="N29" si="21">M29/K29*B29</f>
-        <v>422.4</v>
+        <f t="shared" si="21"/>
+        <v>22.1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="B30">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="J30">
-        <f>4400/750</f>
-        <v>5.8666666666666663</v>
+        <v>105.373</v>
       </c>
       <c r="K30">
-        <v>750</v>
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>1021.53</v>
       </c>
       <c r="M30" s="17">
-        <f t="shared" ref="M30" si="22">J30*K30+L30</f>
-        <v>4400</v>
+        <f t="shared" si="20"/>
+        <v>2075.2600000000002</v>
       </c>
       <c r="N30" s="17">
-        <f t="shared" ref="N30" si="23">M30/K30*B30</f>
-        <v>246.39999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>207.52600000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="18"/>
       <c r="J31">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="K31">
+        <v>750</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" ref="M31" si="22">J31*K31+L31</f>
+        <v>4400</v>
+      </c>
+      <c r="N31" s="17">
+        <f t="shared" ref="N31" si="23">M31/K31*B31</f>
+        <v>422.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="18"/>
+      <c r="J32">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="K32">
+        <v>750</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" ref="M32" si="24">J32*K32+L32</f>
+        <v>4400</v>
+      </c>
+      <c r="N32" s="17">
+        <f t="shared" ref="N32" si="25">M32/K32*B32</f>
+        <v>246.39999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33">
+        <v>1.4508000000000001</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" ref="M33" si="26">J33*K33+L33</f>
+        <v>145.08000000000001</v>
+      </c>
+      <c r="N33" s="17">
+        <f t="shared" ref="N33" si="27">M33/K33*B33</f>
+        <v>8.7048000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="18"/>
+      <c r="J34">
         <v>10</v>
       </c>
-      <c r="K31">
+      <c r="K34">
         <v>1</v>
       </c>
-      <c r="M31" s="17">
-        <f t="shared" ref="M31" si="24">J31*K31+L31</f>
+      <c r="M34" s="17">
+        <f t="shared" ref="M34" si="28">J34*K34+L34</f>
         <v>10</v>
       </c>
-      <c r="N31" s="17">
-        <f t="shared" ref="N31" si="25">M31/K31*B31</f>
+      <c r="N34" s="17">
+        <f t="shared" ref="N34" si="29">M34/K34*B34</f>
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="20">
-        <f>SUM(N3:N31)</f>
-        <v>3176.3437777777776</v>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20">
+        <f>SUM(N3:N34)</f>
+        <v>3077.3779111111112</v>
       </c>
     </row>
   </sheetData>
@@ -3932,9 +4332,9 @@
     <hyperlink ref="G12" r:id="rId24" xr:uid="{4609AE3D-19FF-5748-A0ED-DFFA91BB6055}"/>
     <hyperlink ref="F12" r:id="rId25" xr:uid="{2096A73D-4CE8-E74A-BB65-338C934E2A69}"/>
     <hyperlink ref="H12" r:id="rId26" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{68792742-3611-704B-8F1F-1BC207B55561}"/>
-    <hyperlink ref="G24" r:id="rId27" xr:uid="{286DB45E-D43F-FB43-B2BF-2425FBCA18F9}"/>
-    <hyperlink ref="F24" r:id="rId28" xr:uid="{4F4D8AE5-D858-AF4E-BA90-8140DCA9B7F5}"/>
-    <hyperlink ref="H24" r:id="rId29" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{85C02143-9E94-CA45-A6BA-FAC696C48A8A}"/>
+    <hyperlink ref="G25" r:id="rId27" xr:uid="{286DB45E-D43F-FB43-B2BF-2425FBCA18F9}"/>
+    <hyperlink ref="F25" r:id="rId28" xr:uid="{4F4D8AE5-D858-AF4E-BA90-8140DCA9B7F5}"/>
+    <hyperlink ref="H25" r:id="rId29" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{85C02143-9E94-CA45-A6BA-FAC696C48A8A}"/>
     <hyperlink ref="G13" r:id="rId30" xr:uid="{3E564333-1F41-3B42-958E-9100A88DC0C7}"/>
     <hyperlink ref="F13" r:id="rId31" xr:uid="{5FC52C21-9DF6-A641-9A20-4B26CC96467E}"/>
     <hyperlink ref="H13" r:id="rId32" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{085EB337-BEDF-314C-8812-6C18F9A4ECA9}"/>
@@ -3950,38 +4350,45 @@
     <hyperlink ref="G17" r:id="rId42" xr:uid="{BB73D28F-1947-6B46-B0CA-F8AFD9C3045D}"/>
     <hyperlink ref="F17" r:id="rId43" xr:uid="{AB9C9562-5639-1F4F-87C3-BF35D6BAF6B9}"/>
     <hyperlink ref="H17" r:id="rId44" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{816F5E02-522A-5042-9A9C-46C12545D86F}"/>
-    <hyperlink ref="G25" r:id="rId45" xr:uid="{B36444DD-A6C0-D14C-BE91-16349F83E865}"/>
-    <hyperlink ref="F25" r:id="rId46" xr:uid="{677CCA7C-5BD1-964C-BD4A-6AB6EB745994}"/>
-    <hyperlink ref="H25" r:id="rId47" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{A188EEAB-9F73-7F4C-841E-376D4E95898B}"/>
-    <hyperlink ref="G23" r:id="rId48" xr:uid="{23D92319-1E56-314B-BD63-1D63071B2316}"/>
-    <hyperlink ref="F23" r:id="rId49" xr:uid="{5BCC6843-4313-B14C-AF37-14DED1C8074B}"/>
-    <hyperlink ref="H23" r:id="rId50" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{507759AB-974E-8A44-89BE-DAF6332DDF7E}"/>
-    <hyperlink ref="G22" r:id="rId51" xr:uid="{1AE5ADCD-35CA-1649-B222-2FB2B36A86B1}"/>
-    <hyperlink ref="F22" r:id="rId52" display="12.88009" xr:uid="{D5A32E27-4833-084F-BAB9-72768F14FA28}"/>
-    <hyperlink ref="H22" r:id="rId53" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{C93D892D-7B84-BF4B-AFC8-558357942891}"/>
+    <hyperlink ref="G26" r:id="rId45" xr:uid="{B36444DD-A6C0-D14C-BE91-16349F83E865}"/>
+    <hyperlink ref="F26" r:id="rId46" xr:uid="{677CCA7C-5BD1-964C-BD4A-6AB6EB745994}"/>
+    <hyperlink ref="H26" r:id="rId47" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{A188EEAB-9F73-7F4C-841E-376D4E95898B}"/>
+    <hyperlink ref="G24" r:id="rId48" xr:uid="{23D92319-1E56-314B-BD63-1D63071B2316}"/>
+    <hyperlink ref="F24" r:id="rId49" xr:uid="{5BCC6843-4313-B14C-AF37-14DED1C8074B}"/>
+    <hyperlink ref="H24" r:id="rId50" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{507759AB-974E-8A44-89BE-DAF6332DDF7E}"/>
+    <hyperlink ref="G23" r:id="rId51" xr:uid="{1AE5ADCD-35CA-1649-B222-2FB2B36A86B1}"/>
+    <hyperlink ref="F23" r:id="rId52" display="12.88009" xr:uid="{D5A32E27-4833-084F-BAB9-72768F14FA28}"/>
+    <hyperlink ref="H23" r:id="rId53" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{C93D892D-7B84-BF4B-AFC8-558357942891}"/>
     <hyperlink ref="G18" r:id="rId54" xr:uid="{7E406FAF-40A8-E64D-92A0-09809FFCF5E9}"/>
     <hyperlink ref="F18" r:id="rId55" xr:uid="{46EEC713-5B53-A844-8E45-F1EE9B0A65FD}"/>
     <hyperlink ref="H18" r:id="rId56" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{0E057236-AE0C-CB49-96FD-145DFF3852E4}"/>
     <hyperlink ref="G19" r:id="rId57" xr:uid="{4909AF0A-C056-3A4D-AF36-EC4BA81B1DE9}"/>
     <hyperlink ref="F19" r:id="rId58" xr:uid="{1C145889-FA2F-124D-80FB-B4700BDF4912}"/>
     <hyperlink ref="H19" r:id="rId59" xr:uid="{AED11A1F-1D82-A241-B5D7-9551791987BE}"/>
-    <hyperlink ref="G21" r:id="rId60" xr:uid="{4D35C340-51A2-4848-93D7-95D6FE3C9775}"/>
-    <hyperlink ref="F21" r:id="rId61" xr:uid="{FBB1AA98-E1E8-7343-895B-BC794ACB8BB9}"/>
-    <hyperlink ref="H21" r:id="rId62" xr:uid="{23C9494A-413B-5A42-BF06-B49B5684AF06}"/>
-    <hyperlink ref="H27" r:id="rId63" xr:uid="{79D106DF-5F99-E748-99DD-AC8FCA4E11D7}"/>
-    <hyperlink ref="G27" r:id="rId64" xr:uid="{4B44E84E-C5AE-E240-A016-118DA8089AA7}"/>
-    <hyperlink ref="F27" r:id="rId65" xr:uid="{42C4ADBD-C016-7440-B6D4-5324C15A646D}"/>
+    <hyperlink ref="G22" r:id="rId60" xr:uid="{4D35C340-51A2-4848-93D7-95D6FE3C9775}"/>
+    <hyperlink ref="F22" r:id="rId61" xr:uid="{FBB1AA98-E1E8-7343-895B-BC794ACB8BB9}"/>
+    <hyperlink ref="H22" r:id="rId62" xr:uid="{23C9494A-413B-5A42-BF06-B49B5684AF06}"/>
+    <hyperlink ref="H28" r:id="rId63" xr:uid="{79D106DF-5F99-E748-99DD-AC8FCA4E11D7}"/>
+    <hyperlink ref="G28" r:id="rId64" xr:uid="{4B44E84E-C5AE-E240-A016-118DA8089AA7}"/>
+    <hyperlink ref="F28" r:id="rId65" xr:uid="{42C4ADBD-C016-7440-B6D4-5324C15A646D}"/>
     <hyperlink ref="G20" r:id="rId66" xr:uid="{93DA5CD1-ABEF-674D-9212-FAE2AE2BF654}"/>
     <hyperlink ref="F20" r:id="rId67" xr:uid="{30AA4905-E0FF-6549-9069-F462D5C4A1BD}"/>
     <hyperlink ref="H20" r:id="rId68" xr:uid="{A323439E-F4BA-D045-9CFB-9F6F674F97D5}"/>
-    <hyperlink ref="G26" r:id="rId69" xr:uid="{855F3123-A9C8-F140-B301-258524A8A90A}"/>
-    <hyperlink ref="H26" r:id="rId70" xr:uid="{2F8DF8A3-A5E4-484B-AA6C-B2FFF2BD2142}"/>
-    <hyperlink ref="F26" r:id="rId71" xr:uid="{B3CD6BF5-783D-844F-8A0B-75F3737D466E}"/>
-    <hyperlink ref="H28" r:id="rId72" xr:uid="{30BDDFCA-881E-8543-B321-830CAC91976D}"/>
+    <hyperlink ref="G27" r:id="rId69" xr:uid="{855F3123-A9C8-F140-B301-258524A8A90A}"/>
+    <hyperlink ref="H27" r:id="rId70" xr:uid="{2F8DF8A3-A5E4-484B-AA6C-B2FFF2BD2142}"/>
+    <hyperlink ref="F27" r:id="rId71" xr:uid="{B3CD6BF5-783D-844F-8A0B-75F3737D466E}"/>
+    <hyperlink ref="H30" r:id="rId72" xr:uid="{30BDDFCA-881E-8543-B321-830CAC91976D}"/>
     <hyperlink ref="G3" r:id="rId73" xr:uid="{72CB063E-DC65-3C4D-B1ED-4612847366F7}"/>
     <hyperlink ref="F3" r:id="rId74" xr:uid="{013BCB57-B05C-AF48-BAF4-448E5DC6E0FF}"/>
     <hyperlink ref="H11" r:id="rId75" xr:uid="{655965E6-46F6-D746-BC91-1FE006B4ADB4}"/>
     <hyperlink ref="H3" r:id="rId76" xr:uid="{48EE2201-84CE-8B4F-91B5-D13A630F7858}"/>
+    <hyperlink ref="F21" r:id="rId77" xr:uid="{48328A4D-ADB7-8B40-A686-B975DBFA7271}"/>
+    <hyperlink ref="H21" r:id="rId78" xr:uid="{B07D6D76-69D2-2A4D-998D-F12B31F8C0FD}"/>
+    <hyperlink ref="F29" r:id="rId79" xr:uid="{7B89F9D1-2FF8-3848-94CC-7D51DCC572B2}"/>
+    <hyperlink ref="G29" r:id="rId80" xr:uid="{71ABF7A8-4763-C349-A03A-25AE08F8A86E}"/>
+    <hyperlink ref="H29" r:id="rId81" xr:uid="{1B3EB5E5-028F-904F-8239-15D309692A51}"/>
+    <hyperlink ref="F33" r:id="rId82" xr:uid="{DDEB64EF-A01D-EE48-897E-97A74563D9FC}"/>
+    <hyperlink ref="H33" r:id="rId83" xr:uid="{06B468F3-4351-0F4D-848F-3DE0082A9A95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993D024-DE54-CB4A-87A0-9CCB2D1700B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0149520C-4B9F-FB4E-8274-7B5404F63EA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1120" windowWidth="26340" windowHeight="15540" activeTab="1" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
+    <workbookView xWindow="1280" yWindow="1420" windowWidth="26340" windowHeight="15540" activeTab="2" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="x4" sheetId="1" r:id="rId1"/>
     <sheet name="x7" sheetId="2" r:id="rId2"/>
+    <sheet name="BOM" sheetId="4" r:id="rId3"/>
+    <sheet name="Orders" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
@@ -785,6 +787,192 @@
   </si>
   <si>
     <t>18.11.2022</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>order date</t>
+  </si>
+  <si>
+    <t>order id</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>jlcpcb.com</t>
+  </si>
+  <si>
+    <t>#Y31-2346369A</t>
+  </si>
+  <si>
+    <t>DS-5-01 MIDI</t>
+  </si>
+  <si>
+    <t>aliexpress.com</t>
+  </si>
+  <si>
+    <t>terraelectronica.ru</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>#5016623841712510</t>
+  </si>
+  <si>
+    <t>#07796164</t>
+  </si>
+  <si>
+    <t>#07831475</t>
+  </si>
+  <si>
+    <t>#Y33-2346369A #Y34-2346369A</t>
+  </si>
+  <si>
+    <t>PCB x4</t>
+  </si>
+  <si>
+    <t>PCB x7</t>
+  </si>
+  <si>
+    <t>#Y35-2346369A</t>
+  </si>
+  <si>
+    <t>винт М3x6</t>
+  </si>
+  <si>
+    <t>саморезы М2.6x12</t>
+  </si>
+  <si>
+    <t>cтойка латунная PCHSS-18</t>
+  </si>
+  <si>
+    <t>ATxmega32a4u</t>
+  </si>
+  <si>
+    <t>разъём 2x10 SMD</t>
+  </si>
+  <si>
+    <t>chipdip.ru</t>
+  </si>
+  <si>
+    <t>6N138M</t>
+  </si>
+  <si>
+    <t>#5017385647722510</t>
+  </si>
+  <si>
+    <t>#5017461801272510</t>
+  </si>
+  <si>
+    <t>#8338098</t>
+  </si>
+  <si>
+    <t>rezonit.ru</t>
+  </si>
+  <si>
+    <t>#1517354</t>
+  </si>
+  <si>
+    <t>#8341083</t>
+  </si>
+  <si>
+    <t>#07863451</t>
+  </si>
+  <si>
+    <t>#8341104</t>
+  </si>
+  <si>
+    <t>#4000903717748</t>
+  </si>
+  <si>
+    <t>#5018927329292510</t>
+  </si>
+  <si>
+    <t>#5018927329312510</t>
+  </si>
+  <si>
+    <t>LD1117S33</t>
+  </si>
+  <si>
+    <t>#5017392970742510</t>
+  </si>
+  <si>
+    <t>#5017405636652510</t>
+  </si>
+  <si>
+    <t>ATxmega128a1u</t>
+  </si>
+  <si>
+    <t>per item</t>
+  </si>
+  <si>
+    <t>#5017422385892510</t>
+  </si>
+  <si>
+    <t>PCB splitter x6</t>
+  </si>
+  <si>
+    <t>PCB splitter x6-2</t>
+  </si>
+  <si>
+    <t>#5018927329252510</t>
+  </si>
+  <si>
+    <t>2x10 SMD socket</t>
+  </si>
+  <si>
+    <t>#5018771842962510</t>
+  </si>
+  <si>
+    <t>#5018770085192510</t>
+  </si>
+  <si>
+    <t>Кнопка угловая 5 мм</t>
+  </si>
+  <si>
+    <t>DIN5-DS-5-01</t>
+  </si>
+  <si>
+    <t>Box x7</t>
+  </si>
+  <si>
+    <t>Cover x7</t>
+  </si>
+  <si>
+    <t>Box &amp; Cover x4</t>
+  </si>
+  <si>
+    <t>PinHeader 2x10 2.54</t>
+  </si>
+  <si>
+    <t>PinSocket 2x10 SMD 2.54</t>
+  </si>
+  <si>
+    <t>Саморез 2.6x12</t>
+  </si>
+  <si>
+    <t>Саморез 2.3x12</t>
+  </si>
+  <si>
+    <t>Винт М3x6</t>
+  </si>
+  <si>
+    <t>Стойка латунная M3x18 мм</t>
+  </si>
+  <si>
+    <t>Предохранитель самовосстанавливающийся SMD</t>
+  </si>
+  <si>
+    <t>Корпус с крышкой, масса в граммах</t>
+  </si>
+  <si>
+    <t>Винт М3x6 мм</t>
   </si>
 </sst>
 </file>
@@ -876,7 +1064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -950,12 +1138,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1004,6 +1203,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,13 +1235,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1350,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7993AECC-982E-A443-870E-38A46DB5AE88}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:K36"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,41 +1579,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1431,22 +1643,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1960,47 +2172,47 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="33">
         <v>0</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="33">
         <v>17.940000000000001</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="36">
         <v>40</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="33">
         <v>190</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="37">
         <f t="shared" si="14"/>
         <v>907.6</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -2135,22 +2347,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -2644,7 +2856,7 @@
       <c r="D34" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="31" t="s">
         <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -2682,7 +2894,7 @@
       <c r="D35" t="s">
         <v>235</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="31" t="s">
         <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -2720,7 +2932,7 @@
       <c r="D36" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="31" t="s">
         <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -2899,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C343BB3-294E-094C-B28F-3093B9AA3184}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2914,41 +3126,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3698,47 +3910,47 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="33">
         <v>0</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="33">
         <v>17.940000000000001</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="36">
         <v>40</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="33">
         <v>190</v>
       </c>
-      <c r="M20" s="44">
+      <c r="M20" s="37">
         <f t="shared" ref="M20" si="10">J20*K20+L20</f>
         <v>907.6</v>
       </c>
-      <c r="N20" s="44">
+      <c r="N20" s="37">
         <f t="shared" ref="N20" si="11">M20/K20*B20</f>
         <v>0</v>
       </c>
@@ -4043,39 +4255,39 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33">
         <v>0</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="33">
         <v>5</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="33">
         <v>20</v>
       </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="44">
+      <c r="L28" s="33"/>
+      <c r="M28" s="37">
         <f t="shared" ref="M28:M30" si="20">J28*K28+L28</f>
         <v>100</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="37">
         <f t="shared" ref="N28:N30" si="21">M28/K28*B28</f>
         <v>0</v>
       </c>
@@ -4220,7 +4432,7 @@
       <c r="D33" t="s">
         <v>240</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="31" t="s">
         <v>241</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -4392,4 +4604,2446 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14144EDC-C784-C04C-803C-AF6946535824}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="46">
+        <f>Orders!D30</f>
+        <v>44642</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J45" si="0">G3*H3+I3</f>
+        <v>100</v>
+      </c>
+      <c r="K3" s="14">
+        <f>J3/H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4">
+        <v>0.38</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" ref="K4:K45" si="1">J4/H4</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5">
+        <v>0.82</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="1"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>200</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>70</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8">
+        <v>5.2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>80</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9">
+        <v>5.3</v>
+      </c>
+      <c r="H9" s="16">
+        <v>80</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H10" s="16">
+        <v>10</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14">
+        <v>3.3</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H15" s="16">
+        <v>10</v>
+      </c>
+      <c r="J15" s="17">
+        <f>G15*H15+I15</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="K15" s="14">
+        <f>J15/H15</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16">
+        <v>0.18</v>
+      </c>
+      <c r="H16" s="16">
+        <v>200</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>470</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="16">
+        <v>240</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="0"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H18" s="16">
+        <v>20</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19">
+        <v>0.11</v>
+      </c>
+      <c r="H19" s="16">
+        <v>10</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H20" s="16">
+        <v>10</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21">
+        <v>33.9</v>
+      </c>
+      <c r="H21" s="16">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>253</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="0"/>
+        <v>1168.3</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="1"/>
+        <v>43.270370370370365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="33">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="H22" s="36">
+        <v>40</v>
+      </c>
+      <c r="I22" s="33">
+        <v>190</v>
+      </c>
+      <c r="J22" s="37">
+        <f t="shared" si="0"/>
+        <v>907.6</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="1"/>
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23">
+        <f>98.66/12</f>
+        <v>8.2216666666666658</v>
+      </c>
+      <c r="H23" s="16">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>196.54</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="0"/>
+        <v>689.83999999999992</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="1"/>
+        <v>11.497333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="18"/>
+      <c r="H24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25">
+        <v>1650</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="0"/>
+        <v>16500</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
+        <v>12.880089999999999</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26">
+        <v>18.7</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="1"/>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27">
+        <v>5.3</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="J27" s="17">
+        <f>G27*H27+I27</f>
+        <v>53</v>
+      </c>
+      <c r="K27" s="14">
+        <f>J27/H27</f>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28">
+        <v>10.8</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="18"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="18"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31">
+        <v>3.8</v>
+      </c>
+      <c r="H31" s="16">
+        <v>10</v>
+      </c>
+      <c r="J31" s="17">
+        <f>G31*H31+I31</f>
+        <v>38</v>
+      </c>
+      <c r="K31" s="14">
+        <f>J31/H31</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32">
+        <v>5.7</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33">
+        <v>6.8650000000000002</v>
+      </c>
+      <c r="H33">
+        <v>120</v>
+      </c>
+      <c r="I33">
+        <v>622</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" si="0"/>
+        <v>1445.8000000000002</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="1"/>
+        <v>12.048333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="33">
+        <v>5</v>
+      </c>
+      <c r="H34" s="33">
+        <v>20</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="37">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35">
+        <v>1.3</v>
+      </c>
+      <c r="H35">
+        <v>120</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="18"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37">
+        <v>105.373</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>1021.53</v>
+      </c>
+      <c r="J37" s="17">
+        <f t="shared" si="0"/>
+        <v>2075.2600000000002</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="1"/>
+        <v>207.52600000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="18"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39">
+        <v>72</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="18"/>
+      <c r="G39">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="H39">
+        <v>750</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="1"/>
+        <v>5.8666666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40">
+        <v>42</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="18"/>
+      <c r="G40">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="H40">
+        <v>750</v>
+      </c>
+      <c r="J40" s="17">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="1"/>
+        <v>5.8666666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="18"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="18"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="18"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44">
+        <v>1.4508000000000001</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="J44" s="17">
+        <f t="shared" si="0"/>
+        <v>145.08000000000001</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="1"/>
+        <v>1.4508000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="18"/>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{63537754-7001-3941-8B14-9CF44C8F7D04}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{5AE1CB8F-6254-1840-B767-B3A2F3F33FDF}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{DC049CE1-99C2-CE41-A92D-138F65B4B929}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{2E451C51-FA71-B940-87B2-A5F5BB0667E2}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{AD8C0950-6558-0E42-8FBD-DA25B6CC9F74}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{1FEECB75-3251-624C-BC08-937F77BE623C}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{488955E9-A249-2049-8596-0B619F6FAD8E}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{F243375E-8BBC-104C-AA59-F1A8638FEF3E}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{6D7B0FD7-74E6-D04F-BBCB-60FC749339EB}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{C63EBCAA-4FF5-7242-8566-2A02332B6C28}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{64D22823-4DD9-7F4C-9A14-16F6A064EF8A}"/>
+    <hyperlink ref="E9" r:id="rId12" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{435A85C6-92BD-EE4F-BCC5-6ECC323CCCE1}"/>
+    <hyperlink ref="E10" r:id="rId13" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{D24DB387-38BE-0441-8C86-56CA642A99CC}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{1EC2DD50-2F13-C547-8A7B-6D18E45735E2}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{0CE6B7F1-2532-374C-B8E7-B70751DB293A}"/>
+    <hyperlink ref="D31" r:id="rId16" xr:uid="{3BE1772F-32AA-014F-BD92-EC28BF89D7C5}"/>
+    <hyperlink ref="E31" r:id="rId17" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{F5437F92-20A0-8A42-91E8-5663891C31DE}"/>
+    <hyperlink ref="D32" r:id="rId18" xr:uid="{F143C5F1-E8DD-5C4A-BFC5-D18FE65CD80B}"/>
+    <hyperlink ref="E32" r:id="rId19" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{CE819F3E-2D22-AF49-8DFD-F9C0497BC975}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{88CBD699-0BAD-A948-B9FC-6EA3E9766E12}"/>
+    <hyperlink ref="E16" r:id="rId21" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{9F2E6CD1-AE14-4B41-A4F6-828F2A749663}"/>
+    <hyperlink ref="D17" r:id="rId22" xr:uid="{DEAA96F3-70DD-B342-8C5B-6B1AC7F707C2}"/>
+    <hyperlink ref="E17" r:id="rId23" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{298453DA-2E9A-7D40-BAC4-93094320EFDE}"/>
+    <hyperlink ref="D15" r:id="rId24" xr:uid="{AB9ECC66-AE97-4046-8734-7737017F84A9}"/>
+    <hyperlink ref="E15" r:id="rId25" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{1FDD3A33-4680-4549-B224-10536E4C9FA3}"/>
+    <hyperlink ref="D18" r:id="rId26" xr:uid="{6A1AB352-CB84-104B-B4F1-5F213A1578C4}"/>
+    <hyperlink ref="E18" r:id="rId27" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{B92CFDBC-EAB1-0848-8222-89F0A76D3EE9}"/>
+    <hyperlink ref="D19" r:id="rId28" xr:uid="{AEB129B0-73FC-E048-9062-62C47A635270}"/>
+    <hyperlink ref="E19" r:id="rId29" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{30BAF13B-47C2-9F41-B4C5-E7F086FDF7E7}"/>
+    <hyperlink ref="D27" r:id="rId30" xr:uid="{11A695A0-65BA-EA4C-852D-FFCA1378463A}"/>
+    <hyperlink ref="E27" r:id="rId31" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{04DB7CFB-4C23-AE4B-94FA-E643E17CE4CB}"/>
+    <hyperlink ref="D28" r:id="rId32" xr:uid="{8BB118D4-07C8-C64D-BFF4-15932ED4226F}"/>
+    <hyperlink ref="E28" r:id="rId33" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{F511BC62-3799-4848-B2F0-CDD4E9FA37AD}"/>
+    <hyperlink ref="D26" r:id="rId34" display="12.88009" xr:uid="{2BD631AD-CC51-754C-8181-62649E7549D1}"/>
+    <hyperlink ref="E26" r:id="rId35" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{0A4F56FE-184B-1B47-B164-670A015CB5D1}"/>
+    <hyperlink ref="D20" r:id="rId36" xr:uid="{D4C965F6-14FF-774A-8C8D-5123D99A0D07}"/>
+    <hyperlink ref="E20" r:id="rId37" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{2D5AE6E6-666E-8047-BEF5-9A036531CE83}"/>
+    <hyperlink ref="D21" r:id="rId38" xr:uid="{B97B2B96-ED95-4A41-9AE6-326050C4939A}"/>
+    <hyperlink ref="E21" r:id="rId39" xr:uid="{6AFBC5CC-58E3-0142-91D6-6DD96626AEA8}"/>
+    <hyperlink ref="D25" r:id="rId40" xr:uid="{F38B9E8D-B6DD-1946-B657-F3331AA60E8A}"/>
+    <hyperlink ref="E25" r:id="rId41" xr:uid="{3BC02634-AA67-8A43-A4B6-A7FA4D94BC47}"/>
+    <hyperlink ref="E34" r:id="rId42" xr:uid="{CF32D61E-79D5-5E4C-84D2-593B3360F7AE}"/>
+    <hyperlink ref="D34" r:id="rId43" xr:uid="{7184F710-5B7B-094F-9176-37E23FF911BC}"/>
+    <hyperlink ref="D22" r:id="rId44" xr:uid="{CCCB8A25-E911-D949-A0EF-0D155796EC5B}"/>
+    <hyperlink ref="E22" r:id="rId45" xr:uid="{B9D75311-41D6-D046-8DED-2241912B274E}"/>
+    <hyperlink ref="E33" r:id="rId46" xr:uid="{DE945CFB-E79B-F443-A63B-157531023746}"/>
+    <hyperlink ref="D33" r:id="rId47" xr:uid="{5B82EC96-518D-AA4D-B36A-1B71864ABCEF}"/>
+    <hyperlink ref="E37" r:id="rId48" xr:uid="{1D51B0A7-8685-5647-9EFA-277369FD3ABF}"/>
+    <hyperlink ref="E14" r:id="rId49" xr:uid="{3D394399-3BB6-3540-831C-FA73EFFE5CB6}"/>
+    <hyperlink ref="D23" r:id="rId50" xr:uid="{A38B4B1B-B9B2-F34B-AA75-CEE256B496F3}"/>
+    <hyperlink ref="E23" r:id="rId51" xr:uid="{6AB6DC7A-8EAC-B14F-BD64-4069B6600C1C}"/>
+    <hyperlink ref="D35" r:id="rId52" xr:uid="{F565C3B4-A362-A741-BE33-87CEAB49C437}"/>
+    <hyperlink ref="E35" r:id="rId53" xr:uid="{2E5CA6E3-C325-EB4C-A4FD-E09C23C35E2E}"/>
+    <hyperlink ref="D44" r:id="rId54" xr:uid="{E85661EA-4288-864E-99F8-14443A59494F}"/>
+    <hyperlink ref="E44" r:id="rId55" xr:uid="{9A2D115A-5BA3-E54E-BECA-6E9F3F9B0B84}"/>
+    <hyperlink ref="E3" location="Orders!E30" display="#07863451" xr:uid="{64A575F0-CC33-2242-8238-2390FBF4E169}"/>
+    <hyperlink ref="D3" r:id="rId56" xr:uid="{635A4308-6EC5-7340-97B6-F7CDBAECA0D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7D9B-E6AB-C34D-8839-A6582ADEF526}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="46">
+        <v>44300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2">
+        <f>2*378.62</f>
+        <v>757.24</v>
+      </c>
+      <c r="G2">
+        <v>729.22</v>
+      </c>
+      <c r="H2">
+        <f>F2+G2</f>
+        <v>1486.46</v>
+      </c>
+      <c r="I2">
+        <f>H2/B2</f>
+        <v>148.64600000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="46">
+        <v>44304</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3">
+        <v>737.58</v>
+      </c>
+      <c r="G3">
+        <v>785.44</v>
+      </c>
+      <c r="H3">
+        <f>F3+G3</f>
+        <v>1523.02</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I34" si="0">H3/B3</f>
+        <v>15.2302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="46">
+        <v>44321</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4">
+        <v>745.53</v>
+      </c>
+      <c r="G4">
+        <v>317.52999999999997</v>
+      </c>
+      <c r="H4">
+        <f>F4+G4</f>
+        <v>1063.06</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>212.61199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="46">
+        <v>44359</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5">
+        <v>193.91</v>
+      </c>
+      <c r="G5">
+        <v>300.49</v>
+      </c>
+      <c r="H5">
+        <f>F5+G5</f>
+        <v>494.4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="46">
+        <v>44378</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6">
+        <v>2083.33</v>
+      </c>
+      <c r="G6">
+        <v>236</v>
+      </c>
+      <c r="H6">
+        <f>F6+G6</f>
+        <v>2319.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="46">
+        <v>44378</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7">
+        <f>665-138</f>
+        <v>527</v>
+      </c>
+      <c r="G7">
+        <v>138</v>
+      </c>
+      <c r="H7">
+        <f>F7+G7</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="46">
+        <v>44406</v>
+      </c>
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8">
+        <v>1053.73</v>
+      </c>
+      <c r="G8">
+        <v>1021.53</v>
+      </c>
+      <c r="H8">
+        <f>F8+G8</f>
+        <v>2075.2600000000002</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>207.52600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="46">
+        <v>44406</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9">
+        <f>10048-138</f>
+        <v>9910</v>
+      </c>
+      <c r="G9">
+        <v>138</v>
+      </c>
+      <c r="H9">
+        <f>F9+G9</f>
+        <v>10048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="46">
+        <v>44411</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10">
+        <v>145.08000000000001</v>
+      </c>
+      <c r="H10">
+        <f>F10+G10</f>
+        <v>145.08000000000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.4508000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="46">
+        <v>44491</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>1762.7</v>
+      </c>
+      <c r="G11">
+        <v>297</v>
+      </c>
+      <c r="H11">
+        <f>F11+G11</f>
+        <v>2059.6999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="46">
+        <v>44492</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12">
+        <f>1488.3-253</f>
+        <v>1235.3</v>
+      </c>
+      <c r="G12">
+        <v>253</v>
+      </c>
+      <c r="H12">
+        <f>F12+G12</f>
+        <v>1488.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="46">
+        <v>44503</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13">
+        <v>823.82</v>
+      </c>
+      <c r="G13">
+        <v>622.29999999999995</v>
+      </c>
+      <c r="H13">
+        <f>F13+G13</f>
+        <v>1446.12</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>12.050999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="46">
+        <v>44526</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14">
+        <v>1183.8800000000001</v>
+      </c>
+      <c r="G14">
+        <v>196.54</v>
+      </c>
+      <c r="H14">
+        <f>F14+G14</f>
+        <v>1380.42</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>23.007000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="46">
+        <v>44529</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15">
+        <v>1135.4000000000001</v>
+      </c>
+      <c r="G15">
+        <v>236</v>
+      </c>
+      <c r="H15">
+        <f>F15+G15</f>
+        <v>1371.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="46">
+        <v>44575</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16">
+        <v>164.34</v>
+      </c>
+      <c r="H16">
+        <f>F16+G16</f>
+        <v>164.34</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>3.2867999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="46">
+        <v>44575</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17">
+        <v>318</v>
+      </c>
+      <c r="H17">
+        <f>F17+G17</f>
+        <v>318</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="46">
+        <v>44593</v>
+      </c>
+      <c r="E18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18">
+        <v>387.29</v>
+      </c>
+      <c r="G18">
+        <v>549.17999999999995</v>
+      </c>
+      <c r="H18">
+        <f>F18+G18</f>
+        <v>936.47</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>93.647000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="46">
+        <v>44593</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19">
+        <v>797.1</v>
+      </c>
+      <c r="G19">
+        <v>590.29999999999995</v>
+      </c>
+      <c r="H19">
+        <f>F19+G19</f>
+        <v>1387.4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>13.874000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="46">
+        <v>44594</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20">
+        <v>505.44</v>
+      </c>
+      <c r="G20">
+        <v>236</v>
+      </c>
+      <c r="H20">
+        <f>F20+G20</f>
+        <v>741.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="46">
+        <v>44617</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21">
+        <v>505.92</v>
+      </c>
+      <c r="G21">
+        <v>236</v>
+      </c>
+      <c r="H21">
+        <f>F21+G21</f>
+        <v>741.92000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="46">
+        <v>44625</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22">
+        <v>355.04</v>
+      </c>
+      <c r="G22">
+        <v>99.52</v>
+      </c>
+      <c r="H22">
+        <f>F22+G22</f>
+        <v>454.56</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>22.728000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="46">
+        <v>44630</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23">
+        <v>4919.67</v>
+      </c>
+      <c r="H23">
+        <f>F23+G23</f>
+        <v>4919.67</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>491.96699999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="46">
+        <v>44630</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24">
+        <v>13640.01</v>
+      </c>
+      <c r="G24">
+        <v>2122.15</v>
+      </c>
+      <c r="H24">
+        <f>F24+G24</f>
+        <v>15762.16</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1576.2159999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="46">
+        <v>44634</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25">
+        <v>6604.81</v>
+      </c>
+      <c r="G25">
+        <v>1711.62</v>
+      </c>
+      <c r="H25">
+        <f>F25+G25</f>
+        <v>8316.43</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>27.721433333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="46">
+        <v>44634</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26">
+        <v>3956.26</v>
+      </c>
+      <c r="G26">
+        <v>549.57000000000005</v>
+      </c>
+      <c r="H26">
+        <f>F26+G26</f>
+        <v>4505.83</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>45.058300000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="46">
+        <v>44641</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="F27">
+        <v>651</v>
+      </c>
+      <c r="H27">
+        <f>F27+G27</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="46">
+        <v>44642</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28">
+        <v>7624.08</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>381.20400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="46">
+        <v>44642</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29">
+        <v>4430</v>
+      </c>
+      <c r="H29">
+        <f>F29+G29</f>
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="46">
+        <v>44642</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30">
+        <v>10778.4</v>
+      </c>
+      <c r="G30">
+        <v>236</v>
+      </c>
+      <c r="H30">
+        <f>F30+G30</f>
+        <v>11014.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="46">
+        <v>44642</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31">
+        <v>2030</v>
+      </c>
+      <c r="H31">
+        <f>F31+G31</f>
+        <v>2030</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="46">
+        <v>44642</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="F32">
+        <v>582.63</v>
+      </c>
+      <c r="G32">
+        <v>245.58</v>
+      </c>
+      <c r="H32">
+        <f>F32+G32</f>
+        <v>828.21</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>13.803500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="46">
+        <v>44642</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33">
+        <v>519.98</v>
+      </c>
+      <c r="G33">
+        <v>92.72</v>
+      </c>
+      <c r="H33">
+        <f>F33+G33</f>
+        <v>612.70000000000005</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>6.1270000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="46">
+        <v>44642</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="F34">
+        <v>417.24</v>
+      </c>
+      <c r="G34">
+        <v>127.8</v>
+      </c>
+      <c r="H34">
+        <f>F34+G34</f>
+        <v>545.04</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>18.167999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="46">
+        <v>44642</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="F35">
+        <v>328.28</v>
+      </c>
+      <c r="G35">
+        <v>527.5</v>
+      </c>
+      <c r="H35">
+        <f>F35+G35</f>
+        <v>855.78</v>
+      </c>
+      <c r="I35">
+        <f>H35/B35</f>
+        <v>85.578000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="46">
+        <v>44643</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36">
+        <v>620</v>
+      </c>
+      <c r="H36">
+        <f>F36+G36</f>
+        <v>620</v>
+      </c>
+      <c r="I36">
+        <f>H36/B36</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="46">
+        <v>44643</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="H37">
+        <f>F37+G37</f>
+        <v>257.10000000000002</v>
+      </c>
+      <c r="I37">
+        <f>H37/B37</f>
+        <v>5.1420000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F2:F37)</f>
+        <v>75063.010000000009</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G2:G37)</f>
+        <v>12594.989999999998</v>
+      </c>
+      <c r="H38">
+        <f>SUM(H2:H37)</f>
+        <v>95282.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:H17">
+    <sortCondition ref="D3:D17"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{CB630380-0950-7C44-B347-9BC00703F09B}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{A1F72DC7-8876-0746-AF77-DCF52AC178DB}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{896CABBB-9387-2B45-977F-ECF3B23CC7A1}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{D3D76F13-A1F0-804E-B5CD-7DDB43FEEFDE}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{A760C615-A731-3D4D-A7AC-6EFEA528B304}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{03A6F4E0-1282-144F-80C3-864911B228E6}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{5105C4FF-DB5C-6149-9F71-304F505E12BD}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{9BA2CC76-0203-534E-915F-2228906C507D}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{47BE56D0-0607-6946-8F3F-7F4834384674}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{3B0615E9-05E6-1348-AD05-7827293D3C2F}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{03511585-F099-F148-8ACD-ECF293E1FC42}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{F6529319-E351-D449-AC35-9F03DFCE8FA0}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{B0AF129A-0554-1243-B411-322BC21B768A}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{D05BC112-802C-DC47-9F17-98CFCB769AA5}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{1651C4B6-1381-8940-BCA7-06E377D29CE0}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{E7446332-3E5B-644E-9AA0-C5628BCA4590}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{6C3699B8-36DA-AC41-835A-C953378B2EED}"/>
+    <hyperlink ref="E28" r:id="rId18" display="https://service.rezonit.ru/orders/1168288" xr:uid="{5F5194D4-47C3-5E4A-B049-5EC5BB213559}"/>
+    <hyperlink ref="E22" r:id="rId19" display="https://trade.aliexpress.ru/order_detail.htm?spm=a2g39.orderlist.0.0.43064aa6aMZspA&amp;orderId=5017385647722510&amp;orderSource=GlobalTrade" xr:uid="{88C29FA9-84CA-7744-8F81-452C165ED756}"/>
+    <hyperlink ref="E27" r:id="rId20" display="https://www.chipdip.ru/order/detail/8338098" xr:uid="{8B16CDE7-F403-6744-A5F9-4F7558094CF7}"/>
+    <hyperlink ref="E25" r:id="rId21" display="https://trade.aliexpress.ru/order_detail.htm?spm=a2g39.orderlist.0.0.43064aa6aMZspA&amp;orderId=5017461801272510&amp;orderSource=GlobalTrade" xr:uid="{B1B1A8B3-1946-3843-9A63-65217FDEAB42}"/>
+    <hyperlink ref="E30" r:id="rId22" display="https://www.terraelectronica.ru/order/07863451" xr:uid="{0513FCDD-820D-254B-A3BB-7E583B63D597}"/>
+    <hyperlink ref="E31" r:id="rId23" display="https://www.chipdip.ru/order/detail/8341104" xr:uid="{514F43BD-CD0B-CC45-AD57-F82BC773DE00}"/>
+    <hyperlink ref="E32" r:id="rId24" display="https://www.aliexpress.ru/item/4000903717748.html" xr:uid="{C79C3910-C31E-F041-89EE-4AB03879FED8}"/>
+    <hyperlink ref="E29" r:id="rId25" display="https://www.chipdip.ru/order/detail/8341083" xr:uid="{54721237-482F-4D47-8023-6A0DA2B815CA}"/>
+    <hyperlink ref="E33" r:id="rId26" xr:uid="{5E4C86B1-B555-204E-B014-5C8F80AA5C93}"/>
+    <hyperlink ref="E34" r:id="rId27" xr:uid="{D5FF25F5-CA8A-264F-ADC6-0A1855351AD9}"/>
+    <hyperlink ref="E26" r:id="rId28" xr:uid="{5156E07C-403F-2D4B-B55E-3CABFD21F49E}"/>
+    <hyperlink ref="E24" r:id="rId29" xr:uid="{081A0804-9892-2542-BCD2-80E417EC9779}"/>
+    <hyperlink ref="E23" r:id="rId30" xr:uid="{5517ACCC-B746-F748-890C-4298A296BC03}"/>
+    <hyperlink ref="E35" r:id="rId31" xr:uid="{E7E16D6B-C09B-834D-B286-E345420E8B6D}"/>
+    <hyperlink ref="E36" r:id="rId32" xr:uid="{4A29119F-690E-0D4B-89D9-5E112B6AE31D}"/>
+    <hyperlink ref="E37" r:id="rId33" xr:uid="{9FBA82F0-0E1D-BF41-A2E2-41CFFE4B9323}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0149520C-4B9F-FB4E-8274-7B5404F63EA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E58A64-940B-FA49-9CCE-B1C2EA945314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1420" windowWidth="26340" windowHeight="15540" activeTab="2" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
+    <workbookView xWindow="1280" yWindow="1420" windowWidth="26340" windowHeight="15540" activeTab="4" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="x4" sheetId="1" r:id="rId1"/>
-    <sheet name="x7" sheetId="2" r:id="rId2"/>
-    <sheet name="BOM" sheetId="4" r:id="rId3"/>
-    <sheet name="Orders" sheetId="3" r:id="rId4"/>
+    <sheet name="x4-flat" sheetId="5" r:id="rId2"/>
+    <sheet name="x7" sheetId="2" r:id="rId3"/>
+    <sheet name="BOM" sheetId="4" r:id="rId4"/>
+    <sheet name="Orders" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="341">
   <si>
     <t>id</t>
   </si>
@@ -973,6 +974,84 @@
   </si>
   <si>
     <t>Винт М3x6 мм</t>
+  </si>
+  <si>
+    <t>ATxmega32a4</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>#5018884017692510</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>#5019149229082510</t>
+  </si>
+  <si>
+    <t>#5019091516212510</t>
+  </si>
+  <si>
+    <t>#5022549706122510</t>
+  </si>
+  <si>
+    <t>#5022598776312510</t>
+  </si>
+  <si>
+    <t>#5023777132102510</t>
+  </si>
+  <si>
+    <t>#5023777132082510</t>
+  </si>
+  <si>
+    <t>#5026729678802510</t>
+  </si>
+  <si>
+    <t>#5029011525452510</t>
+  </si>
+  <si>
+    <t>#5029396850582510</t>
+  </si>
+  <si>
+    <t>#5029521301972510</t>
+  </si>
+  <si>
+    <t>PCB x4 flat</t>
+  </si>
+  <si>
+    <t>100x80</t>
+  </si>
+  <si>
+    <t>#1210961</t>
+  </si>
+  <si>
+    <t>03.06.2022</t>
+  </si>
+  <si>
+    <t>29.03.2022</t>
+  </si>
+  <si>
+    <t>22.03.2022</t>
+  </si>
+  <si>
+    <t>Box &amp; Cover x4 Flat</t>
+  </si>
+  <si>
+    <t>BAS316,115</t>
+  </si>
+  <si>
+    <t>#5180376</t>
+  </si>
+  <si>
+    <t>06.07.2022</t>
+  </si>
+  <si>
+    <t>to refund</t>
+  </si>
+  <si>
+    <t>#5030342772832510</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1062,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _R_U_B"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1032,6 +1111,87 @@
       <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1154,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,6 +1373,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,16 +1411,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1562,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7993AECC-982E-A443-870E-38A46DB5AE88}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,41 +1756,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1643,22 +1820,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -2347,22 +2524,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -3108,11 +3285,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9370EC-F6D6-834C-9D40-3E5D44C5A93F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C343BB3-294E-094C-B28F-3093B9AA3184}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3126,41 +3315,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4606,12 +4795,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14144EDC-C784-C04C-803C-AF6946535824}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4624,32 +4813,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="55" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4688,10 +4877,10 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="38">
         <f>Orders!D30</f>
         <v>44642</v>
       </c>
@@ -4702,7 +4891,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J45" si="0">G3*H3+I3</f>
+        <f t="shared" ref="J3:J48" si="0">G3*H3+I3</f>
         <v>100</v>
       </c>
       <c r="K3" s="14">
@@ -4740,7 +4929,7 @@
         <v>3.8</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" ref="K4:K45" si="1">J4/H4</f>
+        <f t="shared" ref="K4:K48" si="1">J4/H4</f>
         <v>0.38</v>
       </c>
     </row>
@@ -4951,12 +5140,29 @@
         <v>32</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="18"/>
-      <c r="H11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="14"/>
+      <c r="D11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H11" s="16">
+        <v>50</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="0"/>
+        <v>484.99999999999994</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -4966,12 +5172,29 @@
         <v>33</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="18"/>
-      <c r="H12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="14"/>
+      <c r="D12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="H12" s="16">
+        <v>70</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -4981,93 +5204,110 @@
         <v>35</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="18"/>
-      <c r="H13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="14"/>
+      <c r="D13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H13" s="16">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" ref="J13:J14" si="2">G13*H13+I13</f>
+        <v>294</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" ref="K13:K14" si="3">J13/H13</f>
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G14">
+        <v>13.8</v>
+      </c>
+      <c r="H14" s="16">
+        <v>200</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="2"/>
+        <v>2760</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="3"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>3.3</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="16">
         <v>10</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="14">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H15" s="16">
-        <v>10</v>
-      </c>
-      <c r="J15" s="17">
-        <f>G15*H15+I15</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="K15" s="14">
-        <f>J15/H15</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>118</v>
@@ -5076,396 +5316,396 @@
         <v>119</v>
       </c>
       <c r="G16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H16" s="16">
+        <v>10</v>
+      </c>
+      <c r="J16" s="17">
+        <f>G16*H16+I16</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="K16" s="14">
+        <f>J16/H16</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17">
         <v>0.18</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H17" s="16">
         <v>200</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>470</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.12</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="16">
         <v>240</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J18" s="17">
         <f t="shared" si="0"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="14">
         <f t="shared" si="1"/>
         <v>0.11999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="16">
         <v>20</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J19" s="17">
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="14">
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>0.11</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <v>10</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J20" s="17">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K20" s="14">
         <f t="shared" si="1"/>
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <v>10</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J21" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="14">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>33.9</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="16">
         <v>27</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>253</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J22" s="17">
         <f t="shared" si="0"/>
         <v>1168.3</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="14">
         <f t="shared" si="1"/>
         <v>43.270370370370365</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C23" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D23" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E23" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F23" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G23" s="33">
         <v>17.940000000000001</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H23" s="36">
         <v>40</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I23" s="33">
         <v>190</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J23" s="37">
         <f t="shared" si="0"/>
         <v>907.6</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="14">
         <f t="shared" si="1"/>
         <v>22.69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <f>98.66/12</f>
         <v>8.2216666666666658</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H24" s="16">
         <f>12*5</f>
         <v>60</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>196.54</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J24" s="17">
         <f t="shared" si="0"/>
         <v>689.83999999999992</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K24" s="14">
         <f t="shared" si="1"/>
         <v>11.497333333333332</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="18"/>
-      <c r="H24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="14"/>
-    </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="18"/>
+      <c r="H25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>1650</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J26" s="17">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K26" s="14">
         <f t="shared" si="1"/>
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
         <v>12.880089999999999</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>18.7</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>10</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J27" s="17">
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="14">
         <f t="shared" si="1"/>
         <v>18.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27">
-        <v>5.3</v>
-      </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="J27" s="17">
-        <f>G27*H27+I27</f>
-        <v>53</v>
-      </c>
-      <c r="K27" s="14">
-        <f>J27/H27</f>
-        <v>5.3</v>
-      </c>
-    </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>118</v>
@@ -5474,34 +5714,57 @@
         <v>119</v>
       </c>
       <c r="G28">
+        <v>5.3</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="J28" s="17">
+        <f>G28*H28+I28</f>
+        <v>53</v>
+      </c>
+      <c r="K28" s="14">
+        <f>J28/H28</f>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29">
         <v>10.8</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>20</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J29" s="17">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K29" s="14">
         <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="18"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="14"/>
-    </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
@@ -5511,46 +5774,26 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31">
-        <v>3.8</v>
-      </c>
-      <c r="H31" s="16">
-        <v>10</v>
-      </c>
-      <c r="J31" s="17">
-        <f>G31*H31+I31</f>
-        <v>38</v>
-      </c>
-      <c r="K31" s="14">
-        <f>J31/H31</f>
-        <v>3.8</v>
-      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>118</v>
@@ -5559,212 +5802,226 @@
         <v>119</v>
       </c>
       <c r="G32">
+        <v>3.8</v>
+      </c>
+      <c r="H32" s="16">
+        <v>10</v>
+      </c>
+      <c r="J32" s="17">
+        <f>G32*H32+I32</f>
+        <v>38</v>
+      </c>
+      <c r="K32" s="14">
+        <f>J32/H32</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33">
         <v>5.7</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>10</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J33" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="14">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F34" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>6.8650000000000002</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>120</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>622</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J34" s="17">
         <f t="shared" si="0"/>
         <v>1445.8000000000002</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K34" s="14">
         <f t="shared" si="1"/>
         <v>12.048333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E35" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F35" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G35" s="33">
         <v>5</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H35" s="33">
         <v>20</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="37">
+      <c r="I35" s="33"/>
+      <c r="J35" s="37">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K35" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>249</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F36" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>1.3</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>120</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J36" s="17">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K36" s="14">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="18"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="14"/>
-    </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="18"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" t="s">
+        <v>330</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38">
+        <v>735.99599999999998</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="J38" s="17">
+        <v>7359.96</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="1"/>
+        <v>735.99599999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>269</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F39" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>105.373</v>
       </c>
-      <c r="H37">
+      <c r="H39">
         <v>10</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <v>1021.53</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J39" s="17">
         <f t="shared" si="0"/>
         <v>2075.2600000000002</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K39" s="14">
         <f t="shared" si="1"/>
         <v>207.52600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>305</v>
-      </c>
-      <c r="B38" t="s">
-        <v>313</v>
-      </c>
-      <c r="C38">
-        <v>70</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="18"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>303</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39">
-        <v>72</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="18"/>
-      <c r="G39">
-        <f>4400/750</f>
-        <v>5.8666666666666663</v>
-      </c>
-      <c r="H39">
-        <v>750</v>
-      </c>
-      <c r="J39" s="17">
-        <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="shared" si="1"/>
-        <v>5.8666666666666663</v>
-      </c>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -5774,105 +6031,193 @@
         <v>5.8666666666666663</v>
       </c>
       <c r="H40">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J40" s="17">
-        <f t="shared" si="0"/>
-        <v>4400</v>
+        <f>G40*H40+I40</f>
+        <v>4394.1333333333332</v>
       </c>
       <c r="K40" s="14">
-        <f t="shared" si="1"/>
+        <f>G40*C40</f>
+        <v>410.66666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="18">
+        <v>78</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18">
+        <f>4400/750</f>
         <v>5.8666666666666663</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>310</v>
-      </c>
-      <c r="B41" t="s">
-        <v>314</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="18"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="14"/>
+      <c r="H41" s="18">
+        <v>749</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="17">
+        <f>G41*H41+I41</f>
+        <v>4394.1333333333332</v>
+      </c>
+      <c r="K41" s="14">
+        <f>G41*C41</f>
+        <v>457.59999999999997</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>177</v>
+      </c>
+      <c r="C42">
+        <v>72</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="18"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="14"/>
+      <c r="G42">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="H42">
+        <v>750</v>
+      </c>
+      <c r="J42" s="17">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="K42" s="14">
+        <f>G42*C42</f>
+        <v>422.4</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>304</v>
+      </c>
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="18"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="14"/>
+      <c r="G43">
+        <f>4400/750</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="H43">
+        <v>750</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="K43" s="14">
+        <f>G43*C43</f>
+        <v>246.39999999999998</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="G44">
-        <v>1.4508000000000001</v>
-      </c>
-      <c r="H44">
-        <v>100</v>
-      </c>
-      <c r="J44" s="17">
-        <f t="shared" si="0"/>
-        <v>145.08000000000001</v>
-      </c>
-      <c r="K44" s="14">
-        <f t="shared" si="1"/>
-        <v>1.4508000000000001</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="18"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>231</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="18"/>
-      <c r="G45">
+      <c r="J45" s="17"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="18"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47">
+        <v>1.4508000000000001</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="J47" s="17">
+        <f t="shared" si="0"/>
+        <v>145.08000000000001</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="1"/>
+        <v>1.4508000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="18"/>
+      <c r="G48">
         <v>10</v>
       </c>
-      <c r="H45">
+      <c r="H48">
         <v>1</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J48" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K48" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5899,60 +6244,69 @@
     <hyperlink ref="E9" r:id="rId12" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{435A85C6-92BD-EE4F-BCC5-6ECC323CCCE1}"/>
     <hyperlink ref="E10" r:id="rId13" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{D24DB387-38BE-0441-8C86-56CA642A99CC}"/>
     <hyperlink ref="D10" r:id="rId14" xr:uid="{1EC2DD50-2F13-C547-8A7B-6D18E45735E2}"/>
-    <hyperlink ref="D14" r:id="rId15" xr:uid="{0CE6B7F1-2532-374C-B8E7-B70751DB293A}"/>
-    <hyperlink ref="D31" r:id="rId16" xr:uid="{3BE1772F-32AA-014F-BD92-EC28BF89D7C5}"/>
-    <hyperlink ref="E31" r:id="rId17" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{F5437F92-20A0-8A42-91E8-5663891C31DE}"/>
-    <hyperlink ref="D32" r:id="rId18" xr:uid="{F143C5F1-E8DD-5C4A-BFC5-D18FE65CD80B}"/>
-    <hyperlink ref="E32" r:id="rId19" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{CE819F3E-2D22-AF49-8DFD-F9C0497BC975}"/>
-    <hyperlink ref="D16" r:id="rId20" xr:uid="{88CBD699-0BAD-A948-B9FC-6EA3E9766E12}"/>
-    <hyperlink ref="E16" r:id="rId21" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{9F2E6CD1-AE14-4B41-A4F6-828F2A749663}"/>
-    <hyperlink ref="D17" r:id="rId22" xr:uid="{DEAA96F3-70DD-B342-8C5B-6B1AC7F707C2}"/>
-    <hyperlink ref="E17" r:id="rId23" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{298453DA-2E9A-7D40-BAC4-93094320EFDE}"/>
-    <hyperlink ref="D15" r:id="rId24" xr:uid="{AB9ECC66-AE97-4046-8734-7737017F84A9}"/>
-    <hyperlink ref="E15" r:id="rId25" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{1FDD3A33-4680-4549-B224-10536E4C9FA3}"/>
-    <hyperlink ref="D18" r:id="rId26" xr:uid="{6A1AB352-CB84-104B-B4F1-5F213A1578C4}"/>
-    <hyperlink ref="E18" r:id="rId27" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{B92CFDBC-EAB1-0848-8222-89F0A76D3EE9}"/>
-    <hyperlink ref="D19" r:id="rId28" xr:uid="{AEB129B0-73FC-E048-9062-62C47A635270}"/>
-    <hyperlink ref="E19" r:id="rId29" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{30BAF13B-47C2-9F41-B4C5-E7F086FDF7E7}"/>
-    <hyperlink ref="D27" r:id="rId30" xr:uid="{11A695A0-65BA-EA4C-852D-FFCA1378463A}"/>
-    <hyperlink ref="E27" r:id="rId31" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{04DB7CFB-4C23-AE4B-94FA-E643E17CE4CB}"/>
-    <hyperlink ref="D28" r:id="rId32" xr:uid="{8BB118D4-07C8-C64D-BFF4-15932ED4226F}"/>
-    <hyperlink ref="E28" r:id="rId33" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{F511BC62-3799-4848-B2F0-CDD4E9FA37AD}"/>
-    <hyperlink ref="D26" r:id="rId34" display="12.88009" xr:uid="{2BD631AD-CC51-754C-8181-62649E7549D1}"/>
-    <hyperlink ref="E26" r:id="rId35" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{0A4F56FE-184B-1B47-B164-670A015CB5D1}"/>
-    <hyperlink ref="D20" r:id="rId36" xr:uid="{D4C965F6-14FF-774A-8C8D-5123D99A0D07}"/>
-    <hyperlink ref="E20" r:id="rId37" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{2D5AE6E6-666E-8047-BEF5-9A036531CE83}"/>
-    <hyperlink ref="D21" r:id="rId38" xr:uid="{B97B2B96-ED95-4A41-9AE6-326050C4939A}"/>
-    <hyperlink ref="E21" r:id="rId39" xr:uid="{6AFBC5CC-58E3-0142-91D6-6DD96626AEA8}"/>
-    <hyperlink ref="D25" r:id="rId40" xr:uid="{F38B9E8D-B6DD-1946-B657-F3331AA60E8A}"/>
-    <hyperlink ref="E25" r:id="rId41" xr:uid="{3BC02634-AA67-8A43-A4B6-A7FA4D94BC47}"/>
-    <hyperlink ref="E34" r:id="rId42" xr:uid="{CF32D61E-79D5-5E4C-84D2-593B3360F7AE}"/>
-    <hyperlink ref="D34" r:id="rId43" xr:uid="{7184F710-5B7B-094F-9176-37E23FF911BC}"/>
-    <hyperlink ref="D22" r:id="rId44" xr:uid="{CCCB8A25-E911-D949-A0EF-0D155796EC5B}"/>
-    <hyperlink ref="E22" r:id="rId45" xr:uid="{B9D75311-41D6-D046-8DED-2241912B274E}"/>
-    <hyperlink ref="E33" r:id="rId46" xr:uid="{DE945CFB-E79B-F443-A63B-157531023746}"/>
-    <hyperlink ref="D33" r:id="rId47" xr:uid="{5B82EC96-518D-AA4D-B36A-1B71864ABCEF}"/>
-    <hyperlink ref="E37" r:id="rId48" xr:uid="{1D51B0A7-8685-5647-9EFA-277369FD3ABF}"/>
-    <hyperlink ref="E14" r:id="rId49" xr:uid="{3D394399-3BB6-3540-831C-FA73EFFE5CB6}"/>
-    <hyperlink ref="D23" r:id="rId50" xr:uid="{A38B4B1B-B9B2-F34B-AA75-CEE256B496F3}"/>
-    <hyperlink ref="E23" r:id="rId51" xr:uid="{6AB6DC7A-8EAC-B14F-BD64-4069B6600C1C}"/>
-    <hyperlink ref="D35" r:id="rId52" xr:uid="{F565C3B4-A362-A741-BE33-87CEAB49C437}"/>
-    <hyperlink ref="E35" r:id="rId53" xr:uid="{2E5CA6E3-C325-EB4C-A4FD-E09C23C35E2E}"/>
-    <hyperlink ref="D44" r:id="rId54" xr:uid="{E85661EA-4288-864E-99F8-14443A59494F}"/>
-    <hyperlink ref="E44" r:id="rId55" xr:uid="{9A2D115A-5BA3-E54E-BECA-6E9F3F9B0B84}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{0CE6B7F1-2532-374C-B8E7-B70751DB293A}"/>
+    <hyperlink ref="D32" r:id="rId16" xr:uid="{3BE1772F-32AA-014F-BD92-EC28BF89D7C5}"/>
+    <hyperlink ref="E32" r:id="rId17" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{F5437F92-20A0-8A42-91E8-5663891C31DE}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{F143C5F1-E8DD-5C4A-BFC5-D18FE65CD80B}"/>
+    <hyperlink ref="E33" r:id="rId19" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{CE819F3E-2D22-AF49-8DFD-F9C0497BC975}"/>
+    <hyperlink ref="D17" r:id="rId20" xr:uid="{88CBD699-0BAD-A948-B9FC-6EA3E9766E12}"/>
+    <hyperlink ref="E17" r:id="rId21" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{9F2E6CD1-AE14-4B41-A4F6-828F2A749663}"/>
+    <hyperlink ref="D18" r:id="rId22" xr:uid="{DEAA96F3-70DD-B342-8C5B-6B1AC7F707C2}"/>
+    <hyperlink ref="E18" r:id="rId23" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{298453DA-2E9A-7D40-BAC4-93094320EFDE}"/>
+    <hyperlink ref="D16" r:id="rId24" xr:uid="{AB9ECC66-AE97-4046-8734-7737017F84A9}"/>
+    <hyperlink ref="E16" r:id="rId25" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{1FDD3A33-4680-4549-B224-10536E4C9FA3}"/>
+    <hyperlink ref="D19" r:id="rId26" xr:uid="{6A1AB352-CB84-104B-B4F1-5F213A1578C4}"/>
+    <hyperlink ref="E19" r:id="rId27" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{B92CFDBC-EAB1-0848-8222-89F0A76D3EE9}"/>
+    <hyperlink ref="D20" r:id="rId28" xr:uid="{AEB129B0-73FC-E048-9062-62C47A635270}"/>
+    <hyperlink ref="E20" r:id="rId29" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{30BAF13B-47C2-9F41-B4C5-E7F086FDF7E7}"/>
+    <hyperlink ref="D28" r:id="rId30" xr:uid="{11A695A0-65BA-EA4C-852D-FFCA1378463A}"/>
+    <hyperlink ref="E28" r:id="rId31" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{04DB7CFB-4C23-AE4B-94FA-E643E17CE4CB}"/>
+    <hyperlink ref="D29" r:id="rId32" xr:uid="{8BB118D4-07C8-C64D-BFF4-15932ED4226F}"/>
+    <hyperlink ref="E29" r:id="rId33" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{F511BC62-3799-4848-B2F0-CDD4E9FA37AD}"/>
+    <hyperlink ref="D27" r:id="rId34" display="12.88009" xr:uid="{2BD631AD-CC51-754C-8181-62649E7549D1}"/>
+    <hyperlink ref="E27" r:id="rId35" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{0A4F56FE-184B-1B47-B164-670A015CB5D1}"/>
+    <hyperlink ref="D21" r:id="rId36" xr:uid="{D4C965F6-14FF-774A-8C8D-5123D99A0D07}"/>
+    <hyperlink ref="E21" r:id="rId37" display="https://www.terraelectronica.ru/order/07655639" xr:uid="{2D5AE6E6-666E-8047-BEF5-9A036531CE83}"/>
+    <hyperlink ref="D22" r:id="rId38" xr:uid="{B97B2B96-ED95-4A41-9AE6-326050C4939A}"/>
+    <hyperlink ref="E22" r:id="rId39" xr:uid="{6AFBC5CC-58E3-0142-91D6-6DD96626AEA8}"/>
+    <hyperlink ref="D26" r:id="rId40" xr:uid="{F38B9E8D-B6DD-1946-B657-F3331AA60E8A}"/>
+    <hyperlink ref="E26" r:id="rId41" xr:uid="{3BC02634-AA67-8A43-A4B6-A7FA4D94BC47}"/>
+    <hyperlink ref="E35" r:id="rId42" xr:uid="{CF32D61E-79D5-5E4C-84D2-593B3360F7AE}"/>
+    <hyperlink ref="D35" r:id="rId43" xr:uid="{7184F710-5B7B-094F-9176-37E23FF911BC}"/>
+    <hyperlink ref="D23" r:id="rId44" xr:uid="{CCCB8A25-E911-D949-A0EF-0D155796EC5B}"/>
+    <hyperlink ref="E23" r:id="rId45" xr:uid="{B9D75311-41D6-D046-8DED-2241912B274E}"/>
+    <hyperlink ref="E34" r:id="rId46" xr:uid="{DE945CFB-E79B-F443-A63B-157531023746}"/>
+    <hyperlink ref="D34" r:id="rId47" xr:uid="{5B82EC96-518D-AA4D-B36A-1B71864ABCEF}"/>
+    <hyperlink ref="E39" r:id="rId48" xr:uid="{1D51B0A7-8685-5647-9EFA-277369FD3ABF}"/>
+    <hyperlink ref="E15" r:id="rId49" xr:uid="{3D394399-3BB6-3540-831C-FA73EFFE5CB6}"/>
+    <hyperlink ref="D24" r:id="rId50" xr:uid="{A38B4B1B-B9B2-F34B-AA75-CEE256B496F3}"/>
+    <hyperlink ref="E24" r:id="rId51" xr:uid="{6AB6DC7A-8EAC-B14F-BD64-4069B6600C1C}"/>
+    <hyperlink ref="D36" r:id="rId52" xr:uid="{F565C3B4-A362-A741-BE33-87CEAB49C437}"/>
+    <hyperlink ref="E36" r:id="rId53" xr:uid="{2E5CA6E3-C325-EB4C-A4FD-E09C23C35E2E}"/>
+    <hyperlink ref="D47" r:id="rId54" xr:uid="{E85661EA-4288-864E-99F8-14443A59494F}"/>
+    <hyperlink ref="E47" r:id="rId55" xr:uid="{9A2D115A-5BA3-E54E-BECA-6E9F3F9B0B84}"/>
     <hyperlink ref="E3" location="Orders!E30" display="#07863451" xr:uid="{64A575F0-CC33-2242-8238-2390FBF4E169}"/>
     <hyperlink ref="D3" r:id="rId56" xr:uid="{635A4308-6EC5-7340-97B6-F7CDBAECA0D3}"/>
+    <hyperlink ref="E38" r:id="rId57" xr:uid="{384FEBF5-211B-5641-A585-0873A654BFCF}"/>
+    <hyperlink ref="D11" r:id="rId58" xr:uid="{E8953A94-9CE7-A841-B8AB-9F2C4322BF7E}"/>
+    <hyperlink ref="E11" r:id="rId59" xr:uid="{C536859A-8AD3-6040-9CF8-173D52928272}"/>
+    <hyperlink ref="D13" r:id="rId60" xr:uid="{C5AD9F95-363E-D74A-BD98-1AACFB5F28DA}"/>
+    <hyperlink ref="E13" r:id="rId61" xr:uid="{6A2674BA-B197-7746-9DA5-DCDFD1378159}"/>
+    <hyperlink ref="D12" r:id="rId62" xr:uid="{8110B14E-31F2-5E48-9527-2E883FDDC337}"/>
+    <hyperlink ref="E12" r:id="rId63" xr:uid="{8B3D9312-F506-7942-B6A3-1AD135F5AFC0}"/>
+    <hyperlink ref="D14" r:id="rId64" xr:uid="{BE65CB9E-F278-1149-BDF1-F4F2D5186087}"/>
+    <hyperlink ref="E14" r:id="rId65" xr:uid="{2C9050D8-DF13-6244-A3A4-5FE8F3F6D687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7D9B-E6AB-C34D-8839-A6582ADEF526}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6002,7 +6356,7 @@
       <c r="C2" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="38">
         <v>44300</v>
       </c>
       <c r="E2" t="s">
@@ -6016,7 +6370,7 @@
         <v>729.22</v>
       </c>
       <c r="H2">
-        <f>F2+G2</f>
+        <f t="shared" ref="H2:H27" si="0">F2+G2</f>
         <v>1486.46</v>
       </c>
       <c r="I2">
@@ -6034,7 +6388,7 @@
       <c r="C3" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="38">
         <v>44304</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -6047,11 +6401,11 @@
         <v>785.44</v>
       </c>
       <c r="H3">
-        <f>F3+G3</f>
+        <f t="shared" si="0"/>
         <v>1523.02</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I34" si="0">H3/B3</f>
+        <f t="shared" ref="I3:I34" si="1">H3/B3</f>
         <v>15.2302</v>
       </c>
     </row>
@@ -6065,7 +6419,7 @@
       <c r="C4" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="38">
         <v>44321</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -6078,11 +6432,11 @@
         <v>317.52999999999997</v>
       </c>
       <c r="H4">
-        <f>F4+G4</f>
+        <f t="shared" si="0"/>
         <v>1063.06</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>212.61199999999999</v>
       </c>
     </row>
@@ -6096,7 +6450,7 @@
       <c r="C5" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="38">
         <v>44359</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -6109,11 +6463,11 @@
         <v>300.49</v>
       </c>
       <c r="H5">
-        <f>F5+G5</f>
+        <f t="shared" si="0"/>
         <v>494.4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.44</v>
       </c>
     </row>
@@ -6124,7 +6478,7 @@
       <c r="C6" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="38">
         <v>44378</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -6137,7 +6491,7 @@
         <v>236</v>
       </c>
       <c r="H6">
-        <f>F6+G6</f>
+        <f t="shared" si="0"/>
         <v>2319.33</v>
       </c>
     </row>
@@ -6148,7 +6502,7 @@
       <c r="C7" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="38">
         <v>44378</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -6162,7 +6516,7 @@
         <v>138</v>
       </c>
       <c r="H7">
-        <f>F7+G7</f>
+        <f t="shared" si="0"/>
         <v>665</v>
       </c>
     </row>
@@ -6176,7 +6530,7 @@
       <c r="C8" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="38">
         <v>44406</v>
       </c>
       <c r="E8" t="s">
@@ -6189,11 +6543,11 @@
         <v>1021.53</v>
       </c>
       <c r="H8">
-        <f>F8+G8</f>
+        <f t="shared" si="0"/>
         <v>2075.2600000000002</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>207.52600000000001</v>
       </c>
     </row>
@@ -6204,7 +6558,7 @@
       <c r="C9" t="s">
         <v>276</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="38">
         <v>44406</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -6218,7 +6572,7 @@
         <v>138</v>
       </c>
       <c r="H9">
-        <f>F9+G9</f>
+        <f t="shared" si="0"/>
         <v>10048</v>
       </c>
     </row>
@@ -6232,7 +6586,7 @@
       <c r="C10" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="38">
         <v>44411</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -6242,11 +6596,11 @@
         <v>145.08000000000001</v>
       </c>
       <c r="H10">
-        <f>F10+G10</f>
+        <f t="shared" si="0"/>
         <v>145.08000000000001</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4508000000000001</v>
       </c>
     </row>
@@ -6257,7 +6611,7 @@
       <c r="C11" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="38">
         <v>44491</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -6270,7 +6624,7 @@
         <v>297</v>
       </c>
       <c r="H11">
-        <f>F11+G11</f>
+        <f t="shared" si="0"/>
         <v>2059.6999999999998</v>
       </c>
     </row>
@@ -6281,7 +6635,7 @@
       <c r="C12" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="38">
         <v>44492</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -6295,7 +6649,7 @@
         <v>253</v>
       </c>
       <c r="H12">
-        <f>F12+G12</f>
+        <f t="shared" si="0"/>
         <v>1488.3</v>
       </c>
     </row>
@@ -6309,7 +6663,7 @@
       <c r="C13" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="38">
         <v>44503</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -6322,11 +6676,11 @@
         <v>622.29999999999995</v>
       </c>
       <c r="H13">
-        <f>F13+G13</f>
+        <f t="shared" si="0"/>
         <v>1446.12</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.050999999999998</v>
       </c>
     </row>
@@ -6341,7 +6695,7 @@
       <c r="C14" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="38">
         <v>44526</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -6354,11 +6708,11 @@
         <v>196.54</v>
       </c>
       <c r="H14">
-        <f>F14+G14</f>
+        <f t="shared" si="0"/>
         <v>1380.42</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.007000000000001</v>
       </c>
     </row>
@@ -6369,7 +6723,7 @@
       <c r="C15" t="s">
         <v>262</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="38">
         <v>44529</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -6382,7 +6736,7 @@
         <v>236</v>
       </c>
       <c r="H15">
-        <f>F15+G15</f>
+        <f t="shared" si="0"/>
         <v>1371.4</v>
       </c>
     </row>
@@ -6396,7 +6750,7 @@
       <c r="C16" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="38">
         <v>44575</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -6406,15 +6760,15 @@
         <v>164.34</v>
       </c>
       <c r="H16">
-        <f>F16+G16</f>
+        <f t="shared" si="0"/>
         <v>164.34</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2867999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>273</v>
       </c>
@@ -6424,7 +6778,7 @@
       <c r="C17" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="38">
         <v>44575</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -6434,15 +6788,15 @@
         <v>318</v>
       </c>
       <c r="H17">
-        <f>F17+G17</f>
+        <f t="shared" si="0"/>
         <v>318</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -6452,7 +6806,7 @@
       <c r="C18" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="38">
         <v>44593</v>
       </c>
       <c r="E18" t="s">
@@ -6465,15 +6819,15 @@
         <v>549.17999999999995</v>
       </c>
       <c r="H18">
-        <f>F18+G18</f>
+        <f t="shared" si="0"/>
         <v>936.47</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.647000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -6483,7 +6837,7 @@
       <c r="C19" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="38">
         <v>44593</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -6496,19 +6850,19 @@
         <v>590.29999999999995</v>
       </c>
       <c r="H19">
-        <f>F19+G19</f>
+        <f t="shared" si="0"/>
         <v>1387.4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.874000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="38">
         <v>44594</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -6521,15 +6875,15 @@
         <v>236</v>
       </c>
       <c r="H20">
-        <f>F20+G20</f>
+        <f t="shared" si="0"/>
         <v>741.44</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="38">
         <v>44617</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -6542,12 +6896,12 @@
         <v>236</v>
       </c>
       <c r="H21">
-        <f>F21+G21</f>
+        <f t="shared" si="0"/>
         <v>741.92000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
         <v>277</v>
       </c>
       <c r="B22">
@@ -6556,10 +6910,10 @@
       <c r="C22" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="38">
         <v>44625</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="40" t="s">
         <v>278</v>
       </c>
       <c r="F22">
@@ -6569,17 +6923,17 @@
         <v>99.52</v>
       </c>
       <c r="H22">
-        <f>F22+G22</f>
+        <f t="shared" si="0"/>
         <v>454.56</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.728000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -6587,57 +6941,64 @@
       <c r="C23" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="38">
         <v>44630</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="40" t="s">
         <v>294</v>
       </c>
       <c r="F23">
         <v>4919.67</v>
       </c>
       <c r="H23">
-        <f>F23+G23</f>
+        <f t="shared" si="0"/>
         <v>4919.67</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>491.96699999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="33">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="33" t="s">
         <v>261</v>
       </c>
       <c r="D24" s="46">
         <v>44630</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="33">
         <v>13640.01</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="33">
         <v>2122.15</v>
       </c>
-      <c r="H24">
-        <f>F24+G24</f>
+      <c r="H24" s="33">
+        <f t="shared" si="0"/>
         <v>15762.16</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
+      <c r="I24" s="33">
+        <f t="shared" si="1"/>
         <v>1576.2159999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+      <c r="J24">
+        <f>-H24</f>
+        <v>-15762.16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
         <v>172</v>
       </c>
       <c r="B25">
@@ -6646,10 +7007,10 @@
       <c r="C25" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="38">
         <v>44634</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="40" t="s">
         <v>279</v>
       </c>
       <c r="F25">
@@ -6659,15 +7020,15 @@
         <v>1711.62</v>
       </c>
       <c r="H25">
-        <f>F25+G25</f>
+        <f t="shared" si="0"/>
         <v>8316.43</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.721433333333334</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>246</v>
       </c>
@@ -6677,10 +7038,10 @@
       <c r="C26" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="38">
         <v>44634</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="40" t="s">
         <v>290</v>
       </c>
       <c r="F26">
@@ -6690,33 +7051,33 @@
         <v>549.57000000000005</v>
       </c>
       <c r="H26">
-        <f>F26+G26</f>
+        <f t="shared" si="0"/>
         <v>4505.83</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.058300000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="38">
         <v>44641</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="42" t="s">
         <v>280</v>
       </c>
       <c r="F27">
         <v>651</v>
       </c>
       <c r="H27">
-        <f>F27+G27</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>296</v>
       </c>
@@ -6726,47 +7087,47 @@
       <c r="C28" t="s">
         <v>281</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="38">
         <v>44642</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="42" t="s">
         <v>282</v>
       </c>
       <c r="H28">
         <v>7624.08</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>381.20400000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
       <c r="C29" t="s">
         <v>276</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="38">
         <v>44642</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="42" t="s">
         <v>283</v>
       </c>
       <c r="F29">
         <v>4430</v>
       </c>
       <c r="H29">
-        <f>F29+G29</f>
+        <f t="shared" ref="H29:H39" si="2">F29+G29</f>
         <v>4430</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>262</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="38">
         <v>44642</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="40" t="s">
         <v>284</v>
       </c>
       <c r="F30">
@@ -6776,12 +7137,12 @@
         <v>236</v>
       </c>
       <c r="H30">
-        <f>F30+G30</f>
+        <f t="shared" si="2"/>
         <v>11014.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
       <c r="B31">
@@ -6790,25 +7151,25 @@
       <c r="C31" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="38">
         <v>44642</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="44" t="s">
         <v>285</v>
       </c>
       <c r="F31">
         <v>2030</v>
       </c>
       <c r="H31">
-        <f>F31+G31</f>
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -6818,10 +7179,10 @@
       <c r="C32" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="38">
         <v>44642</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="45" t="s">
         <v>286</v>
       </c>
       <c r="F32">
@@ -6831,15 +7192,15 @@
         <v>245.58</v>
       </c>
       <c r="H32">
-        <f>F32+G32</f>
+        <f t="shared" si="2"/>
         <v>828.21</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.803500000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -6849,10 +7210,10 @@
       <c r="C33" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="38">
         <v>44642</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="45" t="s">
         <v>287</v>
       </c>
       <c r="F33">
@@ -6862,15 +7223,15 @@
         <v>92.72</v>
       </c>
       <c r="H33">
-        <f>F33+G33</f>
+        <f t="shared" si="2"/>
         <v>612.70000000000005</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1270000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>289</v>
       </c>
@@ -6880,10 +7241,10 @@
       <c r="C34" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="38">
         <v>44642</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="45" t="s">
         <v>288</v>
       </c>
       <c r="F34">
@@ -6893,15 +7254,15 @@
         <v>127.8</v>
       </c>
       <c r="H34">
-        <f>F34+G34</f>
+        <f t="shared" si="2"/>
         <v>545.04</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.167999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -6911,10 +7272,10 @@
       <c r="C35" t="s">
         <v>261</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="38">
         <v>44642</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="45" t="s">
         <v>297</v>
       </c>
       <c r="F35">
@@ -6924,15 +7285,15 @@
         <v>527.5</v>
       </c>
       <c r="H35">
-        <f>F35+G35</f>
+        <f t="shared" si="2"/>
         <v>855.78</v>
       </c>
       <c r="I35">
-        <f>H35/B35</f>
+        <f t="shared" ref="I35:I42" si="3">H35/B35</f>
         <v>85.578000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>273</v>
       </c>
@@ -6942,25 +7303,25 @@
       <c r="C36" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="38">
         <v>44643</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="45" t="s">
         <v>299</v>
       </c>
       <c r="F36">
         <v>620</v>
       </c>
       <c r="H36">
-        <f>F36+G36</f>
+        <f t="shared" si="2"/>
         <v>620</v>
       </c>
       <c r="I36">
-        <f>H36/B36</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>271</v>
       </c>
@@ -6970,39 +7331,486 @@
       <c r="C37" t="s">
         <v>261</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="38">
         <v>44643</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="45" t="s">
         <v>300</v>
       </c>
       <c r="F37">
         <v>257.10000000000002</v>
       </c>
       <c r="H37">
-        <f>F37+G37</f>
+        <f t="shared" si="2"/>
         <v>257.10000000000002</v>
       </c>
       <c r="I37">
-        <f>H37/B37</f>
+        <f t="shared" si="3"/>
         <v>5.1420000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="66">
+        <v>10</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="67">
+        <v>44644</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" s="66">
+        <v>13213.8</v>
+      </c>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66">
+        <f t="shared" si="2"/>
+        <v>13213.8</v>
+      </c>
+      <c r="I38" s="66">
+        <f t="shared" si="3"/>
+        <v>1321.3799999999999</v>
+      </c>
+      <c r="J38">
+        <f>-H38+770</f>
+        <v>-12443.8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39" s="66">
+        <v>10</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="67">
+        <v>44662</v>
+      </c>
+      <c r="E39" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" s="66">
+        <v>4661.75</v>
+      </c>
+      <c r="G39" s="66">
+        <v>272.58</v>
+      </c>
+      <c r="H39" s="66">
+        <f t="shared" si="2"/>
+        <v>4934.33</v>
+      </c>
+      <c r="I39" s="66">
+        <f t="shared" si="3"/>
+        <v>493.43299999999999</v>
+      </c>
+      <c r="J39">
+        <f>-H39+770</f>
+        <v>-4164.33</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" s="66">
+        <v>10</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="67">
+        <v>44663</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="66">
+        <v>13767.37</v>
+      </c>
+      <c r="G40" s="66">
+        <v>550.92999999999995</v>
+      </c>
+      <c r="H40" s="66">
+        <f t="shared" ref="H40" si="4">F40+G40</f>
+        <v>14318.300000000001</v>
+      </c>
+      <c r="I40" s="66">
+        <f t="shared" si="3"/>
+        <v>1431.8300000000002</v>
+      </c>
+      <c r="J40">
+        <f>-H40+770</f>
+        <v>-13548.300000000001</v>
+      </c>
+      <c r="K40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="60">
+        <v>1</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="61">
+        <v>44671</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="60">
+        <v>1650</v>
+      </c>
+      <c r="G41" s="60">
+        <v>182.11</v>
+      </c>
+      <c r="H41" s="60">
+        <f t="shared" ref="H41:H42" si="5">F41+G41</f>
+        <v>1832.1100000000001</v>
+      </c>
+      <c r="I41" s="60">
+        <f t="shared" si="3"/>
+        <v>1832.1100000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" s="66">
+        <v>10</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" s="70">
+        <v>44671</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="66">
+        <v>18366.189999999999</v>
+      </c>
+      <c r="G42" s="66">
+        <v>294.77999999999997</v>
+      </c>
+      <c r="H42" s="66">
+        <f t="shared" si="5"/>
+        <v>18660.969999999998</v>
+      </c>
+      <c r="I42" s="66">
+        <f t="shared" si="3"/>
+        <v>1866.0969999999998</v>
+      </c>
+      <c r="J42" s="49">
+        <f>-H42+770</f>
+        <v>-17890.969999999998</v>
+      </c>
+      <c r="K42" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" s="66">
+        <v>10</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="70">
+        <v>44674</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" s="66">
+        <v>4030.66</v>
+      </c>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66">
+        <f t="shared" ref="H43:H46" si="6">F43+G43</f>
+        <v>4030.66</v>
+      </c>
+      <c r="I43" s="66">
+        <f t="shared" ref="I43:I46" si="7">H43/B43</f>
+        <v>403.06599999999997</v>
+      </c>
+      <c r="J43" s="49">
+        <f>-H43-770</f>
+        <v>-4800.66</v>
+      </c>
+      <c r="K43" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="66">
+        <v>10</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="70">
+        <v>44674</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" s="66">
+        <v>4335.96</v>
+      </c>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66">
+        <f t="shared" si="6"/>
+        <v>4335.96</v>
+      </c>
+      <c r="I44" s="66">
+        <f t="shared" si="7"/>
+        <v>433.596</v>
+      </c>
+      <c r="J44" s="49">
+        <f>-H44+770</f>
+        <v>-3565.96</v>
+      </c>
+      <c r="K44" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="60">
+        <v>10</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" s="61">
+        <v>44680</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="F45" s="60">
+        <v>22401.48</v>
+      </c>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60">
+        <f t="shared" si="6"/>
+        <v>22401.48</v>
+      </c>
+      <c r="I45" s="60">
+        <f t="shared" si="7"/>
+        <v>2240.1480000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="66">
+        <v>10</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="67">
+        <v>44692</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" s="66">
+        <v>9818.06</v>
+      </c>
+      <c r="G46" s="66">
+        <v>256.16000000000003</v>
+      </c>
+      <c r="H46" s="66">
+        <f t="shared" si="6"/>
+        <v>10074.219999999999</v>
+      </c>
+      <c r="I46" s="66">
+        <f t="shared" si="7"/>
+        <v>1007.4219999999999</v>
+      </c>
+      <c r="J46" s="49">
+        <f>-H46+770</f>
+        <v>-9304.2199999999993</v>
+      </c>
+      <c r="K46" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="63">
+        <v>10</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" s="64">
+        <v>44704</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="63">
+        <v>8969.2999999999993</v>
+      </c>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63">
+        <f t="shared" ref="H47:H49" si="8">F47+G47</f>
+        <v>8969.2999999999993</v>
+      </c>
+      <c r="I47" s="63">
+        <f t="shared" ref="I47:I49" si="9">H47/B47</f>
+        <v>896.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="33">
+        <v>10</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="46">
+        <v>44711</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" s="33">
+        <v>24409.15</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33">
+        <f t="shared" si="8"/>
+        <v>24409.15</v>
+      </c>
+      <c r="I48" s="33">
+        <f t="shared" si="9"/>
+        <v>2440.915</v>
+      </c>
+      <c r="K48" s="49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="49">
+        <v>200</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="50">
+        <v>44748</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="F49" s="49">
+        <v>2760</v>
+      </c>
+      <c r="H49" s="49">
+        <f t="shared" si="8"/>
+        <v>2760</v>
+      </c>
+      <c r="I49" s="49">
+        <f t="shared" si="9"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="49">
+        <v>10</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="50">
+        <v>44751</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50" s="49">
+        <v>9280.43</v>
+      </c>
+      <c r="H50" s="49">
+        <f t="shared" ref="H50" si="10">F50+G50</f>
+        <v>9280.43</v>
+      </c>
+      <c r="I50" s="49">
+        <f t="shared" ref="I50" si="11">H50/B50</f>
+        <v>928.04300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>263</v>
       </c>
-      <c r="F38">
-        <f>SUM(F2:F37)</f>
-        <v>75063.010000000009</v>
-      </c>
-      <c r="G38">
-        <f>SUM(G2:G37)</f>
-        <v>12594.989999999998</v>
-      </c>
-      <c r="H38">
-        <f>SUM(H2:H37)</f>
-        <v>95282.08</v>
+      <c r="F51">
+        <f>SUM(F2:F50)</f>
+        <v>212727.16</v>
+      </c>
+      <c r="G51">
+        <f>SUM(G2:G50)</f>
+        <v>14151.55</v>
+      </c>
+      <c r="H51">
+        <f>SUM(H2:H50)</f>
+        <v>234502.78999999998</v>
+      </c>
+      <c r="J51">
+        <f>SUM(J2:J50)</f>
+        <v>-81480.400000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <f>H51+J51</f>
+        <v>153022.38999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7043,6 +7851,19 @@
     <hyperlink ref="E35" r:id="rId31" xr:uid="{E7E16D6B-C09B-834D-B286-E345420E8B6D}"/>
     <hyperlink ref="E36" r:id="rId32" xr:uid="{4A29119F-690E-0D4B-89D9-5E112B6AE31D}"/>
     <hyperlink ref="E37" r:id="rId33" xr:uid="{9FBA82F0-0E1D-BF41-A2E2-41CFFE4B9323}"/>
+    <hyperlink ref="E38" r:id="rId34" xr:uid="{65A0962B-DC50-9540-951B-1D37B29EB711}"/>
+    <hyperlink ref="E39" r:id="rId35" xr:uid="{8361E872-121E-E148-BB98-F0066EC99CDD}"/>
+    <hyperlink ref="E40" r:id="rId36" xr:uid="{DD7021BC-45AC-4B4F-8CCA-F08000300BF4}"/>
+    <hyperlink ref="E41" r:id="rId37" xr:uid="{0F3E8F15-FBEB-8842-8215-37CDFC69AB7E}"/>
+    <hyperlink ref="E42" r:id="rId38" xr:uid="{10CEE9C2-82A8-CC45-A6A6-14F7DCC64693}"/>
+    <hyperlink ref="E43" r:id="rId39" xr:uid="{E96D7D03-BF96-8043-90DB-4EF74E716DB1}"/>
+    <hyperlink ref="E44" r:id="rId40" xr:uid="{ADC76D0D-C188-FE4F-86CE-83F8D97A4D8C}"/>
+    <hyperlink ref="E45" r:id="rId41" xr:uid="{BD115EF7-E3D1-664C-9A30-FEAB2B25F848}"/>
+    <hyperlink ref="E46" r:id="rId42" xr:uid="{CF94E7B7-C366-4D4E-8229-38BDE9F03BF4}"/>
+    <hyperlink ref="E47" r:id="rId43" xr:uid="{95A1C08F-9023-F84D-B65C-7BF626881F4F}"/>
+    <hyperlink ref="E48" r:id="rId44" xr:uid="{77705E35-546E-9743-8D8D-38E420644673}"/>
+    <hyperlink ref="E49" r:id="rId45" xr:uid="{9EE574D3-89CC-694A-B221-53984F4A157F}"/>
+    <hyperlink ref="E50" r:id="rId46" xr:uid="{2554BA5E-1FF4-2D4C-8D5C-E3A4C0AFFEC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E58A64-940B-FA49-9CCE-B1C2EA945314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74941B7D-4E2F-6A45-B1AF-02A74BEB1EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1420" windowWidth="26340" windowHeight="15540" activeTab="4" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
+    <workbookView xWindow="1540" yWindow="700" windowWidth="26340" windowHeight="15540" activeTab="4" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="x4" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="350">
   <si>
     <t>id</t>
   </si>
@@ -1048,10 +1048,37 @@
     <t>06.07.2022</t>
   </si>
   <si>
-    <t>to refund</t>
-  </si>
-  <si>
     <t>#5030342772832510</t>
+  </si>
+  <si>
+    <t>#5057226072832510</t>
+  </si>
+  <si>
+    <t>PCB router x7</t>
+  </si>
+  <si>
+    <t>PCB router x4 flat</t>
+  </si>
+  <si>
+    <t>#Y40-2346369A</t>
+  </si>
+  <si>
+    <t>#5060650260982510</t>
+  </si>
+  <si>
+    <t>FormaX</t>
+  </si>
+  <si>
+    <t>ozon.ru</t>
+  </si>
+  <si>
+    <t>#02701602-0049</t>
+  </si>
+  <si>
+    <t>#5053451821602510</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1089,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _R_U_B"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1197,8 +1224,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,6 +1254,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1385,10 +1431,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1411,17 +1467,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1756,41 +1812,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1820,22 +1876,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -2524,22 +2580,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -3301,7 +3357,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3315,41 +3371,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4799,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14144EDC-C784-C04C-803C-AF6946535824}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4813,32 +4869,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="65" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6052,8 +6108,8 @@
       <c r="C41" s="18">
         <v>78</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18">
         <f>4400/750</f>
@@ -6303,10 +6359,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7D9B-E6AB-C34D-8839-A6582ADEF526}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6353,7 +6409,7 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="72" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="38">
@@ -6385,7 +6441,7 @@
       <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D3" s="38">
@@ -6416,7 +6472,7 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="38">
@@ -6447,7 +6503,7 @@
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D5" s="38">
@@ -6527,7 +6583,7 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="72" t="s">
         <v>258</v>
       </c>
       <c r="D8" s="38">
@@ -6583,7 +6639,7 @@
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D10" s="38">
@@ -6660,7 +6716,7 @@
       <c r="B13">
         <v>120</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D13" s="38">
@@ -6692,7 +6748,7 @@
         <f>12*5</f>
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D14" s="38">
@@ -6747,7 +6803,7 @@
       <c r="B16">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D16" s="38">
@@ -6775,7 +6831,7 @@
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D17" s="38">
@@ -6803,7 +6859,7 @@
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="72" t="s">
         <v>258</v>
       </c>
       <c r="D18" s="38">
@@ -6834,7 +6890,7 @@
       <c r="B19">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D19" s="38">
@@ -6907,7 +6963,7 @@
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D22" s="38">
@@ -6938,7 +6994,7 @@
       <c r="B23">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D23" s="38">
@@ -6966,7 +7022,7 @@
       <c r="B24" s="33">
         <v>10</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="75" t="s">
         <v>261</v>
       </c>
       <c r="D24" s="46">
@@ -7004,7 +7060,7 @@
       <c r="B25">
         <v>300</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D25" s="38">
@@ -7035,7 +7091,7 @@
       <c r="B26">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D26" s="38">
@@ -7084,7 +7140,7 @@
       <c r="B28">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>281</v>
       </c>
       <c r="D28" s="38">
@@ -7176,7 +7232,7 @@
       <c r="B32">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D32" s="38">
@@ -7207,7 +7263,7 @@
       <c r="B33">
         <v>100</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D33" s="38">
@@ -7238,7 +7294,7 @@
       <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D34" s="38">
@@ -7269,7 +7325,7 @@
       <c r="B35">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D35" s="38">
@@ -7300,7 +7356,7 @@
       <c r="B36">
         <v>20</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D36" s="38">
@@ -7328,7 +7384,7 @@
       <c r="B37">
         <v>50</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D37" s="38">
@@ -7350,30 +7406,30 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="66">
+      <c r="B38" s="57">
         <v>10</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="58">
         <v>44644</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="57">
         <v>13213.8</v>
       </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66">
+      <c r="G38" s="57"/>
+      <c r="H38" s="57">
         <f t="shared" si="2"/>
         <v>13213.8</v>
       </c>
-      <c r="I38" s="66">
+      <c r="I38" s="57">
         <f t="shared" si="3"/>
         <v>1321.3799999999999</v>
       </c>
@@ -7386,32 +7442,32 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="B39" s="66">
+      <c r="B39" s="57">
         <v>10</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="58">
         <v>44662</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="57">
         <v>4661.75</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="57">
         <v>272.58</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="57">
         <f t="shared" si="2"/>
         <v>4934.33</v>
       </c>
-      <c r="I39" s="66">
+      <c r="I39" s="57">
         <f t="shared" si="3"/>
         <v>493.43299999999999</v>
       </c>
@@ -7424,32 +7480,32 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="B40" s="66">
+      <c r="B40" s="57">
         <v>10</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="58">
         <v>44663</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="57">
         <v>13767.37</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="57">
         <v>550.92999999999995</v>
       </c>
-      <c r="H40" s="66">
+      <c r="H40" s="57">
         <f t="shared" ref="H40" si="4">F40+G40</f>
         <v>14318.300000000001</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="57">
         <f t="shared" si="3"/>
         <v>1431.8300000000002</v>
       </c>
@@ -7461,356 +7517,542 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+    <row r="41" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="51">
         <v>1</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="52">
         <v>44671</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="51">
         <v>1650</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="51">
         <v>182.11</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="51">
         <f t="shared" ref="H41:H42" si="5">F41+G41</f>
         <v>1832.1100000000001</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="51">
         <f t="shared" si="3"/>
         <v>1832.1100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="s">
+    <row r="42" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="66">
+      <c r="B42" s="57">
         <v>10</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="61">
         <v>44671</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="57">
         <v>18366.189999999999</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="57">
         <v>294.77999999999997</v>
       </c>
-      <c r="H42" s="66">
+      <c r="H42" s="57">
         <f t="shared" si="5"/>
         <v>18660.969999999998</v>
       </c>
-      <c r="I42" s="66">
+      <c r="I42" s="57">
         <f t="shared" si="3"/>
         <v>1866.0969999999998</v>
       </c>
-      <c r="J42" s="49">
+      <c r="J42" s="48">
         <f>-H42+770</f>
         <v>-17890.969999999998</v>
       </c>
-      <c r="K42" s="49" t="s">
+      <c r="K42" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="s">
+    <row r="43" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="B43" s="66">
+      <c r="B43" s="57">
         <v>10</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="61">
         <v>44674</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="57">
         <v>4030.66</v>
       </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66">
+      <c r="G43" s="57"/>
+      <c r="H43" s="57">
         <f t="shared" ref="H43:H46" si="6">F43+G43</f>
         <v>4030.66</v>
       </c>
-      <c r="I43" s="66">
+      <c r="I43" s="57">
         <f t="shared" ref="I43:I46" si="7">H43/B43</f>
         <v>403.06599999999997</v>
       </c>
-      <c r="J43" s="49">
+      <c r="J43" s="48">
         <f>-H43-770</f>
         <v>-4800.66</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
+    <row r="44" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="66">
+      <c r="B44" s="57">
         <v>10</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="61">
         <v>44674</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="57">
         <v>4335.96</v>
       </c>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66">
+      <c r="G44" s="57"/>
+      <c r="H44" s="57">
         <f t="shared" si="6"/>
         <v>4335.96</v>
       </c>
-      <c r="I44" s="66">
+      <c r="I44" s="57">
         <f t="shared" si="7"/>
         <v>433.596</v>
       </c>
-      <c r="J44" s="49">
+      <c r="J44" s="48">
         <f>-H44+770</f>
         <v>-3565.96</v>
       </c>
-      <c r="K44" s="49" t="s">
+      <c r="K44" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
+    <row r="45" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="51">
         <v>10</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="52">
         <v>44680</v>
       </c>
-      <c r="E45" s="62" t="s">
+      <c r="E45" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="51">
         <v>22401.48</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60">
+      <c r="G45" s="51"/>
+      <c r="H45" s="51">
         <f t="shared" si="6"/>
         <v>22401.48</v>
       </c>
-      <c r="I45" s="60">
+      <c r="I45" s="51">
         <f t="shared" si="7"/>
         <v>2240.1480000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="66" t="s">
+    <row r="46" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="B46" s="66">
+      <c r="B46" s="57">
         <v>10</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="58">
         <v>44692</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="66">
+      <c r="F46" s="57">
         <v>9818.06</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="57">
         <v>256.16000000000003</v>
       </c>
-      <c r="H46" s="66">
+      <c r="H46" s="57">
         <f t="shared" si="6"/>
         <v>10074.219999999999</v>
       </c>
-      <c r="I46" s="66">
+      <c r="I46" s="57">
         <f t="shared" si="7"/>
         <v>1007.4219999999999</v>
       </c>
-      <c r="J46" s="49">
+      <c r="J46" s="48">
         <f>-H46+770</f>
         <v>-9304.2199999999993</v>
       </c>
-      <c r="K46" s="49" t="s">
+      <c r="K46" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63" t="s">
+    <row r="47" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="54">
         <v>10</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="55">
         <v>44704</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="54">
         <v>8969.2999999999993</v>
       </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63">
+      <c r="G47" s="54"/>
+      <c r="H47" s="54">
         <f t="shared" ref="H47:H49" si="8">F47+G47</f>
         <v>8969.2999999999993</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="54">
         <f t="shared" ref="I47:I49" si="9">H47/B47</f>
         <v>896.93</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+    <row r="48" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="57">
         <v>10</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="58">
         <v>44711</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="F48" s="33">
+      <c r="F48" s="57">
         <v>24409.15</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33">
+      <c r="G48" s="57"/>
+      <c r="H48" s="57">
         <f t="shared" si="8"/>
         <v>24409.15</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="57">
         <f t="shared" si="9"/>
         <v>2440.915</v>
       </c>
-      <c r="K48" s="49" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
+      <c r="J48" s="48">
+        <v>-24409.15</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="48">
         <v>200</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="49">
         <v>44748</v>
       </c>
       <c r="E49" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="48">
         <v>2760</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="48">
         <f t="shared" si="8"/>
         <v>2760</v>
       </c>
-      <c r="I49" s="49">
+      <c r="I49" s="48">
         <f t="shared" si="9"/>
         <v>13.8</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
+    <row r="50" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="54">
         <v>10</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="55">
         <v>44751</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="F50" s="54">
+        <v>9280.43</v>
+      </c>
+      <c r="H50" s="54">
+        <f t="shared" ref="H50:H51" si="10">F50+G50</f>
+        <v>9280.43</v>
+      </c>
+      <c r="I50" s="54">
+        <f t="shared" ref="I50:I51" si="11">H50/B50</f>
+        <v>928.04300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="B51" s="70">
+        <v>10</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="71">
+        <v>44771</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="70">
+        <v>894.11</v>
+      </c>
+      <c r="G51" s="70">
+        <v>564.54</v>
+      </c>
+      <c r="H51" s="48">
+        <f t="shared" si="10"/>
+        <v>1458.65</v>
+      </c>
+      <c r="I51" s="48">
+        <f t="shared" si="11"/>
+        <v>145.86500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="38">
+        <v>44796</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F52">
+        <v>632.07000000000005</v>
+      </c>
+      <c r="G52">
+        <v>566.91999999999996</v>
+      </c>
+      <c r="H52" s="48">
+        <f t="shared" ref="H52" si="12">F52+G52</f>
+        <v>1198.99</v>
+      </c>
+      <c r="I52" s="48">
+        <f t="shared" ref="I52" si="13">H52/B52</f>
+        <v>11.9899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="38">
+        <v>44802</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F53">
+        <v>313.3</v>
+      </c>
+      <c r="G53">
+        <v>452.48</v>
+      </c>
+      <c r="H53" s="48">
+        <f>F53+G53</f>
+        <v>765.78</v>
+      </c>
+      <c r="I53" s="48">
+        <f>H53/B53</f>
+        <v>76.578000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54" s="48">
+        <v>10</v>
+      </c>
+      <c r="C54" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="49">
+        <v>44803</v>
+      </c>
+      <c r="E54" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="F50" s="49">
-        <v>9280.43</v>
-      </c>
-      <c r="H50" s="49">
-        <f t="shared" ref="H50" si="10">F50+G50</f>
-        <v>9280.43</v>
-      </c>
-      <c r="I50" s="49">
-        <f t="shared" ref="I50" si="11">H50/B50</f>
-        <v>928.04300000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="F54" s="48">
+        <v>35737.5</v>
+      </c>
+      <c r="H54" s="48">
+        <f>F54+G54</f>
+        <v>35737.5</v>
+      </c>
+      <c r="I54" s="48">
+        <f>H54/B54</f>
+        <v>3573.75</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55">
+        <v>750</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="D55" s="38">
+        <v>44804</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F55">
+        <v>5292</v>
+      </c>
+      <c r="H55" s="48">
+        <f>F55+G55</f>
+        <v>5292</v>
+      </c>
+      <c r="I55" s="48">
+        <f>H55/B55</f>
+        <v>7.056</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56" s="38">
+        <v>44808</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F56">
+        <v>1607.3</v>
+      </c>
+      <c r="G56">
+        <v>291.37</v>
+      </c>
+      <c r="H56" s="48">
+        <f>F56+G56</f>
+        <v>1898.67</v>
+      </c>
+      <c r="I56" s="48">
+        <f>H56/B56</f>
+        <v>18.986699999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>263</v>
       </c>
-      <c r="F51">
-        <f>SUM(F2:F50)</f>
-        <v>212727.16</v>
-      </c>
-      <c r="G51">
-        <f>SUM(G2:G50)</f>
-        <v>14151.55</v>
-      </c>
-      <c r="H51">
-        <f>SUM(H2:H50)</f>
-        <v>234502.78999999998</v>
-      </c>
-      <c r="J51">
-        <f>SUM(J2:J50)</f>
-        <v>-81480.400000000009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H52">
-        <f>H51+J51</f>
-        <v>153022.38999999996</v>
+      <c r="F57">
+        <f>SUM(F2:F56)</f>
+        <v>257203.43999999997</v>
+      </c>
+      <c r="G57">
+        <f>SUM(G2:G56)</f>
+        <v>16026.86</v>
+      </c>
+      <c r="H57">
+        <f>SUM(H2:H56)</f>
+        <v>280854.37999999995</v>
+      </c>
+      <c r="J57">
+        <f>SUM(J2:J56)</f>
+        <v>-105889.55000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f>H57+J57</f>
+        <v>174964.82999999993</v>
       </c>
     </row>
   </sheetData>
@@ -7864,6 +8106,12 @@
     <hyperlink ref="E48" r:id="rId44" xr:uid="{77705E35-546E-9743-8D8D-38E420644673}"/>
     <hyperlink ref="E49" r:id="rId45" xr:uid="{9EE574D3-89CC-694A-B221-53984F4A157F}"/>
     <hyperlink ref="E50" r:id="rId46" xr:uid="{2554BA5E-1FF4-2D4C-8D5C-E3A4C0AFFEC2}"/>
+    <hyperlink ref="E54" r:id="rId47" xr:uid="{C1B4A561-4DB7-E842-810C-F5C7E3789828}"/>
+    <hyperlink ref="E51" r:id="rId48" xr:uid="{DBEDF968-BC4F-F64F-817D-220F1447755E}"/>
+    <hyperlink ref="E53" r:id="rId49" xr:uid="{0A6D6F6F-7FCE-9146-B446-406D217B41FC}"/>
+    <hyperlink ref="E56" r:id="rId50" xr:uid="{C87ED12D-F9A5-8C45-9DC4-C28919630AF2}"/>
+    <hyperlink ref="E55" r:id="rId51" xr:uid="{4B309696-6BC6-5845-AD65-87D86527AF19}"/>
+    <hyperlink ref="E52" r:id="rId52" xr:uid="{85F9A506-90F0-7B4E-84CD-8FACA2B3D8A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E58A64-940B-FA49-9CCE-B1C2EA945314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592DE75-08A7-4D40-937A-055C10E3ACDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1420" windowWidth="26340" windowHeight="15540" activeTab="4" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="382">
   <si>
     <t>id</t>
   </si>
@@ -1052,6 +1052,129 @@
   </si>
   <si>
     <t>#5030342772832510</t>
+  </si>
+  <si>
+    <t>#5057226072832510</t>
+  </si>
+  <si>
+    <t>#5053451821602510</t>
+  </si>
+  <si>
+    <t>#5060650260982510</t>
+  </si>
+  <si>
+    <t>Саморез 2.0x12</t>
+  </si>
+  <si>
+    <t>Cаморез 2.3x12mm</t>
+  </si>
+  <si>
+    <t>Cаморез 2.0x12mm</t>
+  </si>
+  <si>
+    <t>2.0x12</t>
+  </si>
+  <si>
+    <t>2.3x12</t>
+  </si>
+  <si>
+    <t>#5016342480302510</t>
+  </si>
+  <si>
+    <t>20.01.2021</t>
+  </si>
+  <si>
+    <t>0.01u</t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>15p</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>MountingHole</t>
+  </si>
+  <si>
+    <t>USB_B</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>SolderJumper_3_Bridged12</t>
+  </si>
+  <si>
+    <t>SW_Push</t>
+  </si>
+  <si>
+    <t>ATxmega32A4U-A</t>
+  </si>
+  <si>
+    <t>Crystal_Small</t>
+  </si>
+  <si>
+    <t>C4, C5, C11, C13, C21, C31, C32, C33, C34</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C35, C36</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D11, D12, D13, D14, D21, D22, D23, D24</t>
+  </si>
+  <si>
+    <t>D111, D121, D131, D141</t>
+  </si>
+  <si>
+    <t>H1, H2, H3, H4</t>
+  </si>
+  <si>
+    <t>J11, J12, J13, J14, J21, J22, J23, J24</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>470 Ohm</t>
+  </si>
+  <si>
+    <t>R111, R112, R121, R122, R131, R132, R141, R142, R211, R212, R221, R222, R231, R232, R241, R242</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R113, R123, R133, R143, R213, R223, R233, R243</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R11, R33</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4, U5</t>
+  </si>
+  <si>
+    <t>U11, U13</t>
+  </si>
+  <si>
+    <t>74HC541PW</t>
+  </si>
+  <si>
+    <t>#5087438600872510</t>
   </si>
 </sst>
 </file>
@@ -1389,6 +1512,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1411,17 +1545,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1740,7 +1863,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,41 +1879,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1820,22 +1943,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -2524,22 +2647,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -3286,12 +3409,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9370EC-F6D6-834C-9D40-3E5D44C5A93F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3301,7 +3804,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:G7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3315,41 +3818,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4797,10 +5300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14144EDC-C784-C04C-803C-AF6946535824}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4813,32 +5316,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="66" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4891,7 +5394,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J48" si="0">G3*H3+I3</f>
+        <f t="shared" ref="J3:J49" si="0">G3*H3+I3</f>
         <v>100</v>
       </c>
       <c r="K3" s="14">
@@ -4929,7 +5432,7 @@
         <v>3.8</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" ref="K4:K48" si="1">J4/H4</f>
+        <f t="shared" ref="K4:K49" si="1">J4/H4</f>
         <v>0.38</v>
       </c>
     </row>
@@ -6158,66 +6661,92 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>309</v>
+        <v>344</v>
+      </c>
+      <c r="B46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>347</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="J46" s="17"/>
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="18"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>308</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>240</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C48" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F48" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>1.4508000000000001</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <v>100</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J48" s="17">
         <f t="shared" si="0"/>
         <v>145.08000000000001</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K48" s="14">
         <f t="shared" si="1"/>
         <v>1.4508000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="18"/>
-      <c r="G48">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="18"/>
+      <c r="G49">
         <v>10</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>1</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -6283,8 +6812,8 @@
     <hyperlink ref="E24" r:id="rId51" xr:uid="{6AB6DC7A-8EAC-B14F-BD64-4069B6600C1C}"/>
     <hyperlink ref="D36" r:id="rId52" xr:uid="{F565C3B4-A362-A741-BE33-87CEAB49C437}"/>
     <hyperlink ref="E36" r:id="rId53" xr:uid="{2E5CA6E3-C325-EB4C-A4FD-E09C23C35E2E}"/>
-    <hyperlink ref="D47" r:id="rId54" xr:uid="{E85661EA-4288-864E-99F8-14443A59494F}"/>
-    <hyperlink ref="E47" r:id="rId55" xr:uid="{9A2D115A-5BA3-E54E-BECA-6E9F3F9B0B84}"/>
+    <hyperlink ref="D48" r:id="rId54" xr:uid="{E85661EA-4288-864E-99F8-14443A59494F}"/>
+    <hyperlink ref="E48" r:id="rId55" xr:uid="{9A2D115A-5BA3-E54E-BECA-6E9F3F9B0B84}"/>
     <hyperlink ref="E3" location="Orders!E30" display="#07863451" xr:uid="{64A575F0-CC33-2242-8238-2390FBF4E169}"/>
     <hyperlink ref="D3" r:id="rId56" xr:uid="{635A4308-6EC5-7340-97B6-F7CDBAECA0D3}"/>
     <hyperlink ref="E38" r:id="rId57" xr:uid="{384FEBF5-211B-5641-A585-0873A654BFCF}"/>
@@ -6296,6 +6825,7 @@
     <hyperlink ref="E12" r:id="rId63" xr:uid="{8B3D9312-F506-7942-B6A3-1AD135F5AFC0}"/>
     <hyperlink ref="D14" r:id="rId64" xr:uid="{BE65CB9E-F278-1149-BDF1-F4F2D5186087}"/>
     <hyperlink ref="E14" r:id="rId65" xr:uid="{2C9050D8-DF13-6244-A3A4-5FE8F3F6D687}"/>
+    <hyperlink ref="E46" r:id="rId66" xr:uid="{32D92F85-412D-6748-8F25-0C6FA2D112BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6303,10 +6833,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7D9B-E6AB-C34D-8839-A6582ADEF526}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7350,30 +7880,30 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="66">
+      <c r="B38" s="58">
         <v>10</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="59">
         <v>44644</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="58">
         <v>13213.8</v>
       </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66">
+      <c r="G38" s="58"/>
+      <c r="H38" s="58">
         <f t="shared" si="2"/>
         <v>13213.8</v>
       </c>
-      <c r="I38" s="66">
+      <c r="I38" s="58">
         <f t="shared" si="3"/>
         <v>1321.3799999999999</v>
       </c>
@@ -7386,32 +7916,32 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B39" s="66">
+      <c r="B39" s="58">
         <v>10</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="59">
         <v>44662</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="58">
         <v>4661.75</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="58">
         <v>272.58</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="58">
         <f t="shared" si="2"/>
         <v>4934.33</v>
       </c>
-      <c r="I39" s="66">
+      <c r="I39" s="58">
         <f t="shared" si="3"/>
         <v>493.43299999999999</v>
       </c>
@@ -7424,32 +7954,32 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="B40" s="66">
+      <c r="B40" s="58">
         <v>10</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="59">
         <v>44663</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="58">
         <v>13767.37</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="58">
         <v>550.92999999999995</v>
       </c>
-      <c r="H40" s="66">
+      <c r="H40" s="58">
         <f t="shared" ref="H40" si="4">F40+G40</f>
         <v>14318.300000000001</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="58">
         <f t="shared" si="3"/>
         <v>1431.8300000000002</v>
       </c>
@@ -7462,63 +7992,63 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="52">
         <v>1</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="53">
         <v>44671</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="52">
         <v>1650</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="52">
         <v>182.11</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="52">
         <f t="shared" ref="H41:H42" si="5">F41+G41</f>
         <v>1832.1100000000001</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="52">
         <f t="shared" si="3"/>
         <v>1832.1100000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="66">
+      <c r="B42" s="58">
         <v>10</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="62">
         <v>44671</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="58">
         <v>18366.189999999999</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="58">
         <v>294.77999999999997</v>
       </c>
-      <c r="H42" s="66">
+      <c r="H42" s="58">
         <f t="shared" si="5"/>
         <v>18660.969999999998</v>
       </c>
-      <c r="I42" s="66">
+      <c r="I42" s="58">
         <f t="shared" si="3"/>
         <v>1866.0969999999998</v>
       </c>
@@ -7531,30 +8061,30 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B43" s="66">
+      <c r="B43" s="58">
         <v>10</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="62">
         <v>44674</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="58">
         <v>4030.66</v>
       </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66">
+      <c r="G43" s="58"/>
+      <c r="H43" s="58">
         <f t="shared" ref="H43:H46" si="6">F43+G43</f>
         <v>4030.66</v>
       </c>
-      <c r="I43" s="66">
+      <c r="I43" s="58">
         <f t="shared" ref="I43:I46" si="7">H43/B43</f>
         <v>403.06599999999997</v>
       </c>
@@ -7567,30 +8097,30 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="66">
+      <c r="B44" s="58">
         <v>10</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="62">
         <v>44674</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="58">
         <v>4335.96</v>
       </c>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66">
+      <c r="G44" s="58"/>
+      <c r="H44" s="58">
         <f t="shared" si="6"/>
         <v>4335.96</v>
       </c>
-      <c r="I44" s="66">
+      <c r="I44" s="58">
         <f t="shared" si="7"/>
         <v>433.596</v>
       </c>
@@ -7603,61 +8133,61 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="52">
         <v>10</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="53">
         <v>44680</v>
       </c>
-      <c r="E45" s="62" t="s">
+      <c r="E45" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="52">
         <v>22401.48</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60">
+      <c r="G45" s="52"/>
+      <c r="H45" s="52">
         <f t="shared" si="6"/>
         <v>22401.48</v>
       </c>
-      <c r="I45" s="60">
+      <c r="I45" s="52">
         <f t="shared" si="7"/>
         <v>2240.1480000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B46" s="66">
+      <c r="B46" s="58">
         <v>10</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="59">
         <v>44692</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="66">
+      <c r="F46" s="58">
         <v>9818.06</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="58">
         <v>256.16000000000003</v>
       </c>
-      <c r="H46" s="66">
+      <c r="H46" s="58">
         <f t="shared" si="6"/>
         <v>10074.219999999999</v>
       </c>
-      <c r="I46" s="66">
+      <c r="I46" s="58">
         <f t="shared" si="7"/>
         <v>1007.4219999999999</v>
       </c>
@@ -7670,30 +8200,30 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="55">
         <v>10</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="56">
         <v>44704</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="55">
         <v>8969.2999999999993</v>
       </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63">
+      <c r="G47" s="55"/>
+      <c r="H47" s="55">
         <f t="shared" ref="H47:H49" si="8">F47+G47</f>
         <v>8969.2999999999993</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="55">
         <f t="shared" ref="I47:I49" si="9">H47/B47</f>
         <v>896.93</v>
       </c>
@@ -7758,59 +8288,181 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
+    <row r="50" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="55">
         <v>10</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="56">
         <v>44751</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="55">
         <v>9280.43</v>
       </c>
-      <c r="H50" s="49">
-        <f t="shared" ref="H50" si="10">F50+G50</f>
+      <c r="H50" s="55">
+        <f t="shared" ref="H50:H53" si="10">F50+G50</f>
         <v>9280.43</v>
       </c>
-      <c r="I50" s="49">
-        <f t="shared" ref="I50" si="11">H50/B50</f>
+      <c r="I50" s="55">
+        <f t="shared" ref="I50:I53" si="11">H50/B50</f>
         <v>928.04300000000001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D51" s="38">
+        <v>44796</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F51">
+        <v>632.07000000000005</v>
+      </c>
+      <c r="G51">
+        <v>566.95000000000005</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="10"/>
+        <v>1199.02</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="11"/>
+        <v>11.9902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="52">
+        <v>10</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="53">
+        <v>44803</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="F52" s="52">
+        <v>35737.5</v>
+      </c>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52">
+        <f t="shared" si="10"/>
+        <v>35737.5</v>
+      </c>
+      <c r="I52" s="52">
+        <f t="shared" si="11"/>
+        <v>3573.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="38">
+        <v>44808</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F53">
+        <v>1607.3</v>
+      </c>
+      <c r="G53">
+        <v>291.37</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="10"/>
+        <v>1898.67</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="11"/>
+        <v>18.986699999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="38">
+        <v>44846</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F54">
+        <v>966.09</v>
+      </c>
+      <c r="G54">
+        <v>272.61</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="12">F54+G54</f>
+        <v>1238.7</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54" si="13">H54/B54</f>
+        <v>24.774000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>263</v>
       </c>
-      <c r="F51">
-        <f>SUM(F2:F50)</f>
-        <v>212727.16</v>
-      </c>
-      <c r="G51">
-        <f>SUM(G2:G50)</f>
-        <v>14151.55</v>
-      </c>
-      <c r="H51">
-        <f>SUM(H2:H50)</f>
-        <v>234502.78999999998</v>
-      </c>
-      <c r="J51">
-        <f>SUM(J2:J50)</f>
+      <c r="F55">
+        <f>SUM(F2:F54)</f>
+        <v>251670.12</v>
+      </c>
+      <c r="G55">
+        <f>SUM(G2:G54)</f>
+        <v>15282.480000000001</v>
+      </c>
+      <c r="H55">
+        <f>SUM(H2:H54)</f>
+        <v>274576.67999999993</v>
+      </c>
+      <c r="J55">
+        <f>SUM(J2:J54)</f>
         <v>-81480.400000000009</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H52">
-        <f>H51+J51</f>
-        <v>153022.38999999996</v>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f>H55+J55</f>
+        <v>193096.27999999991</v>
       </c>
     </row>
   </sheetData>
@@ -7864,6 +8516,10 @@
     <hyperlink ref="E48" r:id="rId44" xr:uid="{77705E35-546E-9743-8D8D-38E420644673}"/>
     <hyperlink ref="E49" r:id="rId45" xr:uid="{9EE574D3-89CC-694A-B221-53984F4A157F}"/>
     <hyperlink ref="E50" r:id="rId46" xr:uid="{2554BA5E-1FF4-2D4C-8D5C-E3A4C0AFFEC2}"/>
+    <hyperlink ref="E52" r:id="rId47" xr:uid="{8D522316-3CD8-E647-9922-6AA13EAC316D}"/>
+    <hyperlink ref="E51" r:id="rId48" xr:uid="{15D62910-CFCE-5D4E-A866-59F0EF87697B}"/>
+    <hyperlink ref="E53" r:id="rId49" xr:uid="{C566B3AF-84AF-D142-8F48-BCB5E9498BD3}"/>
+    <hyperlink ref="E54" r:id="rId50" xr:uid="{F2D75C48-91A7-C242-9B87-22A4784FEA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E58A64-940B-FA49-9CCE-B1C2EA945314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2066EAD-D346-E647-98B8-898F99E67FAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1420" windowWidth="26340" windowHeight="15540" activeTab="4" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
+    <workbookView xWindow="1280" yWindow="1420" windowWidth="26340" windowHeight="15540" activeTab="1" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="x4" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="382">
   <si>
     <t>id</t>
   </si>
@@ -1052,6 +1052,129 @@
   </si>
   <si>
     <t>#5030342772832510</t>
+  </si>
+  <si>
+    <t>#5057226072832510</t>
+  </si>
+  <si>
+    <t>#5053451821602510</t>
+  </si>
+  <si>
+    <t>#5060650260982510</t>
+  </si>
+  <si>
+    <t>Саморез 2.0x12</t>
+  </si>
+  <si>
+    <t>Cаморез 2.3x12mm</t>
+  </si>
+  <si>
+    <t>Cаморез 2.0x12mm</t>
+  </si>
+  <si>
+    <t>2.0x12</t>
+  </si>
+  <si>
+    <t>2.3x12</t>
+  </si>
+  <si>
+    <t>#5016342480302510</t>
+  </si>
+  <si>
+    <t>20.01.2021</t>
+  </si>
+  <si>
+    <t>0.01u</t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>15p</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>MountingHole</t>
+  </si>
+  <si>
+    <t>USB_B</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>SolderJumper_3_Bridged12</t>
+  </si>
+  <si>
+    <t>SW_Push</t>
+  </si>
+  <si>
+    <t>ATxmega32A4U-A</t>
+  </si>
+  <si>
+    <t>Crystal_Small</t>
+  </si>
+  <si>
+    <t>C4, C5, C11, C13, C21, C31, C32, C33, C34</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C35, C36</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D11, D12, D13, D14, D21, D22, D23, D24</t>
+  </si>
+  <si>
+    <t>D111, D121, D131, D141</t>
+  </si>
+  <si>
+    <t>H1, H2, H3, H4</t>
+  </si>
+  <si>
+    <t>J11, J12, J13, J14, J21, J22, J23, J24</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>470 Ohm</t>
+  </si>
+  <si>
+    <t>R111, R112, R121, R122, R131, R132, R141, R142, R211, R212, R221, R222, R231, R232, R241, R242</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R113, R123, R133, R143, R213, R223, R233, R243</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R11, R33</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4, U5</t>
+  </si>
+  <si>
+    <t>U11, U13</t>
+  </si>
+  <si>
+    <t>74HC541PW</t>
+  </si>
+  <si>
+    <t>#5087438600872510</t>
   </si>
 </sst>
 </file>
@@ -1389,6 +1512,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1411,17 +1545,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1740,7 +1863,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,41 +1879,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1820,22 +1943,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -2524,22 +2647,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -3286,12 +3409,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9370EC-F6D6-834C-9D40-3E5D44C5A93F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3301,7 +3804,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:G7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3315,41 +3818,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4797,10 +5300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14144EDC-C784-C04C-803C-AF6946535824}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4813,32 +5316,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="66" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4891,7 +5394,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J48" si="0">G3*H3+I3</f>
+        <f t="shared" ref="J3:J49" si="0">G3*H3+I3</f>
         <v>100</v>
       </c>
       <c r="K3" s="14">
@@ -4929,7 +5432,7 @@
         <v>3.8</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" ref="K4:K48" si="1">J4/H4</f>
+        <f t="shared" ref="K4:K49" si="1">J4/H4</f>
         <v>0.38</v>
       </c>
     </row>
@@ -6158,66 +6661,92 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>309</v>
+        <v>344</v>
+      </c>
+      <c r="B46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>347</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="J46" s="17"/>
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="18"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>308</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>240</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C48" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F48" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>1.4508000000000001</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <v>100</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J48" s="17">
         <f t="shared" si="0"/>
         <v>145.08000000000001</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K48" s="14">
         <f t="shared" si="1"/>
         <v>1.4508000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="18"/>
-      <c r="G48">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="18"/>
+      <c r="G49">
         <v>10</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>1</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -6283,8 +6812,8 @@
     <hyperlink ref="E24" r:id="rId51" xr:uid="{6AB6DC7A-8EAC-B14F-BD64-4069B6600C1C}"/>
     <hyperlink ref="D36" r:id="rId52" xr:uid="{F565C3B4-A362-A741-BE33-87CEAB49C437}"/>
     <hyperlink ref="E36" r:id="rId53" xr:uid="{2E5CA6E3-C325-EB4C-A4FD-E09C23C35E2E}"/>
-    <hyperlink ref="D47" r:id="rId54" xr:uid="{E85661EA-4288-864E-99F8-14443A59494F}"/>
-    <hyperlink ref="E47" r:id="rId55" xr:uid="{9A2D115A-5BA3-E54E-BECA-6E9F3F9B0B84}"/>
+    <hyperlink ref="D48" r:id="rId54" xr:uid="{E85661EA-4288-864E-99F8-14443A59494F}"/>
+    <hyperlink ref="E48" r:id="rId55" xr:uid="{9A2D115A-5BA3-E54E-BECA-6E9F3F9B0B84}"/>
     <hyperlink ref="E3" location="Orders!E30" display="#07863451" xr:uid="{64A575F0-CC33-2242-8238-2390FBF4E169}"/>
     <hyperlink ref="D3" r:id="rId56" xr:uid="{635A4308-6EC5-7340-97B6-F7CDBAECA0D3}"/>
     <hyperlink ref="E38" r:id="rId57" xr:uid="{384FEBF5-211B-5641-A585-0873A654BFCF}"/>
@@ -6296,6 +6825,7 @@
     <hyperlink ref="E12" r:id="rId63" xr:uid="{8B3D9312-F506-7942-B6A3-1AD135F5AFC0}"/>
     <hyperlink ref="D14" r:id="rId64" xr:uid="{BE65CB9E-F278-1149-BDF1-F4F2D5186087}"/>
     <hyperlink ref="E14" r:id="rId65" xr:uid="{2C9050D8-DF13-6244-A3A4-5FE8F3F6D687}"/>
+    <hyperlink ref="E46" r:id="rId66" xr:uid="{32D92F85-412D-6748-8F25-0C6FA2D112BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6303,10 +6833,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7D9B-E6AB-C34D-8839-A6582ADEF526}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7350,30 +7880,30 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="66">
+      <c r="B38" s="58">
         <v>10</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="59">
         <v>44644</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="58">
         <v>13213.8</v>
       </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66">
+      <c r="G38" s="58"/>
+      <c r="H38" s="58">
         <f t="shared" si="2"/>
         <v>13213.8</v>
       </c>
-      <c r="I38" s="66">
+      <c r="I38" s="58">
         <f t="shared" si="3"/>
         <v>1321.3799999999999</v>
       </c>
@@ -7386,32 +7916,32 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B39" s="66">
+      <c r="B39" s="58">
         <v>10</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="59">
         <v>44662</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="58">
         <v>4661.75</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="58">
         <v>272.58</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="58">
         <f t="shared" si="2"/>
         <v>4934.33</v>
       </c>
-      <c r="I39" s="66">
+      <c r="I39" s="58">
         <f t="shared" si="3"/>
         <v>493.43299999999999</v>
       </c>
@@ -7424,32 +7954,32 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="B40" s="66">
+      <c r="B40" s="58">
         <v>10</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="59">
         <v>44663</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="58">
         <v>13767.37</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="58">
         <v>550.92999999999995</v>
       </c>
-      <c r="H40" s="66">
+      <c r="H40" s="58">
         <f t="shared" ref="H40" si="4">F40+G40</f>
         <v>14318.300000000001</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="58">
         <f t="shared" si="3"/>
         <v>1431.8300000000002</v>
       </c>
@@ -7462,63 +7992,63 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="52">
         <v>1</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="53">
         <v>44671</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="52">
         <v>1650</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="52">
         <v>182.11</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="52">
         <f t="shared" ref="H41:H42" si="5">F41+G41</f>
         <v>1832.1100000000001</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="52">
         <f t="shared" si="3"/>
         <v>1832.1100000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="66">
+      <c r="B42" s="58">
         <v>10</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="62">
         <v>44671</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="58">
         <v>18366.189999999999</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="58">
         <v>294.77999999999997</v>
       </c>
-      <c r="H42" s="66">
+      <c r="H42" s="58">
         <f t="shared" si="5"/>
         <v>18660.969999999998</v>
       </c>
-      <c r="I42" s="66">
+      <c r="I42" s="58">
         <f t="shared" si="3"/>
         <v>1866.0969999999998</v>
       </c>
@@ -7531,30 +8061,30 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B43" s="66">
+      <c r="B43" s="58">
         <v>10</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="62">
         <v>44674</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="58">
         <v>4030.66</v>
       </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66">
+      <c r="G43" s="58"/>
+      <c r="H43" s="58">
         <f t="shared" ref="H43:H46" si="6">F43+G43</f>
         <v>4030.66</v>
       </c>
-      <c r="I43" s="66">
+      <c r="I43" s="58">
         <f t="shared" ref="I43:I46" si="7">H43/B43</f>
         <v>403.06599999999997</v>
       </c>
@@ -7567,30 +8097,30 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="66">
+      <c r="B44" s="58">
         <v>10</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="62">
         <v>44674</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="58">
         <v>4335.96</v>
       </c>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66">
+      <c r="G44" s="58"/>
+      <c r="H44" s="58">
         <f t="shared" si="6"/>
         <v>4335.96</v>
       </c>
-      <c r="I44" s="66">
+      <c r="I44" s="58">
         <f t="shared" si="7"/>
         <v>433.596</v>
       </c>
@@ -7603,61 +8133,61 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="52">
         <v>10</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="53">
         <v>44680</v>
       </c>
-      <c r="E45" s="62" t="s">
+      <c r="E45" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="52">
         <v>22401.48</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60">
+      <c r="G45" s="52"/>
+      <c r="H45" s="52">
         <f t="shared" si="6"/>
         <v>22401.48</v>
       </c>
-      <c r="I45" s="60">
+      <c r="I45" s="52">
         <f t="shared" si="7"/>
         <v>2240.1480000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="B46" s="66">
+      <c r="B46" s="58">
         <v>10</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="59">
         <v>44692</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="66">
+      <c r="F46" s="58">
         <v>9818.06</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="58">
         <v>256.16000000000003</v>
       </c>
-      <c r="H46" s="66">
+      <c r="H46" s="58">
         <f t="shared" si="6"/>
         <v>10074.219999999999</v>
       </c>
-      <c r="I46" s="66">
+      <c r="I46" s="58">
         <f t="shared" si="7"/>
         <v>1007.4219999999999</v>
       </c>
@@ -7670,30 +8200,30 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="55">
         <v>10</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="56">
         <v>44704</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="55">
         <v>8969.2999999999993</v>
       </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63">
+      <c r="G47" s="55"/>
+      <c r="H47" s="55">
         <f t="shared" ref="H47:H49" si="8">F47+G47</f>
         <v>8969.2999999999993</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="55">
         <f t="shared" ref="I47:I49" si="9">H47/B47</f>
         <v>896.93</v>
       </c>
@@ -7758,59 +8288,181 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
+    <row r="50" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="55">
         <v>10</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="56">
         <v>44751</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="55">
         <v>9280.43</v>
       </c>
-      <c r="H50" s="49">
-        <f t="shared" ref="H50" si="10">F50+G50</f>
+      <c r="H50" s="55">
+        <f t="shared" ref="H50:H53" si="10">F50+G50</f>
         <v>9280.43</v>
       </c>
-      <c r="I50" s="49">
-        <f t="shared" ref="I50" si="11">H50/B50</f>
+      <c r="I50" s="55">
+        <f t="shared" ref="I50:I53" si="11">H50/B50</f>
         <v>928.04300000000001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D51" s="38">
+        <v>44796</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F51">
+        <v>632.07000000000005</v>
+      </c>
+      <c r="G51">
+        <v>566.95000000000005</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="10"/>
+        <v>1199.02</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="11"/>
+        <v>11.9902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="52">
+        <v>10</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="53">
+        <v>44803</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="F52" s="52">
+        <v>35737.5</v>
+      </c>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52">
+        <f t="shared" si="10"/>
+        <v>35737.5</v>
+      </c>
+      <c r="I52" s="52">
+        <f t="shared" si="11"/>
+        <v>3573.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="38">
+        <v>44808</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F53">
+        <v>1607.3</v>
+      </c>
+      <c r="G53">
+        <v>291.37</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="10"/>
+        <v>1898.67</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="11"/>
+        <v>18.986699999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="38">
+        <v>44846</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F54">
+        <v>966.09</v>
+      </c>
+      <c r="G54">
+        <v>272.61</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="12">F54+G54</f>
+        <v>1238.7</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54" si="13">H54/B54</f>
+        <v>24.774000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>263</v>
       </c>
-      <c r="F51">
-        <f>SUM(F2:F50)</f>
-        <v>212727.16</v>
-      </c>
-      <c r="G51">
-        <f>SUM(G2:G50)</f>
-        <v>14151.55</v>
-      </c>
-      <c r="H51">
-        <f>SUM(H2:H50)</f>
-        <v>234502.78999999998</v>
-      </c>
-      <c r="J51">
-        <f>SUM(J2:J50)</f>
+      <c r="F55">
+        <f>SUM(F2:F54)</f>
+        <v>251670.12</v>
+      </c>
+      <c r="G55">
+        <f>SUM(G2:G54)</f>
+        <v>15282.480000000001</v>
+      </c>
+      <c r="H55">
+        <f>SUM(H2:H54)</f>
+        <v>274576.67999999993</v>
+      </c>
+      <c r="J55">
+        <f>SUM(J2:J54)</f>
         <v>-81480.400000000009</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H52">
-        <f>H51+J51</f>
-        <v>153022.38999999996</v>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f>H55+J55</f>
+        <v>193096.27999999991</v>
       </c>
     </row>
   </sheetData>
@@ -7864,6 +8516,10 @@
     <hyperlink ref="E48" r:id="rId44" xr:uid="{77705E35-546E-9743-8D8D-38E420644673}"/>
     <hyperlink ref="E49" r:id="rId45" xr:uid="{9EE574D3-89CC-694A-B221-53984F4A157F}"/>
     <hyperlink ref="E50" r:id="rId46" xr:uid="{2554BA5E-1FF4-2D4C-8D5C-E3A4C0AFFEC2}"/>
+    <hyperlink ref="E52" r:id="rId47" xr:uid="{8D522316-3CD8-E647-9922-6AA13EAC316D}"/>
+    <hyperlink ref="E51" r:id="rId48" xr:uid="{15D62910-CFCE-5D4E-A866-59F0EF87697B}"/>
+    <hyperlink ref="E53" r:id="rId49" xr:uid="{C566B3AF-84AF-D142-8F48-BCB5E9498BD3}"/>
+    <hyperlink ref="E54" r:id="rId50" xr:uid="{F2D75C48-91A7-C242-9B87-22A4784FEA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/midi_router-bom.xlsx
+++ b/doc/midi_router-bom.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_router/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74941B7D-4E2F-6A45-B1AF-02A74BEB1EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94130534-B903-FF40-AC81-8A5AD38A9B59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="700" windowWidth="26340" windowHeight="15540" activeTab="4" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
+    <workbookView xWindow="1540" yWindow="700" windowWidth="26340" windowHeight="15540" activeTab="5" xr2:uid="{5426D260-D021-E24F-84F4-6AC1EB5D6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="x4" sheetId="1" r:id="rId1"/>
     <sheet name="x4-flat" sheetId="5" r:id="rId2"/>
     <sheet name="x7" sheetId="2" r:id="rId3"/>
-    <sheet name="BOM" sheetId="4" r:id="rId4"/>
-    <sheet name="Orders" sheetId="3" r:id="rId5"/>
+    <sheet name="x7-rack" sheetId="6" r:id="rId4"/>
+    <sheet name="BOM" sheetId="4" r:id="rId5"/>
+    <sheet name="Orders" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="midi_router_x7_led" localSheetId="3">'x7-rack'!$A$27:$F$29</definedName>
+    <definedName name="midi_router_x7_rack" localSheetId="3">'x7-rack'!$A$1:$F$26</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,8 +34,39 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{5C1D4D23-D105-0A47-8403-024F53DF5C3E}" name="midi_router_x7_led" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/max_romanov/projects/midi_router/kicad/x7-rack/led/midi_router_x7_led.csv" thousands=" " tab="0" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{9D458DA8-FE44-D448-9562-81D43CBB2189}" name="midi_router_x7_rack" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/max_romanov/projects/midi_router/kicad/x7-rack/main/midi_router_x7_rack.csv" thousands=" " tab="0" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="486">
   <si>
     <t>id</t>
   </si>
@@ -1048,12 +1085,6 @@
     <t>06.07.2022</t>
   </si>
   <si>
-    <t>#5030342772832510</t>
-  </si>
-  <si>
-    <t>#5057226072832510</t>
-  </si>
-  <si>
     <t>PCB router x7</t>
   </si>
   <si>
@@ -1063,9 +1094,6 @@
     <t>#Y40-2346369A</t>
   </si>
   <si>
-    <t>#5060650260982510</t>
-  </si>
-  <si>
     <t>FormaX</t>
   </si>
   <si>
@@ -1075,10 +1103,427 @@
     <t>#02701602-0049</t>
   </si>
   <si>
-    <t>#5053451821602510</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Qnty</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Unpolarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11.1, </t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15, C16, </t>
+  </si>
+  <si>
+    <t>15p</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-323_HandSoldering</t>
+  </si>
+  <si>
+    <t>Diode, small symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1, </t>
+  </si>
+  <si>
+    <t>Fuse:Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient, small symbol</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>lib:DIN5MIDI-OOTDTY</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J15, </t>
+  </si>
+  <si>
+    <t>USB_B</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_B_OST_USB-B1HSxx_Horizontal</t>
+  </si>
+  <si>
+    <t>USB Type B connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J16, </t>
+  </si>
+  <si>
+    <t>Connector_IDC:IDC-Header_2x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J17, </t>
+  </si>
+  <si>
+    <t>Conn_01x04_Male</t>
+  </si>
+  <si>
+    <t>Connector_JST:JST_EH_B4B-EH-A_1x04_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x04, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x04_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_IDC:IDC-Header_2x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x04, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x15_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_IDC:IDC-Header_2x15_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x15, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J20, </t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1.9, </t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16, R17, </t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1, U2, U3, U4, U5, </t>
+  </si>
+  <si>
+    <t>Package_DIP:DIP-8_W7.62mm</t>
+  </si>
+  <si>
+    <t>Dual High Speed HCMOS/LSTTL/TTL Compatible Optocoupler, dV/dt 1000/us, VCM 1000, -0.5V to 7V VCC, DIP-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1.3, U1.4, </t>
+  </si>
+  <si>
+    <t>74AHC1G125</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>Single Buffer Gate Tri-State, Low-Voltage CMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6, U7, U8, U9, </t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>8-bit Buffer/Line Driver 3-state outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10, </t>
+  </si>
+  <si>
+    <t>ATxmega128A1U-A</t>
+  </si>
+  <si>
+    <t>Package_QFP:TQFP-100_14x14mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>32MHz, 128kB Flash, 8kB Boot, 8kB SRAM, 2kB EEPROM, JTAG, USB, TQFP-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11, </t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>800mA Fixed Low Drop Positive Voltage Regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U12, </t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-6</t>
+  </si>
+  <si>
+    <t>Very low capacitance ESD protection diode, 2 data-line, SOT-23-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1, </t>
+  </si>
+  <si>
+    <t>16MHz</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_HC49-SD</t>
+  </si>
+  <si>
+    <t>Two pin crystal, small symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C1.3, C1.4, C10.1, C10.2, C10.3, C10.4, C10.5, C10.6, C10.7, C10.8, C10.9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1, D2, D3, D4, D5, D6, D7, D1.1, D1.2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1.2, R1.10, R18, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R3, R4, R5, R6, R7, R8, R1.1, R1.4, R1.5, R1.6, R1.8, R2.1, R3.1, R4.1, R5.1, R6.1, R7.1, R8.1, R8.2, R9.1, R9.2, R10.1, R10.2, R11.1, R11.2, R12.1, R12.2, R13.1, R13.2, R14.1, R14.2, R18.1, R18.2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D19.1, D19.2, D19.3, D19.4, D19.5, D19.6, D19.7, D19.8, D19.9, D19.10, D19.11, D19.12, D19.13, D19.14, D19.15, D19.16, D19.18, D19.19, D19.20, D19.21, D19.22, </t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED_THT:LED_Rectangular_W5.0mm_H2.0mm</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19.1, R19.2, R19.3, R19.4, R19.5, R19.6, R19.7, R19.8, R19.9, R19.10, R19.11, R19.12, R19.13, R19.14, R19.15, R19.16, R19.17, R19.18, R19.19, R19.20, R19.21, R19.22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW19.1, </t>
+  </si>
+  <si>
+    <t>SW_Push_LED</t>
+  </si>
+  <si>
+    <t>lib:SW_PUSH_6mm</t>
+  </si>
+  <si>
+    <t>Push button switch with LED, generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J19, J19.2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1, J2, J3, J4, J5, J6, J7, J8, J9, J10, J11, J12, J13, J14, J1.2, J8.2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J18, J18.2, </t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2.1, C2.2, C2.3, C2.4, C2.5, C2.6, C2.7, C2.8, C2.9, C12, C19.1, C19.2, C19.3, C19.4, C19.5, C19.6, </t>
+  </si>
+  <si>
+    <t>0 Ohm</t>
+  </si>
+  <si>
+    <t>470 Ohm</t>
+  </si>
+  <si>
+    <t>100 KOhm</t>
+  </si>
+  <si>
+    <t>1 KOhm</t>
+  </si>
+  <si>
+    <t>10 KOhm</t>
+  </si>
+  <si>
+    <t>100 Ohm</t>
+  </si>
+  <si>
+    <t>саморезы М2x12, pan head</t>
+  </si>
+  <si>
+    <t>#5087 5392 0224 2510</t>
+  </si>
+  <si>
+    <t>receive date</t>
+  </si>
+  <si>
+    <t>74HC541W TSSOP-20</t>
+  </si>
+  <si>
+    <t>#5087 4386 0087 2510</t>
+  </si>
+  <si>
+    <t>#5087 0620 7231 2510</t>
+  </si>
+  <si>
+    <t>#5089 6559 2508 2510</t>
+  </si>
+  <si>
+    <t>#5089 4462 9516 2510</t>
+  </si>
+  <si>
+    <t>ATxmega128a4u</t>
+  </si>
+  <si>
+    <t>#5090 6499 6454 2510</t>
+  </si>
+  <si>
+    <t>#5090 6499 6458 2510</t>
+  </si>
+  <si>
+    <t>#5091 7381 4641 2510</t>
+  </si>
+  <si>
+    <t>#5091 8810 0008 2510</t>
+  </si>
+  <si>
+    <t>#5116 1289 4352 2510</t>
+  </si>
+  <si>
+    <t>#W2023011620161011</t>
+  </si>
+  <si>
+    <t>LD1117S33 SOT-223</t>
+  </si>
+  <si>
+    <t>#5116 1287 0688 2510</t>
+  </si>
+  <si>
+    <t>#5116 1287 0686 2510</t>
+  </si>
+  <si>
+    <t>PCB router x7 Rack</t>
+  </si>
+  <si>
+    <t>#W202211090524366</t>
+  </si>
+  <si>
+    <t>кнопка включения</t>
+  </si>
+  <si>
+    <t>#5123 1758 5036 2510</t>
+  </si>
+  <si>
+    <t>кнопка Mode</t>
+  </si>
+  <si>
+    <t>#5123 1758 5034 2510</t>
+  </si>
+  <si>
+    <t>HC49 SMD 16MHz</t>
+  </si>
+  <si>
+    <t>#2303 1147 8042 1099</t>
+  </si>
+  <si>
+    <t>#5053 4518 2160 2510</t>
+  </si>
+  <si>
+    <t>#5053 4517 4234 2510</t>
+  </si>
+  <si>
+    <t>#5053 4517 4236 2510</t>
+  </si>
+  <si>
+    <t>#5060 6502 6098 2510</t>
+  </si>
+  <si>
+    <t>#5057 2260 7283 2510</t>
+  </si>
+  <si>
+    <t>lider-3d.ru</t>
+  </si>
+  <si>
+    <t>#4991</t>
+  </si>
+  <si>
+    <t>#5122 9440 6926 2510</t>
+  </si>
+  <si>
+    <t>#5123 3198 4185 2510</t>
+  </si>
+  <si>
+    <t>#5129 0277 2691 2510</t>
+  </si>
+  <si>
+    <t>electronshik.ru</t>
+  </si>
+  <si>
+    <t>#1433936</t>
+  </si>
+  <si>
+    <t>#1453612</t>
+  </si>
+  <si>
+    <t>#1460615</t>
+  </si>
+  <si>
+    <t>#9311171</t>
+  </si>
+  <si>
+    <t>#9592382</t>
+  </si>
+  <si>
+    <t>#9593959</t>
+  </si>
+  <si>
+    <t>#9723129</t>
+  </si>
+  <si>
+    <t>#9856173</t>
+  </si>
+  <si>
+    <t>SCS-8 (DS1009-8AN), DIP-8 панель</t>
+  </si>
+  <si>
+    <t>#5030 3427 7283 2510</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1534,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _R_U_B"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1231,6 +1676,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1270,7 +1730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1355,12 +1815,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,6 +1934,16 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1467,17 +1966,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1494,6 +2004,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="midi_router_x7_rack" connectionId="2" xr16:uid="{F71F3631-9FC0-EE4C-987C-1147950E09D3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="midi_router_x7_led" connectionId="1" xr16:uid="{4C4A410B-626C-7041-B8E5-258148106F5D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7993AECC-982E-A443-870E-38A46DB5AE88}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1812,41 +2330,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1876,22 +2394,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -2580,22 +3098,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -3357,7 +3875,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3371,41 +3889,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4852,6 +5370,516 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F4DC6-2AE7-1F4B-9FEF-2721223DEABF}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>417</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D17" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>412</v>
+      </c>
+      <c r="D26" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" t="s">
+        <v>421</v>
+      </c>
+      <c r="E27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14144EDC-C784-C04C-803C-AF6946535824}">
   <dimension ref="A1:K48"/>
   <sheetViews>
@@ -4869,32 +5897,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="75" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6357,12 +7385,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7D9B-E6AB-C34D-8839-A6582ADEF526}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6370,10 +7398,10 @@
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>253</v>
       </c>
@@ -6387,147 +7415,154 @@
         <v>255</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>268</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="64" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="38">
         <v>44300</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" t="s">
         <v>267</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>2*378.62</f>
         <v>757.24</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>729.22</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H27" si="0">F2+G2</f>
+      <c r="I2">
+        <f t="shared" ref="I2:I27" si="0">G2+H2</f>
         <v>1486.46</v>
       </c>
-      <c r="I2">
-        <f>H2/B2</f>
+      <c r="J2">
+        <f>I2/B2</f>
         <v>148.64600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>260</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D3" s="38">
         <v>44304</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>737.58</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>785.44</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f t="shared" si="0"/>
         <v>1523.02</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I34" si="1">H3/B3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J34" si="1">I3/B3</f>
         <v>15.2302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>274</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="38">
         <v>44321</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>745.53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>317.52999999999997</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>1063.06</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="1"/>
         <v>212.61199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>275</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D5" s="38">
         <v>44359</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>193.91</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>300.49</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>494.4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="1"/>
         <v>49.44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>15</v>
       </c>
@@ -6537,21 +7572,22 @@
       <c r="D6" s="38">
         <v>44378</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2083.33</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>236</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>2319.33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -6561,53 +7597,55 @@
       <c r="D7" s="38">
         <v>44378</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>665-138</f>
         <v>527</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>138</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>269</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="64" t="s">
         <v>258</v>
       </c>
       <c r="D8" s="38">
         <v>44406</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" t="s">
         <v>270</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1053.73</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1021.53</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>2075.2600000000002</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="1"/>
         <v>207.52600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -6617,50 +7655,52 @@
       <c r="D9" s="38">
         <v>44406</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f>10048-138</f>
         <v>9910</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>138</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>10048</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>272</v>
       </c>
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D10" s="38">
         <v>44411</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>145.08000000000001</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>145.08000000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>1.4508000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>20</v>
       </c>
@@ -6670,21 +7710,22 @@
       <c r="D11" s="38">
         <v>44491</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1762.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>297</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>2059.6999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2</v>
       </c>
@@ -6694,53 +7735,55 @@
       <c r="D12" s="38">
         <v>44492</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f>1488.3-253</f>
         <v>1235.3</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>253</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>1488.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>260</v>
       </c>
       <c r="B13">
         <v>120</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D13" s="38">
         <v>44503</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>823.82</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>622.29999999999995</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>1446.12</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="1"/>
         <v>12.050999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -6748,31 +7791,32 @@
         <f>12*5</f>
         <v>60</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D14" s="38">
         <v>44526</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1183.8800000000001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>196.54</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>1380.42</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="1"/>
         <v>23.007000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>15</v>
       </c>
@@ -6782,358 +7826,371 @@
       <c r="D15" s="38">
         <v>44529</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1135.4000000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>236</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>1371.4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>271</v>
       </c>
       <c r="B16">
         <v>50</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D16" s="38">
         <v>44575</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>164.34</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>164.34</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="1"/>
         <v>3.2867999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>273</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D17" s="38">
         <v>44575</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>318</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="1"/>
         <v>15.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>295</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="64" t="s">
         <v>258</v>
       </c>
       <c r="D18" s="38">
         <v>44593</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" t="s">
         <v>259</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>387.29</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>549.17999999999995</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>936.47</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>93.647000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>260</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D19" s="38">
         <v>44593</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>797.1</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>590.29999999999995</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>1387.4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>13.874000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>262</v>
       </c>
       <c r="D20" s="38">
         <v>44594</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>505.44</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>236</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>741.44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>262</v>
       </c>
       <c r="D21" s="38">
         <v>44617</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>505.92</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>236</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>741.92000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>277</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D22" s="38">
         <v>44625</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>355.04</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>99.52</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>454.56</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>22.728000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D23" s="38">
         <v>44630</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4919.67</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>4919.67</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>491.96699999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>292</v>
       </c>
       <c r="B24" s="33">
         <v>10</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="67" t="s">
         <v>261</v>
       </c>
       <c r="D24" s="46">
         <v>44630</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="F24" s="33">
+      <c r="G24" s="33">
         <v>13640.01</v>
       </c>
-      <c r="G24" s="33">
+      <c r="H24" s="33">
         <v>2122.15</v>
       </c>
-      <c r="H24" s="33">
+      <c r="I24" s="33">
         <f t="shared" si="0"/>
         <v>15762.16</v>
       </c>
-      <c r="I24" s="33">
+      <c r="J24" s="33">
         <f t="shared" si="1"/>
         <v>1576.2159999999999</v>
       </c>
-      <c r="J24">
-        <f>-H24</f>
+      <c r="K24">
+        <f>-I24</f>
         <v>-15762.16</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>172</v>
       </c>
       <c r="B25">
         <v>300</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D25" s="38">
         <v>44634</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>6604.81</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1711.62</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>8316.43</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="1"/>
         <v>27.721433333333334</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>246</v>
       </c>
       <c r="B26">
         <v>100</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D26" s="38">
         <v>44634</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="38"/>
+      <c r="F26" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3956.26</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>549.57000000000005</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>4505.83</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>45.058300000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>276</v>
       </c>
       <c r="D27" s="38">
         <v>44641</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="38"/>
+      <c r="F27" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>651</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>296</v>
       </c>
@@ -7146,18 +8203,19 @@
       <c r="D28" s="38">
         <v>44642</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>7624.08</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="1"/>
         <v>381.20400000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="C29" t="s">
         <v>276</v>
@@ -7165,39 +8223,41 @@
       <c r="D29" s="38">
         <v>44642</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4430</v>
       </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H39" si="2">F29+G29</f>
+      <c r="I29">
+        <f t="shared" ref="I29:I39" si="2">G29+H29</f>
         <v>4430</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>262</v>
       </c>
       <c r="D30" s="38">
         <v>44642</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>10778.4</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>236</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="2"/>
         <v>11014.4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -7210,586 +8270,604 @@
       <c r="D31" s="38">
         <v>44642</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2030</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>132</v>
       </c>
       <c r="B32">
         <v>60</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D32" s="38">
         <v>44642</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="38"/>
+      <c r="F32" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>582.63</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>245.58</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="2"/>
         <v>828.21</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="1"/>
         <v>13.803500000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>112</v>
       </c>
       <c r="B33">
         <v>100</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D33" s="38">
         <v>44642</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="38"/>
+      <c r="F33" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>519.98</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>92.72</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="2"/>
         <v>612.70000000000005</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="1"/>
         <v>6.1270000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>289</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D34" s="38">
         <v>44642</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="38"/>
+      <c r="F34" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>417.24</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>127.8</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="2"/>
         <v>545.04</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="1"/>
         <v>18.167999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>298</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D35" s="38">
         <v>44642</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="38"/>
+      <c r="F35" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>328.28</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>527.5</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="2"/>
         <v>855.78</v>
       </c>
-      <c r="I35">
-        <f t="shared" ref="I35:I42" si="3">H35/B35</f>
+      <c r="J35">
+        <f t="shared" ref="J35:J42" si="3">I35/B35</f>
         <v>85.578000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>273</v>
       </c>
       <c r="B36">
         <v>20</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D36" s="38">
         <v>44643</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="38"/>
+      <c r="F36" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>620</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="2"/>
         <v>620</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>271</v>
       </c>
       <c r="B37">
         <v>50</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D37" s="38">
         <v>44643</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="38"/>
+      <c r="F37" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>257.10000000000002</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="2"/>
         <v>257.10000000000002</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="3"/>
         <v>5.1420000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="57" t="s">
         <v>292</v>
       </c>
       <c r="B38" s="57">
         <v>10</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D38" s="58">
         <v>44644</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="58"/>
+      <c r="F38" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="F38" s="57">
+      <c r="G38" s="57">
         <v>13213.8</v>
       </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57">
+      <c r="H38" s="57"/>
+      <c r="I38" s="57">
         <f t="shared" si="2"/>
         <v>13213.8</v>
       </c>
-      <c r="I38" s="57">
+      <c r="J38" s="57">
         <f t="shared" si="3"/>
         <v>1321.3799999999999</v>
       </c>
-      <c r="J38">
-        <f>-H38+770</f>
+      <c r="K38">
+        <f>-I38+770</f>
         <v>-12443.8</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="57" t="s">
         <v>274</v>
       </c>
       <c r="B39" s="57">
         <v>10</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D39" s="58">
         <v>44662</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="58"/>
+      <c r="F39" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="F39" s="57">
+      <c r="G39" s="57">
         <v>4661.75</v>
       </c>
-      <c r="G39" s="57">
+      <c r="H39" s="57">
         <v>272.58</v>
       </c>
-      <c r="H39" s="57">
+      <c r="I39" s="57">
         <f t="shared" si="2"/>
         <v>4934.33</v>
       </c>
-      <c r="I39" s="57">
+      <c r="J39" s="57">
         <f t="shared" si="3"/>
         <v>493.43299999999999</v>
       </c>
-      <c r="J39">
-        <f>-H39+770</f>
+      <c r="K39">
+        <f>-I39+770</f>
         <v>-4164.33</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="57" t="s">
         <v>292</v>
       </c>
       <c r="B40" s="57">
         <v>10</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D40" s="58">
         <v>44663</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="58"/>
+      <c r="F40" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="57">
+      <c r="G40" s="57">
         <v>13767.37</v>
       </c>
-      <c r="G40" s="57">
+      <c r="H40" s="57">
         <v>550.92999999999995</v>
       </c>
-      <c r="H40" s="57">
-        <f t="shared" ref="H40" si="4">F40+G40</f>
+      <c r="I40" s="57">
+        <f t="shared" ref="I40" si="4">G40+H40</f>
         <v>14318.300000000001</v>
       </c>
-      <c r="I40" s="57">
+      <c r="J40" s="57">
         <f t="shared" si="3"/>
         <v>1431.8300000000002</v>
       </c>
-      <c r="J40">
-        <f>-H40+770</f>
+      <c r="K40">
+        <f>-I40+770</f>
         <v>-13548.300000000001</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="51" t="s">
         <v>292</v>
       </c>
       <c r="B41" s="51">
         <v>1</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D41" s="52">
         <v>44671</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="52"/>
+      <c r="F41" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="F41" s="51">
+      <c r="G41" s="51">
         <v>1650</v>
       </c>
-      <c r="G41" s="51">
+      <c r="H41" s="51">
         <v>182.11</v>
       </c>
-      <c r="H41" s="51">
-        <f t="shared" ref="H41:H42" si="5">F41+G41</f>
+      <c r="I41" s="51">
+        <f t="shared" ref="I41:I42" si="5">G41+H41</f>
         <v>1832.1100000000001</v>
       </c>
-      <c r="I41" s="51">
+      <c r="J41" s="51">
         <f t="shared" si="3"/>
         <v>1832.1100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="57" t="s">
         <v>292</v>
       </c>
       <c r="B42" s="57">
         <v>10</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D42" s="61">
         <v>44671</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="61"/>
+      <c r="F42" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="F42" s="57">
+      <c r="G42" s="57">
         <v>18366.189999999999</v>
       </c>
-      <c r="G42" s="57">
+      <c r="H42" s="57">
         <v>294.77999999999997</v>
       </c>
-      <c r="H42" s="57">
+      <c r="I42" s="57">
         <f t="shared" si="5"/>
         <v>18660.969999999998</v>
       </c>
-      <c r="I42" s="57">
+      <c r="J42" s="57">
         <f t="shared" si="3"/>
         <v>1866.0969999999998</v>
       </c>
-      <c r="J42" s="48">
-        <f>-H42+770</f>
+      <c r="K42" s="48">
+        <f>-I42+770</f>
         <v>-17890.969999999998</v>
       </c>
-      <c r="K42" s="48" t="s">
+      <c r="L42" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="57" t="s">
         <v>274</v>
       </c>
       <c r="B43" s="57">
         <v>10</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D43" s="61">
         <v>44674</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="61"/>
+      <c r="F43" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="F43" s="57">
+      <c r="G43" s="57">
         <v>4030.66</v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57">
-        <f t="shared" ref="H43:H46" si="6">F43+G43</f>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57">
+        <f t="shared" ref="I43:I46" si="6">G43+H43</f>
         <v>4030.66</v>
       </c>
-      <c r="I43" s="57">
-        <f t="shared" ref="I43:I46" si="7">H43/B43</f>
+      <c r="J43" s="57">
+        <f t="shared" ref="J43:J46" si="7">I43/B43</f>
         <v>403.06599999999997</v>
       </c>
-      <c r="J43" s="48">
-        <f>-H43-770</f>
+      <c r="K43" s="48">
+        <f>-I43-770</f>
         <v>-4800.66</v>
       </c>
-      <c r="K43" s="48" t="s">
+      <c r="L43" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="57" t="s">
         <v>274</v>
       </c>
       <c r="B44" s="57">
         <v>10</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D44" s="61">
         <v>44674</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="61"/>
+      <c r="F44" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="F44" s="57">
+      <c r="G44" s="57">
         <v>4335.96</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57">
+      <c r="H44" s="57"/>
+      <c r="I44" s="57">
         <f t="shared" si="6"/>
         <v>4335.96</v>
       </c>
-      <c r="I44" s="57">
+      <c r="J44" s="57">
         <f t="shared" si="7"/>
         <v>433.596</v>
       </c>
-      <c r="J44" s="48">
-        <f>-H44+770</f>
+      <c r="K44" s="48">
+        <f>-I44+770</f>
         <v>-3565.96</v>
       </c>
-      <c r="K44" s="48" t="s">
+      <c r="L44" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51" t="s">
         <v>292</v>
       </c>
       <c r="B45" s="51">
         <v>10</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D45" s="52">
         <v>44680</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="52"/>
+      <c r="F45" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="F45" s="51">
+      <c r="G45" s="51">
         <v>22401.48</v>
       </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51">
+      <c r="H45" s="51"/>
+      <c r="I45" s="51">
         <f t="shared" si="6"/>
         <v>22401.48</v>
       </c>
-      <c r="I45" s="51">
+      <c r="J45" s="51">
         <f t="shared" si="7"/>
         <v>2240.1480000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="57" t="s">
         <v>274</v>
       </c>
       <c r="B46" s="57">
         <v>10</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D46" s="58">
         <v>44692</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="58"/>
+      <c r="F46" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="57">
+      <c r="G46" s="57">
         <v>9818.06</v>
       </c>
-      <c r="G46" s="57">
+      <c r="H46" s="57">
         <v>256.16000000000003</v>
       </c>
-      <c r="H46" s="57">
+      <c r="I46" s="57">
         <f t="shared" si="6"/>
         <v>10074.219999999999</v>
       </c>
-      <c r="I46" s="57">
+      <c r="J46" s="57">
         <f t="shared" si="7"/>
         <v>1007.4219999999999</v>
       </c>
-      <c r="J46" s="48">
-        <f>-H46+770</f>
+      <c r="K46" s="48">
+        <f>-I46+770</f>
         <v>-9304.2199999999993</v>
       </c>
-      <c r="K46" s="48" t="s">
+      <c r="L46" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
         <v>274</v>
       </c>
       <c r="B47" s="54">
         <v>10</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="70" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="55">
         <v>44704</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="55"/>
+      <c r="F47" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="F47" s="54">
+      <c r="G47" s="54">
         <v>8969.2999999999993</v>
       </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54">
-        <f t="shared" ref="H47:H49" si="8">F47+G47</f>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54">
+        <f t="shared" ref="I47:I49" si="8">G47+H47</f>
         <v>8969.2999999999993</v>
       </c>
-      <c r="I47" s="54">
-        <f t="shared" ref="I47:I49" si="9">H47/B47</f>
+      <c r="J47" s="54">
+        <f t="shared" ref="J47:J49" si="9">I47/B47</f>
         <v>896.93</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="57" t="s">
         <v>274</v>
       </c>
       <c r="B48" s="57">
         <v>10</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="58">
         <v>44711</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="58"/>
+      <c r="F48" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="F48" s="57">
+      <c r="G48" s="57">
         <v>24409.15</v>
       </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57">
+      <c r="H48" s="57"/>
+      <c r="I48" s="57">
         <f t="shared" si="8"/>
         <v>24409.15</v>
       </c>
-      <c r="I48" s="57">
+      <c r="J48" s="57">
         <f t="shared" si="9"/>
         <v>2440.915</v>
       </c>
-      <c r="J48" s="48">
+      <c r="K48" s="48">
         <v>-24409.15</v>
       </c>
-      <c r="K48" s="48" t="s">
+      <c r="L48" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>336</v>
       </c>
@@ -7802,317 +8880,1600 @@
       <c r="D49" s="49">
         <v>44748</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="49"/>
+      <c r="F49" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="F49" s="48">
+      <c r="G49" s="48">
         <v>2760</v>
       </c>
-      <c r="H49" s="48">
+      <c r="I49" s="48">
         <f t="shared" si="8"/>
         <v>2760</v>
       </c>
-      <c r="I49" s="48">
+      <c r="J49" s="48">
         <f t="shared" si="9"/>
         <v>13.8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
         <v>274</v>
       </c>
       <c r="B50" s="54">
         <v>10</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="70" t="s">
         <v>261</v>
       </c>
       <c r="D50" s="55">
         <v>44751</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="55"/>
+      <c r="F50" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="G50" s="54">
+        <v>9280.43</v>
+      </c>
+      <c r="I50" s="54">
+        <f t="shared" ref="I50:I51" si="10">G50+H50</f>
+        <v>9280.43</v>
+      </c>
+      <c r="J50" s="54">
+        <f t="shared" ref="J50:J51" si="11">I50/B50</f>
+        <v>928.04300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62" t="s">
         <v>339</v>
       </c>
-      <c r="F50" s="54">
-        <v>9280.43</v>
-      </c>
-      <c r="H50" s="54">
-        <f t="shared" ref="H50:H51" si="10">F50+G50</f>
-        <v>9280.43</v>
-      </c>
-      <c r="I50" s="54">
-        <f t="shared" ref="I50:I51" si="11">H50/B50</f>
-        <v>928.04300000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70" t="s">
-        <v>341</v>
-      </c>
-      <c r="B51" s="70">
+      <c r="B51" s="62">
         <v>10</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="71">
+      <c r="D51" s="63">
         <v>44771</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E51" s="63"/>
+      <c r="F51" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="F51" s="70">
+      <c r="G51" s="62">
         <v>894.11</v>
       </c>
-      <c r="G51" s="70">
+      <c r="H51" s="62">
         <v>564.54</v>
       </c>
-      <c r="H51" s="48">
+      <c r="I51" s="48">
         <f t="shared" si="10"/>
         <v>1458.65</v>
       </c>
-      <c r="I51" s="48">
+      <c r="J51" s="48">
         <f t="shared" si="11"/>
         <v>145.86500000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
       <c r="B52">
         <v>100</v>
       </c>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="66" t="s">
         <v>261</v>
       </c>
       <c r="D52" s="38">
         <v>44796</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="38"/>
+      <c r="F52" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G52">
         <v>632.07000000000005</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>566.91999999999996</v>
       </c>
-      <c r="H52" s="48">
-        <f t="shared" ref="H52" si="12">F52+G52</f>
+      <c r="I52" s="48">
+        <f t="shared" ref="I52:I54" si="12">G52+H52</f>
         <v>1198.99</v>
       </c>
-      <c r="I52" s="48">
-        <f t="shared" ref="I52" si="13">H52/B52</f>
+      <c r="J52" s="48">
+        <f t="shared" ref="J52:J54" si="13">I52/B52</f>
         <v>11.9899</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>461</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="38">
+        <v>44796</v>
+      </c>
+      <c r="E53" s="38"/>
+      <c r="F53" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="G53">
+        <v>643.55999999999995</v>
+      </c>
+      <c r="H53">
+        <v>208.77</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="12"/>
+        <v>852.32999999999993</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="13"/>
+        <v>142.05499999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>459</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="38">
+        <v>44796</v>
+      </c>
+      <c r="E54" s="38"/>
+      <c r="F54" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="G54">
+        <v>861.91</v>
+      </c>
+      <c r="H54">
+        <v>171.11</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="12"/>
+        <v>1033.02</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="13"/>
+        <v>206.60399999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="38">
+        <v>44802</v>
+      </c>
+      <c r="E55" s="38"/>
+      <c r="F55" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G55">
+        <v>313.3</v>
+      </c>
+      <c r="H55">
+        <v>452.48</v>
+      </c>
+      <c r="I55" s="48">
+        <f>G55+H55</f>
+        <v>765.78</v>
+      </c>
+      <c r="J55" s="48">
+        <f>I55/B55</f>
+        <v>76.578000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" s="54">
+        <v>10</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56" s="55">
+        <v>44803</v>
+      </c>
+      <c r="E56" s="55"/>
+      <c r="F56" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" s="54">
+        <v>35737.5</v>
+      </c>
+      <c r="I56" s="54">
+        <f>G56+H56</f>
+        <v>35737.5</v>
+      </c>
+      <c r="J56" s="54">
+        <f>I56/B56</f>
+        <v>3573.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>342</v>
       </c>
-      <c r="B53">
+      <c r="B57">
+        <v>750</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="38">
+        <v>44804</v>
+      </c>
+      <c r="E57" s="38"/>
+      <c r="F57" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G57">
+        <v>5292</v>
+      </c>
+      <c r="I57" s="48">
+        <f>G57+H57</f>
+        <v>5292</v>
+      </c>
+      <c r="J57" s="48">
+        <f>I57/B57</f>
+        <v>7.056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" s="38">
+        <v>44808</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58">
+        <v>1607.3</v>
+      </c>
+      <c r="H58">
+        <v>291.37</v>
+      </c>
+      <c r="I58" s="48">
+        <f>G58+H58</f>
+        <v>1898.67</v>
+      </c>
+      <c r="J58" s="48">
+        <f>I58/B58</f>
+        <v>18.986699999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>439</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="38">
+        <v>44846</v>
+      </c>
+      <c r="E59" s="38">
+        <v>44870</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="G59">
+        <v>141.93</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59" si="14">G59+H59</f>
+        <v>141.93</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ref="J59" si="15">I59/B59</f>
+        <v>1.4193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>442</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="38">
+        <v>44846</v>
+      </c>
+      <c r="E60" s="38">
+        <v>44870</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="G60">
+        <v>966.09</v>
+      </c>
+      <c r="H60">
+        <v>272.61</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I65" si="16">G60+H60</f>
+        <v>1238.7</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J63" si="17">I60/B60</f>
+        <v>24.774000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>439</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" s="38">
+        <v>44847</v>
+      </c>
+      <c r="E61" s="38">
+        <v>44859</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="G61">
+        <v>121.55</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="16"/>
+        <v>121.55</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="17"/>
+        <v>1.2155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="38">
+        <v>44857</v>
+      </c>
+      <c r="E62" s="38">
+        <v>44872</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62">
+        <v>1369.16</v>
+      </c>
+      <c r="H62">
+        <v>1273.04</v>
+      </c>
+      <c r="I62" s="48">
+        <f t="shared" si="16"/>
+        <v>2642.2</v>
+      </c>
+      <c r="J62" s="48">
+        <f t="shared" si="17"/>
+        <v>13.210999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="54">
         <v>10</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C63" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="55">
+        <v>44857</v>
+      </c>
+      <c r="E63" s="55">
+        <v>44891</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="G63" s="54">
+        <v>8147.86</v>
+      </c>
+      <c r="I63" s="54">
+        <f t="shared" si="16"/>
+        <v>8147.86</v>
+      </c>
+      <c r="J63" s="54">
+        <f t="shared" si="17"/>
+        <v>814.78599999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>475</v>
+      </c>
+      <c r="D64" s="38">
+        <v>44857</v>
+      </c>
+      <c r="E64" s="38">
+        <v>44862</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="G64">
+        <f>3770.6-H64</f>
+        <v>3534.6</v>
+      </c>
+      <c r="H64">
+        <v>236</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="16"/>
+        <v>3770.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="49">
+        <v>44868</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="G65" s="48">
+        <f>2549-H65</f>
+        <v>2450</v>
+      </c>
+      <c r="H65" s="48">
+        <v>99</v>
+      </c>
+      <c r="I65" s="48">
+        <f t="shared" si="16"/>
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>342</v>
+      </c>
+      <c r="B66">
+        <v>1500</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>470</v>
+      </c>
+      <c r="D66" s="38">
+        <v>44870</v>
+      </c>
+      <c r="E66" s="38">
+        <v>44870</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G66">
+        <v>10880</v>
+      </c>
+      <c r="I66" s="48">
+        <f>G66+H66</f>
+        <v>10880</v>
+      </c>
+      <c r="J66" s="48">
+        <f>I66/B66</f>
+        <v>7.253333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="B67" s="54">
+        <v>2</v>
+      </c>
+      <c r="C67" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="55">
+        <v>44872</v>
+      </c>
+      <c r="E67" s="55">
+        <v>44898</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="G67" s="54">
+        <v>3994.82</v>
+      </c>
+      <c r="H67" s="54">
+        <v>201.07</v>
+      </c>
+      <c r="I67" s="54">
+        <f t="shared" ref="I67" si="18">G67+H67</f>
+        <v>4195.8900000000003</v>
+      </c>
+      <c r="J67" s="54">
+        <f t="shared" ref="J67" si="19">I67/B67</f>
+        <v>2097.9450000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="B68" s="54">
+        <v>2</v>
+      </c>
+      <c r="C68" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="55">
+        <v>44872</v>
+      </c>
+      <c r="E68" s="55">
+        <v>44891</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="G68" s="54">
+        <v>4594.04</v>
+      </c>
+      <c r="H68" s="54">
+        <v>189.09</v>
+      </c>
+      <c r="I68" s="54">
+        <f t="shared" ref="I68:I69" si="20">G68+H68</f>
+        <v>4783.13</v>
+      </c>
+      <c r="J68" s="54">
+        <f t="shared" ref="J68:J69" si="21">I68/B68</f>
+        <v>2391.5650000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69" s="62">
+        <v>5</v>
+      </c>
+      <c r="C69" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="D53" s="38">
-        <v>44802</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F53">
-        <v>313.3</v>
-      </c>
-      <c r="G53">
-        <v>452.48</v>
-      </c>
-      <c r="H53" s="48">
-        <f>F53+G53</f>
-        <v>765.78</v>
-      </c>
-      <c r="I53" s="48">
-        <f>H53/B53</f>
-        <v>76.578000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
+      <c r="D69" s="63">
+        <v>44874</v>
+      </c>
+      <c r="E69" s="63">
+        <v>44913</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" s="62">
+        <v>1727.71</v>
+      </c>
+      <c r="H69" s="62">
+        <v>842.69</v>
+      </c>
+      <c r="I69" s="48">
+        <f t="shared" si="20"/>
+        <v>2570.4</v>
+      </c>
+      <c r="J69" s="48">
+        <f t="shared" si="21"/>
+        <v>514.08000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="B54" s="48">
+      <c r="B70" s="54">
         <v>10</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C70" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="D54" s="49">
-        <v>44803</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="D70" s="55">
+        <v>44886</v>
+      </c>
+      <c r="E70" s="55">
+        <v>44913</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="G70" s="54">
+        <v>34325.760000000002</v>
+      </c>
+      <c r="I70" s="54">
+        <f>G70+H70</f>
+        <v>34325.760000000002</v>
+      </c>
+      <c r="J70" s="54">
+        <f>I70/B70</f>
+        <v>3432.576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" s="54">
+        <v>10</v>
+      </c>
+      <c r="C71" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" s="55">
+        <v>44887</v>
+      </c>
+      <c r="E71" s="55">
+        <v>44912</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="G71" s="54">
+        <v>34622.51</v>
+      </c>
+      <c r="I71" s="54">
+        <f>G71+H71</f>
+        <v>34622.51</v>
+      </c>
+      <c r="J71" s="54">
+        <f>I71/B71</f>
+        <v>3462.2510000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="49">
+        <v>44930</v>
+      </c>
+      <c r="E72" s="49"/>
+      <c r="F72" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="G72" s="48">
+        <v>1410</v>
+      </c>
+      <c r="I72" s="48">
+        <f t="shared" ref="I72" si="22">G72+H72</f>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="49">
+        <v>44930</v>
+      </c>
+      <c r="E73" s="49"/>
+      <c r="F73" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="G73" s="48">
+        <v>410</v>
+      </c>
+      <c r="I73" s="48">
+        <f t="shared" ref="I73" si="23">G73+H73</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="62">
+        <v>10</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" s="63">
+        <v>44942</v>
+      </c>
+      <c r="E74" s="63">
+        <v>44981</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="G74" s="62">
+        <v>1085.1099999999999</v>
+      </c>
+      <c r="H74" s="62">
+        <f>1217.48/2</f>
+        <v>608.74</v>
+      </c>
+      <c r="I74" s="48">
+        <f t="shared" ref="I74" si="24">G74+H74</f>
+        <v>1693.85</v>
+      </c>
+      <c r="J74" s="48">
+        <f t="shared" ref="J74" si="25">I74/B74</f>
+        <v>169.38499999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>340</v>
       </c>
-      <c r="F54" s="48">
-        <v>35737.5</v>
-      </c>
-      <c r="H54" s="48">
-        <f>F54+G54</f>
-        <v>35737.5</v>
-      </c>
-      <c r="I54" s="48">
-        <f>H54/B54</f>
-        <v>3573.75</v>
-      </c>
-      <c r="K54" s="48" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>345</v>
-      </c>
-      <c r="B55">
-        <v>750</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="D55" s="38">
-        <v>44804</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F55">
-        <v>5292</v>
-      </c>
-      <c r="H55" s="48">
-        <f>F55+G55</f>
-        <v>5292</v>
-      </c>
-      <c r="I55" s="48">
-        <f>H55/B55</f>
-        <v>7.056</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56">
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="63">
+        <v>44942</v>
+      </c>
+      <c r="E75" s="63">
+        <v>44981</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="G75">
+        <v>384.79</v>
+      </c>
+      <c r="H75" s="62">
+        <f>1217.48/2</f>
+        <v>608.74</v>
+      </c>
+      <c r="I75" s="48">
+        <f>G75+H75</f>
+        <v>993.53</v>
+      </c>
+      <c r="J75" s="48">
+        <f>I75/B75</f>
+        <v>99.352999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="49">
+        <v>44957</v>
+      </c>
+      <c r="E76" s="49"/>
+      <c r="F76" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G76" s="48">
+        <v>2030</v>
+      </c>
+      <c r="I76" s="48">
+        <f t="shared" ref="I76" si="26">G76+H76</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>475</v>
+      </c>
+      <c r="D77" s="38">
+        <v>44961</v>
+      </c>
+      <c r="E77" s="38">
+        <v>44963</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="G77">
+        <f>4190.72-H77</f>
+        <v>3954.7200000000003</v>
+      </c>
+      <c r="H77">
+        <v>236</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ref="I77" si="27">G77+H77</f>
+        <v>4190.72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>442</v>
+      </c>
+      <c r="B78">
         <v>100</v>
       </c>
-      <c r="C56" s="74" t="s">
+      <c r="C78" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="D56" s="38">
-        <v>44808</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F56">
-        <v>1607.3</v>
-      </c>
-      <c r="G56">
-        <v>291.37</v>
-      </c>
-      <c r="H56" s="48">
-        <f>F56+G56</f>
-        <v>1898.67</v>
-      </c>
-      <c r="I56" s="48">
-        <f>H56/B56</f>
-        <v>18.986699999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="D78" s="38">
+        <v>44978</v>
+      </c>
+      <c r="E78" s="38">
+        <v>45000</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="G78">
+        <v>2040.1</v>
+      </c>
+      <c r="H78">
+        <v>394.42</v>
+      </c>
+      <c r="I78">
+        <f>G78+H78</f>
+        <v>2434.52</v>
+      </c>
+      <c r="J78">
+        <f>I78/B78</f>
+        <v>24.345199999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>454</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="38">
+        <v>44978</v>
+      </c>
+      <c r="E79" s="38">
+        <v>45000</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="G79">
+        <v>916.2</v>
+      </c>
+      <c r="H79">
+        <v>272.52</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79:I81" si="28">G79+H79</f>
+        <v>1188.72</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79:J80" si="29">I79/B79</f>
+        <v>11.8872</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="38">
+        <v>44978</v>
+      </c>
+      <c r="E80" s="38">
+        <v>45000</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="G80">
+        <v>179.36</v>
+      </c>
+      <c r="H80">
+        <v>81.52</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="28"/>
+        <v>260.88</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="29"/>
+        <v>2.6088</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="B81" s="48">
+        <v>100</v>
+      </c>
+      <c r="C81" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" s="49">
+        <v>44981</v>
+      </c>
+      <c r="E81" s="49"/>
+      <c r="F81" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="G81" s="48">
+        <v>800</v>
+      </c>
+      <c r="I81" s="48">
+        <f t="shared" si="28"/>
+        <v>800</v>
+      </c>
+      <c r="J81" s="48">
+        <f>I81/B81</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>459</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="38">
+        <v>44992</v>
+      </c>
+      <c r="E82" s="38">
+        <v>45007</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="G82">
+        <v>1083.7</v>
+      </c>
+      <c r="H82">
+        <v>214.35</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ref="I82" si="30">G82+H82</f>
+        <v>1298.05</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82" si="31">I82/B82</f>
+        <v>259.61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>461</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="38">
+        <v>44992</v>
+      </c>
+      <c r="E83" s="38">
+        <v>45004</v>
+      </c>
+      <c r="F83" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="G83">
+        <v>808.62</v>
+      </c>
+      <c r="H83">
+        <v>275.13</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ref="I83:I84" si="32">G83+H83</f>
+        <v>1083.75</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J83:J84" si="33">I83/B83</f>
+        <v>180.625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="57">
+        <v>10</v>
+      </c>
+      <c r="C84" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="58">
+        <v>44992</v>
+      </c>
+      <c r="E84" s="58">
+        <v>45007</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="G84" s="57">
+        <v>27225.3</v>
+      </c>
+      <c r="H84" s="57">
+        <v>628.65</v>
+      </c>
+      <c r="I84" s="57">
+        <f t="shared" si="32"/>
+        <v>27853.95</v>
+      </c>
+      <c r="J84" s="57">
+        <f t="shared" si="33"/>
+        <v>2785.395</v>
+      </c>
+      <c r="K84">
+        <f>-I84+770</f>
+        <v>-27083.95</v>
+      </c>
+      <c r="L84" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" s="38">
+        <v>44992</v>
+      </c>
+      <c r="E85" s="38"/>
+      <c r="F85" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G85">
+        <v>1218.0999999999999</v>
+      </c>
+      <c r="H85">
+        <v>1522.82</v>
+      </c>
+      <c r="I85" s="48">
+        <f>G85+H85</f>
+        <v>2740.92</v>
+      </c>
+      <c r="J85" s="48">
+        <f>I85/B85</f>
+        <v>13.704600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>463</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+      <c r="C86" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="38">
+        <v>44996</v>
+      </c>
+      <c r="E86" s="38">
+        <v>45004</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="G86">
+        <v>450</v>
+      </c>
+      <c r="H86">
+        <v>199</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86:I87" si="34">G86+H86</f>
+        <v>649</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86" si="35">I86/B86</f>
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>475</v>
+      </c>
+      <c r="D87" s="38">
+        <v>44996</v>
+      </c>
+      <c r="E87" s="38"/>
+      <c r="F87" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="G87">
+        <v>845.76</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="34"/>
+        <v>845.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B88" s="62">
+        <v>10</v>
+      </c>
+      <c r="C88" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" s="63">
+        <v>45007</v>
+      </c>
+      <c r="E88" s="63"/>
+      <c r="F88" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="G88" s="62">
+        <v>37772.269999999997</v>
+      </c>
+      <c r="H88" s="62">
+        <v>462.46</v>
+      </c>
+      <c r="I88" s="62">
+        <f>G88+H88</f>
+        <v>38234.729999999996</v>
+      </c>
+      <c r="J88" s="62">
+        <f>I88/B88</f>
+        <v>3823.4729999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>263</v>
       </c>
-      <c r="F57">
-        <f>SUM(F2:F56)</f>
-        <v>257203.43999999997</v>
-      </c>
-      <c r="G57">
-        <f>SUM(G2:G56)</f>
-        <v>16026.86</v>
-      </c>
-      <c r="H57">
-        <f>SUM(H2:H56)</f>
-        <v>280854.37999999995</v>
-      </c>
-      <c r="J57">
-        <f>SUM(J2:J56)</f>
-        <v>-105889.55000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H58">
-        <f>H57+J57</f>
-        <v>174964.82999999993</v>
+      <c r="G89">
+        <f>SUM(G2:G88)</f>
+        <v>448198.96999999986</v>
+      </c>
+      <c r="H89">
+        <f>SUM(H2:H88)</f>
+        <v>25024.590000000004</v>
+      </c>
+      <c r="I89">
+        <f>SUM(I2:I88)</f>
+        <v>480847.6399999999</v>
+      </c>
+      <c r="K89">
+        <f>SUM(K2:K88)</f>
+        <v>-132973.50000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <f>I89+K89</f>
+        <v>347874.1399999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:H17">
+  <sortState ref="A3:I17">
     <sortCondition ref="D3:D17"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{CB630380-0950-7C44-B347-9BC00703F09B}"/>
-    <hyperlink ref="E13" r:id="rId2" xr:uid="{A1F72DC7-8876-0746-AF77-DCF52AC178DB}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{896CABBB-9387-2B45-977F-ECF3B23CC7A1}"/>
-    <hyperlink ref="E16" r:id="rId4" xr:uid="{D3D76F13-A1F0-804E-B5CD-7DDB43FEEFDE}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{A760C615-A731-3D4D-A7AC-6EFEA528B304}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{03A6F4E0-1282-144F-80C3-864911B228E6}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{5105C4FF-DB5C-6149-9F71-304F505E12BD}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{9BA2CC76-0203-534E-915F-2228906C507D}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{47BE56D0-0607-6946-8F3F-7F4834384674}"/>
-    <hyperlink ref="E5" r:id="rId10" xr:uid="{3B0615E9-05E6-1348-AD05-7827293D3C2F}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{03511585-F099-F148-8ACD-ECF293E1FC42}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{F6529319-E351-D449-AC35-9F03DFCE8FA0}"/>
-    <hyperlink ref="E12" r:id="rId13" xr:uid="{B0AF129A-0554-1243-B411-322BC21B768A}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{D05BC112-802C-DC47-9F17-98CFCB769AA5}"/>
-    <hyperlink ref="E19" r:id="rId15" xr:uid="{1651C4B6-1381-8940-BCA7-06E377D29CE0}"/>
-    <hyperlink ref="E20" r:id="rId16" xr:uid="{E7446332-3E5B-644E-9AA0-C5628BCA4590}"/>
-    <hyperlink ref="E21" r:id="rId17" xr:uid="{6C3699B8-36DA-AC41-835A-C953378B2EED}"/>
-    <hyperlink ref="E28" r:id="rId18" display="https://service.rezonit.ru/orders/1168288" xr:uid="{5F5194D4-47C3-5E4A-B049-5EC5BB213559}"/>
-    <hyperlink ref="E22" r:id="rId19" display="https://trade.aliexpress.ru/order_detail.htm?spm=a2g39.orderlist.0.0.43064aa6aMZspA&amp;orderId=5017385647722510&amp;orderSource=GlobalTrade" xr:uid="{88C29FA9-84CA-7744-8F81-452C165ED756}"/>
-    <hyperlink ref="E27" r:id="rId20" display="https://www.chipdip.ru/order/detail/8338098" xr:uid="{8B16CDE7-F403-6744-A5F9-4F7558094CF7}"/>
-    <hyperlink ref="E25" r:id="rId21" display="https://trade.aliexpress.ru/order_detail.htm?spm=a2g39.orderlist.0.0.43064aa6aMZspA&amp;orderId=5017461801272510&amp;orderSource=GlobalTrade" xr:uid="{B1B1A8B3-1946-3843-9A63-65217FDEAB42}"/>
-    <hyperlink ref="E30" r:id="rId22" display="https://www.terraelectronica.ru/order/07863451" xr:uid="{0513FCDD-820D-254B-A3BB-7E583B63D597}"/>
-    <hyperlink ref="E31" r:id="rId23" display="https://www.chipdip.ru/order/detail/8341104" xr:uid="{514F43BD-CD0B-CC45-AD57-F82BC773DE00}"/>
-    <hyperlink ref="E32" r:id="rId24" display="https://www.aliexpress.ru/item/4000903717748.html" xr:uid="{C79C3910-C31E-F041-89EE-4AB03879FED8}"/>
-    <hyperlink ref="E29" r:id="rId25" display="https://www.chipdip.ru/order/detail/8341083" xr:uid="{54721237-482F-4D47-8023-6A0DA2B815CA}"/>
-    <hyperlink ref="E33" r:id="rId26" xr:uid="{5E4C86B1-B555-204E-B014-5C8F80AA5C93}"/>
-    <hyperlink ref="E34" r:id="rId27" xr:uid="{D5FF25F5-CA8A-264F-ADC6-0A1855351AD9}"/>
-    <hyperlink ref="E26" r:id="rId28" xr:uid="{5156E07C-403F-2D4B-B55E-3CABFD21F49E}"/>
-    <hyperlink ref="E24" r:id="rId29" xr:uid="{081A0804-9892-2542-BCD2-80E417EC9779}"/>
-    <hyperlink ref="E23" r:id="rId30" xr:uid="{5517ACCC-B746-F748-890C-4298A296BC03}"/>
-    <hyperlink ref="E35" r:id="rId31" xr:uid="{E7E16D6B-C09B-834D-B286-E345420E8B6D}"/>
-    <hyperlink ref="E36" r:id="rId32" xr:uid="{4A29119F-690E-0D4B-89D9-5E112B6AE31D}"/>
-    <hyperlink ref="E37" r:id="rId33" xr:uid="{9FBA82F0-0E1D-BF41-A2E2-41CFFE4B9323}"/>
-    <hyperlink ref="E38" r:id="rId34" xr:uid="{65A0962B-DC50-9540-951B-1D37B29EB711}"/>
-    <hyperlink ref="E39" r:id="rId35" xr:uid="{8361E872-121E-E148-BB98-F0066EC99CDD}"/>
-    <hyperlink ref="E40" r:id="rId36" xr:uid="{DD7021BC-45AC-4B4F-8CCA-F08000300BF4}"/>
-    <hyperlink ref="E41" r:id="rId37" xr:uid="{0F3E8F15-FBEB-8842-8215-37CDFC69AB7E}"/>
-    <hyperlink ref="E42" r:id="rId38" xr:uid="{10CEE9C2-82A8-CC45-A6A6-14F7DCC64693}"/>
-    <hyperlink ref="E43" r:id="rId39" xr:uid="{E96D7D03-BF96-8043-90DB-4EF74E716DB1}"/>
-    <hyperlink ref="E44" r:id="rId40" xr:uid="{ADC76D0D-C188-FE4F-86CE-83F8D97A4D8C}"/>
-    <hyperlink ref="E45" r:id="rId41" xr:uid="{BD115EF7-E3D1-664C-9A30-FEAB2B25F848}"/>
-    <hyperlink ref="E46" r:id="rId42" xr:uid="{CF94E7B7-C366-4D4E-8229-38BDE9F03BF4}"/>
-    <hyperlink ref="E47" r:id="rId43" xr:uid="{95A1C08F-9023-F84D-B65C-7BF626881F4F}"/>
-    <hyperlink ref="E48" r:id="rId44" xr:uid="{77705E35-546E-9743-8D8D-38E420644673}"/>
-    <hyperlink ref="E49" r:id="rId45" xr:uid="{9EE574D3-89CC-694A-B221-53984F4A157F}"/>
-    <hyperlink ref="E50" r:id="rId46" xr:uid="{2554BA5E-1FF4-2D4C-8D5C-E3A4C0AFFEC2}"/>
-    <hyperlink ref="E54" r:id="rId47" xr:uid="{C1B4A561-4DB7-E842-810C-F5C7E3789828}"/>
-    <hyperlink ref="E51" r:id="rId48" xr:uid="{DBEDF968-BC4F-F64F-817D-220F1447755E}"/>
-    <hyperlink ref="E53" r:id="rId49" xr:uid="{0A6D6F6F-7FCE-9146-B446-406D217B41FC}"/>
-    <hyperlink ref="E56" r:id="rId50" xr:uid="{C87ED12D-F9A5-8C45-9DC4-C28919630AF2}"/>
-    <hyperlink ref="E55" r:id="rId51" xr:uid="{4B309696-6BC6-5845-AD65-87D86527AF19}"/>
-    <hyperlink ref="E52" r:id="rId52" xr:uid="{85F9A506-90F0-7B4E-84CD-8FACA2B3D8A2}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{CB630380-0950-7C44-B347-9BC00703F09B}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{A1F72DC7-8876-0746-AF77-DCF52AC178DB}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{896CABBB-9387-2B45-977F-ECF3B23CC7A1}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{D3D76F13-A1F0-804E-B5CD-7DDB43FEEFDE}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{A760C615-A731-3D4D-A7AC-6EFEA528B304}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{03A6F4E0-1282-144F-80C3-864911B228E6}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{5105C4FF-DB5C-6149-9F71-304F505E12BD}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{9BA2CC76-0203-534E-915F-2228906C507D}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{47BE56D0-0607-6946-8F3F-7F4834384674}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{3B0615E9-05E6-1348-AD05-7827293D3C2F}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{03511585-F099-F148-8ACD-ECF293E1FC42}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{F6529319-E351-D449-AC35-9F03DFCE8FA0}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{B0AF129A-0554-1243-B411-322BC21B768A}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{D05BC112-802C-DC47-9F17-98CFCB769AA5}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{1651C4B6-1381-8940-BCA7-06E377D29CE0}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{E7446332-3E5B-644E-9AA0-C5628BCA4590}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{6C3699B8-36DA-AC41-835A-C953378B2EED}"/>
+    <hyperlink ref="F28" r:id="rId18" display="https://service.rezonit.ru/orders/1168288" xr:uid="{5F5194D4-47C3-5E4A-B049-5EC5BB213559}"/>
+    <hyperlink ref="F22" r:id="rId19" display="https://trade.aliexpress.ru/order_detail.htm?spm=a2g39.orderlist.0.0.43064aa6aMZspA&amp;orderId=5017385647722510&amp;orderSource=GlobalTrade" xr:uid="{88C29FA9-84CA-7744-8F81-452C165ED756}"/>
+    <hyperlink ref="F27" r:id="rId20" display="https://www.chipdip.ru/order/detail/8338098" xr:uid="{8B16CDE7-F403-6744-A5F9-4F7558094CF7}"/>
+    <hyperlink ref="F25" r:id="rId21" display="https://trade.aliexpress.ru/order_detail.htm?spm=a2g39.orderlist.0.0.43064aa6aMZspA&amp;orderId=5017461801272510&amp;orderSource=GlobalTrade" xr:uid="{B1B1A8B3-1946-3843-9A63-65217FDEAB42}"/>
+    <hyperlink ref="F30" r:id="rId22" display="https://www.terraelectronica.ru/order/07863451" xr:uid="{0513FCDD-820D-254B-A3BB-7E583B63D597}"/>
+    <hyperlink ref="F31" r:id="rId23" display="https://www.chipdip.ru/order/detail/8341104" xr:uid="{514F43BD-CD0B-CC45-AD57-F82BC773DE00}"/>
+    <hyperlink ref="F32" r:id="rId24" display="https://www.aliexpress.ru/item/4000903717748.html" xr:uid="{C79C3910-C31E-F041-89EE-4AB03879FED8}"/>
+    <hyperlink ref="F29" r:id="rId25" display="https://www.chipdip.ru/order/detail/8341083" xr:uid="{54721237-482F-4D47-8023-6A0DA2B815CA}"/>
+    <hyperlink ref="F33" r:id="rId26" xr:uid="{5E4C86B1-B555-204E-B014-5C8F80AA5C93}"/>
+    <hyperlink ref="F34" r:id="rId27" xr:uid="{D5FF25F5-CA8A-264F-ADC6-0A1855351AD9}"/>
+    <hyperlink ref="F26" r:id="rId28" xr:uid="{5156E07C-403F-2D4B-B55E-3CABFD21F49E}"/>
+    <hyperlink ref="F24" r:id="rId29" xr:uid="{081A0804-9892-2542-BCD2-80E417EC9779}"/>
+    <hyperlink ref="F23" r:id="rId30" xr:uid="{5517ACCC-B746-F748-890C-4298A296BC03}"/>
+    <hyperlink ref="F35" r:id="rId31" xr:uid="{E7E16D6B-C09B-834D-B286-E345420E8B6D}"/>
+    <hyperlink ref="F36" r:id="rId32" xr:uid="{4A29119F-690E-0D4B-89D9-5E112B6AE31D}"/>
+    <hyperlink ref="F37" r:id="rId33" xr:uid="{9FBA82F0-0E1D-BF41-A2E2-41CFFE4B9323}"/>
+    <hyperlink ref="F38" r:id="rId34" xr:uid="{65A0962B-DC50-9540-951B-1D37B29EB711}"/>
+    <hyperlink ref="F39" r:id="rId35" xr:uid="{8361E872-121E-E148-BB98-F0066EC99CDD}"/>
+    <hyperlink ref="F40" r:id="rId36" xr:uid="{DD7021BC-45AC-4B4F-8CCA-F08000300BF4}"/>
+    <hyperlink ref="F41" r:id="rId37" xr:uid="{0F3E8F15-FBEB-8842-8215-37CDFC69AB7E}"/>
+    <hyperlink ref="F42" r:id="rId38" xr:uid="{10CEE9C2-82A8-CC45-A6A6-14F7DCC64693}"/>
+    <hyperlink ref="F43" r:id="rId39" xr:uid="{E96D7D03-BF96-8043-90DB-4EF74E716DB1}"/>
+    <hyperlink ref="F44" r:id="rId40" xr:uid="{ADC76D0D-C188-FE4F-86CE-83F8D97A4D8C}"/>
+    <hyperlink ref="F45" r:id="rId41" xr:uid="{BD115EF7-E3D1-664C-9A30-FEAB2B25F848}"/>
+    <hyperlink ref="F46" r:id="rId42" xr:uid="{CF94E7B7-C366-4D4E-8229-38BDE9F03BF4}"/>
+    <hyperlink ref="F47" r:id="rId43" xr:uid="{95A1C08F-9023-F84D-B65C-7BF626881F4F}"/>
+    <hyperlink ref="F48" r:id="rId44" xr:uid="{77705E35-546E-9743-8D8D-38E420644673}"/>
+    <hyperlink ref="F49" r:id="rId45" xr:uid="{9EE574D3-89CC-694A-B221-53984F4A157F}"/>
+    <hyperlink ref="F50" r:id="rId46" xr:uid="{2554BA5E-1FF4-2D4C-8D5C-E3A4C0AFFEC2}"/>
+    <hyperlink ref="F56" r:id="rId47" xr:uid="{C1B4A561-4DB7-E842-810C-F5C7E3789828}"/>
+    <hyperlink ref="F51" r:id="rId48" xr:uid="{DBEDF968-BC4F-F64F-817D-220F1447755E}"/>
+    <hyperlink ref="F55" r:id="rId49" xr:uid="{0A6D6F6F-7FCE-9146-B446-406D217B41FC}"/>
+    <hyperlink ref="F58" r:id="rId50" xr:uid="{C87ED12D-F9A5-8C45-9DC4-C28919630AF2}"/>
+    <hyperlink ref="F57" r:id="rId51" xr:uid="{4B309696-6BC6-5845-AD65-87D86527AF19}"/>
+    <hyperlink ref="F52" r:id="rId52" xr:uid="{85F9A506-90F0-7B4E-84CD-8FACA2B3D8A2}"/>
+    <hyperlink ref="F59" r:id="rId53" xr:uid="{D11FE9BA-27B4-EB41-85AD-779F4784524A}"/>
+    <hyperlink ref="F60" r:id="rId54" xr:uid="{03484A7C-C298-294E-9CC2-1D47521F3A89}"/>
+    <hyperlink ref="F61" r:id="rId55" xr:uid="{1805FC9D-E2B8-EB42-985A-486477FEF6ED}"/>
+    <hyperlink ref="F62" r:id="rId56" xr:uid="{7C9500F1-3133-494C-9A99-845778D4B89F}"/>
+    <hyperlink ref="F63" r:id="rId57" xr:uid="{32B3DF5D-A299-024C-BEEF-311D04DDD6B7}"/>
+    <hyperlink ref="F67" r:id="rId58" xr:uid="{65AAC332-221F-3945-AE16-63F0246059FB}"/>
+    <hyperlink ref="F68" r:id="rId59" xr:uid="{C3F546F0-5BAC-174B-9CDA-294F71B8F6A9}"/>
+    <hyperlink ref="F70" r:id="rId60" xr:uid="{F70393D1-1A2C-914E-8FA1-7A069292CC0E}"/>
+    <hyperlink ref="F71" r:id="rId61" xr:uid="{F6A01B2B-D184-D545-BBE6-F34CD41C54C4}"/>
+    <hyperlink ref="F78" r:id="rId62" xr:uid="{918BB563-E432-AF4B-A7D2-3C548A0395C5}"/>
+    <hyperlink ref="F74" r:id="rId63" xr:uid="{9C7DC2D2-25CA-9341-8E5C-95C9FFC246B3}"/>
+    <hyperlink ref="F75" r:id="rId64" xr:uid="{8776B2FD-5E57-3E49-8AD4-8B9D40CCF808}"/>
+    <hyperlink ref="F79" r:id="rId65" xr:uid="{23170DCE-F0DF-204C-B4D4-3144D5DED2B3}"/>
+    <hyperlink ref="F80" r:id="rId66" xr:uid="{F833F813-F398-3C41-9D99-12AC0B7A2AC7}"/>
+    <hyperlink ref="F69" r:id="rId67" xr:uid="{F7A96BC7-508D-C44E-8B6B-79FA3A94D992}"/>
+    <hyperlink ref="F82" r:id="rId68" xr:uid="{AEA8D92F-778F-2C4A-871B-47D226865BCC}"/>
+    <hyperlink ref="F83" r:id="rId69" xr:uid="{02CDFD27-AF33-6D40-80E5-1258E8D1AD0D}"/>
+    <hyperlink ref="F86" r:id="rId70" xr:uid="{F81E451E-270E-3D4B-B26D-07872402A5B0}"/>
+    <hyperlink ref="F53" r:id="rId71" xr:uid="{E3CE6101-5901-124E-BA6A-D643AFA38369}"/>
+    <hyperlink ref="F54" r:id="rId72" xr:uid="{081BD95E-037E-1E4B-AF35-73BB3D52EDD0}"/>
+    <hyperlink ref="F66" r:id="rId73" xr:uid="{8D0CC67C-4996-0540-B223-89F3EEAA7C9A}"/>
+    <hyperlink ref="F84" r:id="rId74" xr:uid="{B542BD2D-0410-DC48-8D6C-84FCA2F8FDD2}"/>
+    <hyperlink ref="F85" r:id="rId75" xr:uid="{E9D29870-AD05-1B41-8F6B-544E8BA5B052}"/>
+    <hyperlink ref="F88" r:id="rId76" xr:uid="{0B64F9FA-864F-DD4E-8E48-618EC380C2EF}"/>
+    <hyperlink ref="F64" r:id="rId77" xr:uid="{584AF63F-9001-4145-9E7D-D9524A30A246}"/>
+    <hyperlink ref="F77" r:id="rId78" xr:uid="{77607574-35AE-CD41-AC0B-E011EB14D3E3}"/>
+    <hyperlink ref="F87" r:id="rId79" xr:uid="{5EF3E29C-076A-BC4B-B339-65463A891FFB}"/>
+    <hyperlink ref="F65" r:id="rId80" xr:uid="{ABFA6DE5-3E9A-E042-A944-81FD21C921CF}"/>
+    <hyperlink ref="F72" r:id="rId81" xr:uid="{85A05EEA-98E1-7246-BD15-DA7A0BE639FC}"/>
+    <hyperlink ref="F73" r:id="rId82" xr:uid="{5C2126F0-B6ED-8447-825C-BD578BD7C3A3}"/>
+    <hyperlink ref="F76" r:id="rId83" xr:uid="{319DC50F-69C4-944E-9E37-B62C0DB0F5E6}"/>
+    <hyperlink ref="F81" r:id="rId84" xr:uid="{6F1CA0AA-E974-4E4D-968B-454382C6F953}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD36117-6648-D54C-954D-B71E80FF11EB}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+    </row>
+    <row r="2" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+    </row>
+    <row r="3" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+    </row>
+    <row r="5" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+    </row>
+    <row r="6" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+    </row>
+    <row r="7" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+    </row>
+    <row r="8" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+    </row>
+    <row r="10" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="85" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="85" t="s">
+        <v>437</v>
+      </c>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="85" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+    </row>
+    <row r="17" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+    </row>
+    <row r="18" spans="1:10" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="86"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>